--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
-    <sheet name="Spring Core" sheetId="13" r:id="rId2"/>
-    <sheet name="Spring MVC" sheetId="14" r:id="rId3"/>
-    <sheet name="Spring REST" sheetId="15" r:id="rId4"/>
-    <sheet name="Spring  Data JPA" sheetId="16" r:id="rId5"/>
-    <sheet name="Spring Data REST" sheetId="17" r:id="rId6"/>
+    <sheet name="JPA with Hibernate" sheetId="10" r:id="rId2"/>
+    <sheet name="Spring Core" sheetId="13" r:id="rId3"/>
+    <sheet name="Spring MVC" sheetId="14" r:id="rId4"/>
+    <sheet name="Spring REST" sheetId="15" r:id="rId5"/>
+    <sheet name="Spring  Data JPA" sheetId="16" r:id="rId6"/>
+    <sheet name="Spring Data REST" sheetId="17" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="367">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -75,15 +76,223 @@
     <t>Sections</t>
   </si>
   <si>
+    <t>Day 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Learn to interact with database applications from Java programs using the Hibernate framework.                       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore object-relational mapping (ORM) and its problems.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                           </t>
+    </r>
+  </si>
+  <si>
+    <t>1. Course Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Introducing ORM and Its Problems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introducing ORM and Its Problems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. The Granularity Problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. The Inheritance Problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. The Associations Problem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. The Data Navigation Problem </t>
+  </si>
+  <si>
+    <t>7. A Simple Hibernate Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Working with Entities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introducing Working with Entities </t>
+  </si>
+  <si>
+    <t>2. Demo: A Secondary Table with One Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Demo: A Secondary Table with Multiple Fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Demo: Multiple Secondary Tables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Entity Access Types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Entity Primary Keys and Entity Identity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Demo: Primary Keys with @GeneratedValue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Demo: Embeddable Primary Key and Embedded ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Demo: Embeddable Primary Key and ID Class </t>
+  </si>
+  <si>
+    <t>Day 2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Discover entities, entity relationships, and inheritance.                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Work with the EntityManager API.                                When you’re finished with this course, you’ll have the skills and knowledge needed to quickly and efficiently develop Java database applications using Hibernate.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Entity Relationships </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introducing Entity Relationships </t>
+  </si>
+  <si>
+    <t>2. Demo: Define One-to-many and Many-to-one Relationships</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Demo: Define Many-to-many Relationships  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.Annotations for Relationship Definition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Demo: Join Tables on One Column </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Demo: Join Tables on Multiple Columns </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. Embeddable Classes </t>
+  </si>
+  <si>
+    <t>8. Demo: Embedding Classes in Entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. Demo: Embedding Collections of Classes in Entities </t>
+  </si>
+  <si>
+    <t>10. Demo: Embedding Maps of Classes in Entities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Entity Inheritance  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Introducing Entity Inheritance </t>
+  </si>
+  <si>
+    <t>2. Demo: Extend One Entity</t>
+  </si>
+  <si>
+    <t>3. Demo: Extend One Non-entity</t>
+  </si>
+  <si>
+    <t>4. Mapping Strategies</t>
+  </si>
+  <si>
+    <t>5. Demo: Single Table per Class Hierarchy</t>
+  </si>
+  <si>
+    <t>6. Demo: Joined Subclass Strategy</t>
+  </si>
+  <si>
+    <t>7. Demo: Table per Concrete Class Strategy</t>
+  </si>
+  <si>
+    <t>8. Demo: Conversion</t>
+  </si>
+  <si>
+    <t>6. The EntityManager API</t>
+  </si>
+  <si>
+    <t>1. Introducing the EntityManager API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Demo: Application-managed EntityManager </t>
+  </si>
+  <si>
+    <t>3. Demo: Container-managed EntityManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Finding Entities Using the EntityManager
+</t>
+  </si>
+  <si>
+    <t>5. Conclusions</t>
+  </si>
+  <si>
+    <t>Hands On Assignments</t>
+  </si>
+  <si>
+    <t>JPA Using Hibernate And  PostgreSQL</t>
+  </si>
+  <si>
+    <t>jpa-hibernate-exercises.zip</t>
+  </si>
+  <si>
+    <t>Total # of Days for JPA with Hibernate</t>
+  </si>
+  <si>
+    <t>Total # of Hours for JPA with Hibernate</t>
+  </si>
+  <si>
     <t>Day 3</t>
   </si>
   <si>
     <t>Spring Framework:                           Spring Fundamentals</t>
   </si>
   <si>
-    <t>1. Course Overview</t>
-  </si>
-  <si>
     <t>2. What Is Spring?</t>
   </si>
   <si>
@@ -253,9 +462,6 @@
   </si>
   <si>
     <t>8. Summary</t>
-  </si>
-  <si>
-    <t>Hands On Assignments</t>
   </si>
   <si>
     <t>Spring Framework : Spring Fundamentals</t>
@@ -1037,8 +1243,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -1174,9 +1380,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1190,14 +1403,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1213,7 +1456,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,20 +1475,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1282,35 +1511,12 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1351,7 +1557,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,91 +1593,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1617,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1477,7 +1635,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1489,49 +1713,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,19 +1834,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1684,17 +1909,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1702,30 +1923,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1743,134 +1949,134 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1943,6 +2149,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2312,7 +2530,7 @@
   <sheetPr/>
   <dimension ref="A7:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2326,137 +2544,137 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="31">
+      <c r="F9" s="35">
         <v>1</v>
       </c>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="33">
+      <c r="H9" s="37">
         <v>2</v>
       </c>
-      <c r="I9" s="33">
+      <c r="I9" s="37">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:9">
-      <c r="F10" s="34">
+      <c r="F10" s="38">
         <v>2</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="37">
         <v>7</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="37">
         <v>56</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="6:9">
-      <c r="F11" s="36">
+      <c r="F11" s="40">
         <v>3</v>
       </c>
-      <c r="G11" s="35" t="s">
+      <c r="G11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="37">
         <v>2</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="37">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="45.75" spans="6:9">
-      <c r="F12" s="34">
+      <c r="F12" s="38">
         <v>4</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="37">
         <v>5</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="37">
         <v>40</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="34">
+      <c r="F13" s="38">
         <v>5</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="37">
         <v>1</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="37">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="37"/>
-      <c r="G14" s="38" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="43" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="44" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="41">
+      <c r="A20" s="45">
         <v>1</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="41">
+      <c r="A21" s="45">
         <v>2</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:6">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2472,12 +2690,425 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="51.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="10" customHeight="1" spans="1:3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+    </row>
+    <row r="5" ht="19" customHeight="1" spans="1:3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="1:3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" ht="52" customHeight="1" spans="1:3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="12" customHeight="1" spans="1:3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="22" customHeight="1" spans="1:3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" ht="9" customHeight="1" spans="1:3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" ht="24.75" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" ht="38" customHeight="1" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" ht="21" customHeight="1" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" ht="17" customHeight="1" spans="1:3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" ht="13" customHeight="1" spans="1:3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" ht="21" customHeight="1" spans="1:3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" spans="1:3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="32"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="7"/>
+      <c r="C35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="7"/>
+      <c r="C36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="7"/>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" ht="18" customHeight="1" spans="1:3">
+      <c r="A43" s="3"/>
+      <c r="B43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" ht="18" customHeight="1" spans="1:3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="7"/>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" ht="18" customHeight="1" spans="1:3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="7"/>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" ht="16" customHeight="1" spans="1:3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="7"/>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" ht="16" customHeight="1" spans="1:3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="7"/>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" ht="15" spans="1:3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" ht="9" customHeight="1" spans="1:3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+    </row>
+    <row r="54" ht="18.75" spans="1:2">
+      <c r="A54" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" ht="18.75" spans="1:2">
+      <c r="A55" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="20">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A3:A20"/>
+    <mergeCell ref="A23:A50"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B49:B50"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A77" sqref="A77:B78"/>
+      <selection pane="bottomLeft" activeCell="A74" sqref="$A74:$XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -2500,14 +3131,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -2524,73 +3155,73 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="25"/>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="25"/>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="25"/>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="25"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="25"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="25"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="25"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="25"/>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="25"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="25"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2600,94 +3231,94 @@
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="25"/>
       <c r="B16" s="7" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="25"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="25"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="25"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="25"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="25"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="25"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="25"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="25"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="25"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="25"/>
       <c r="B26" s="7"/>
       <c r="C26" s="5" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="25"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="25"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2697,52 +3328,52 @@
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="25"/>
       <c r="B30" s="7" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="25"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="25"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="25"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="25"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="25"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="25"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
@@ -2753,66 +3384,66 @@
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="25"/>
       <c r="B38" s="7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="25"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="25"/>
       <c r="B40" s="7"/>
       <c r="C40" s="5" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="25"/>
       <c r="B41" s="7"/>
       <c r="C41" s="5" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="25"/>
       <c r="B42" s="7"/>
       <c r="C42" s="5" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="25"/>
       <c r="B43" s="7"/>
       <c r="C43" s="5" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="25"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="25"/>
       <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="25"/>
       <c r="B46" s="7"/>
       <c r="C46" s="5" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
@@ -2823,73 +3454,73 @@
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="25"/>
       <c r="B48" s="7" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="25"/>
       <c r="B49" s="7"/>
       <c r="C49" s="5" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="25"/>
       <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="25"/>
       <c r="B51" s="7"/>
       <c r="C51" s="5" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="25"/>
       <c r="B52" s="7"/>
       <c r="C52" s="5" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
       <c r="A53" s="25"/>
       <c r="B53" s="7"/>
       <c r="C53" s="5" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="25"/>
       <c r="B54" s="7"/>
       <c r="C54" s="5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="25"/>
       <c r="B55" s="7"/>
       <c r="C55" s="5" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="25"/>
       <c r="B56" s="7"/>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="25"/>
       <c r="B57" s="7"/>
       <c r="C57" s="5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
@@ -2899,59 +3530,59 @@
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="25"/>
       <c r="B59" s="7" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
       <c r="A60" s="25"/>
       <c r="B60" s="7"/>
       <c r="C60" s="5" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="25"/>
       <c r="B61" s="7"/>
       <c r="C61" s="5" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="25"/>
       <c r="B62" s="7"/>
       <c r="C62" s="5" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
       <c r="A63" s="25"/>
       <c r="B63" s="7"/>
       <c r="C63" s="5" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
       <c r="A64" s="25"/>
       <c r="B64" s="7"/>
       <c r="C64" s="5" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
       <c r="A65" s="25"/>
       <c r="B65" s="7"/>
       <c r="C65" s="5" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
       <c r="A66" s="25"/>
       <c r="B66" s="7"/>
       <c r="C66" s="5" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
@@ -2961,31 +3592,31 @@
     <row r="68" ht="15" spans="1:3">
       <c r="A68" s="25"/>
       <c r="B68" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
       <c r="A69" s="25"/>
       <c r="B69" s="9"/>
       <c r="C69" s="5" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
       <c r="A70" s="25"/>
       <c r="B70" s="9"/>
       <c r="C70" s="5" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="25"/>
       <c r="B71" s="9"/>
       <c r="C71" s="26" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" hidden="1" spans="1:3">
@@ -2997,7 +3628,7 @@
       <c r="A73" s="25"/>
       <c r="B73" s="9"/>
       <c r="C73" s="26" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74" ht="9" customHeight="1" spans="1:3">
@@ -3007,7 +3638,7 @@
     </row>
     <row r="77" ht="18.75" spans="1:2">
       <c r="A77" s="19" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B77" s="20">
         <v>1</v>
@@ -3015,7 +3646,7 @@
     </row>
     <row r="78" ht="18.75" spans="1:2">
       <c r="A78" s="19" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B78" s="20">
         <v>8</v>
@@ -3039,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C68"/>
@@ -3071,14 +3702,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -3095,45 +3726,45 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
@@ -3144,52 +3775,52 @@
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="6"/>
       <c r="B12" s="7" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -3199,38 +3830,38 @@
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="6"/>
       <c r="B20" s="7" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
@@ -3241,52 +3872,52 @@
     <row r="26" ht="15" spans="1:3">
       <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
-        <v>106</v>
+        <v>157</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="5" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="5" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="5" t="s">
-        <v>109</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="5" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="5" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
@@ -3296,48 +3927,48 @@
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="6" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="5" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3347,38 +3978,38 @@
     <row r="41" ht="15" spans="1:3">
       <c r="A41" s="6"/>
       <c r="B41" s="7" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="5" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="5" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" ht="18" spans="1:3">
@@ -3389,45 +4020,45 @@
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="5" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="5" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="5" t="s">
-        <v>126</v>
+        <v>177</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="5" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
@@ -3438,45 +4069,45 @@
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="6"/>
       <c r="B54" s="7" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="5" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="5" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="5" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="5" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="5" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
@@ -3487,24 +4118,24 @@
     <row r="61" ht="15" spans="1:3">
       <c r="A61" s="6"/>
       <c r="B61" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
       <c r="A62" s="6"/>
       <c r="B62" s="9"/>
       <c r="C62" s="11" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="6"/>
       <c r="B63" s="9"/>
       <c r="C63" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="64" ht="9" customHeight="1" spans="1:3">
@@ -3514,7 +4145,7 @@
     </row>
     <row r="67" ht="18.75" spans="1:2">
       <c r="A67" s="19" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="B67" s="20">
         <v>1</v>
@@ -3522,7 +4153,7 @@
     </row>
     <row r="68" ht="18.75" spans="1:2">
       <c r="A68" s="19" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="B68" s="20">
         <v>8</v>
@@ -3548,13 +4179,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -3580,14 +4211,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -3604,10 +4235,10 @@
     <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="7" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
@@ -3618,24 +4249,24 @@
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="3"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
@@ -3646,24 +4277,24 @@
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>146</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
-        <v>147</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
@@ -3674,24 +4305,24 @@
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="5" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
@@ -3702,40 +4333,40 @@
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="s">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="3"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="9"/>
       <c r="C23" s="22" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3750,7 +4381,7 @@
     </row>
     <row r="28" ht="18.75" spans="1:2">
       <c r="A28" s="19" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="B28" s="20">
         <v>1</v>
@@ -3758,7 +4389,7 @@
     </row>
     <row r="29" ht="18.75" spans="1:2">
       <c r="A29" s="19" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="B29" s="20">
         <v>8</v>
@@ -3780,13 +4411,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A98" sqref="A98:C98"/>
     </sheetView>
@@ -3811,14 +4442,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -3835,7 +4466,7 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
@@ -3845,42 +4476,42 @@
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:3">
@@ -3891,66 +4522,66 @@
     <row r="13" ht="18.75" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="7" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="15" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="15" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="15" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="15" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="15" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="15" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="15" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3960,66 +4591,66 @@
     <row r="23" ht="18.75" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="7" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="15" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="15" t="s">
-        <v>174</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="15" t="s">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="15" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="15" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="15" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="15" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="15" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4030,87 +4661,87 @@
     <row r="33" ht="18.75" spans="1:3">
       <c r="A33" s="6"/>
       <c r="B33" s="7" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:3">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="15" t="s">
-        <v>181</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="15" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="15" t="s">
-        <v>183</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="15" t="s">
-        <v>184</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="15" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="15" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="15" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="15" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="15" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="15" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="15" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4120,129 +4751,129 @@
     <row r="46" ht="18.75" spans="1:3">
       <c r="A46" s="6"/>
       <c r="B46" s="7" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:3">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="15" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="15" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="15" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="15" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="15" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="15" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="15" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="15" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="15" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="15" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="15" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="15" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="15" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="15" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" ht="18.75" spans="1:3">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="15" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" ht="18.75" spans="1:3">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="15" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" ht="18.75" spans="1:3">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="15" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -4252,73 +4883,73 @@
     <row r="65" ht="18.75" spans="1:3">
       <c r="A65" s="6"/>
       <c r="B65" s="7" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="15" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="15" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="15" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="15" t="s">
-        <v>214</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" ht="18.75" spans="1:3">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="15" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
     </row>
     <row r="71" ht="18.75" spans="1:3">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="15" t="s">
-        <v>216</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:3">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="15" t="s">
-        <v>217</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="15" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="15" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -4328,122 +4959,122 @@
     <row r="76" ht="18.75" spans="1:3">
       <c r="A76" s="6"/>
       <c r="B76" s="7" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="15" t="s">
-        <v>220</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="15" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="15" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="15" t="s">
-        <v>223</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="15" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="15" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="15" t="s">
-        <v>226</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="15" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="15" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="15" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="15" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="15" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
     </row>
     <row r="89" ht="18.75" spans="1:3">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="15" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="15" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="15" t="s">
-        <v>234</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" ht="18.75" spans="1:3">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="15" t="s">
-        <v>235</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" ht="18.75" spans="1:3">
@@ -4454,24 +5085,24 @@
     <row r="94" ht="17" customHeight="1" spans="1:3">
       <c r="A94" s="6"/>
       <c r="B94" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>236</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
       <c r="A95" s="6"/>
       <c r="B95" s="9"/>
       <c r="C95" s="15" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
       <c r="A96" s="6"/>
       <c r="B96" s="9"/>
       <c r="C96" s="15" t="s">
-        <v>238</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4481,69 +5112,69 @@
     </row>
     <row r="98" ht="24.75" spans="1:3">
       <c r="A98" s="2" t="s">
-        <v>239</v>
+        <v>290</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
     </row>
     <row r="99" ht="18.75" spans="1:3">
       <c r="A99" s="6" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" ht="18.75" spans="1:3">
       <c r="A100" s="6"/>
       <c r="B100" s="17"/>
       <c r="C100" s="15" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
       <c r="A101" s="6"/>
       <c r="B101" s="17"/>
       <c r="C101" s="15" t="s">
-        <v>244</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" ht="18.75" spans="1:3">
       <c r="A102" s="6"/>
       <c r="B102" s="17"/>
       <c r="C102" s="15" t="s">
-        <v>245</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" ht="18.75" spans="1:3">
       <c r="A103" s="6"/>
       <c r="B103" s="17"/>
       <c r="C103" s="15" t="s">
-        <v>246</v>
+        <v>297</v>
       </c>
     </row>
     <row r="104" ht="18.75" spans="1:3">
       <c r="A104" s="6"/>
       <c r="B104" s="17"/>
       <c r="C104" s="15" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
       <c r="A105" s="6"/>
       <c r="B105" s="17"/>
       <c r="C105" s="15" t="s">
-        <v>248</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
       <c r="A106" s="6"/>
       <c r="B106" s="17"/>
       <c r="C106" s="15" t="s">
-        <v>249</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4553,108 +5184,108 @@
     <row r="108" ht="18.75" spans="1:3">
       <c r="A108" s="6"/>
       <c r="B108" s="17" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
       <c r="A109" s="6"/>
       <c r="B109" s="17"/>
       <c r="C109" s="15" t="s">
-        <v>251</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" ht="18.75" spans="1:3">
       <c r="A110" s="6"/>
       <c r="B110" s="17"/>
       <c r="C110" s="15" t="s">
-        <v>252</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
       <c r="A111" s="6"/>
       <c r="B111" s="17"/>
       <c r="C111" s="15" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:3">
       <c r="A112" s="6"/>
       <c r="B112" s="17"/>
       <c r="C112" s="15" t="s">
-        <v>254</v>
+        <v>305</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:3">
       <c r="A113" s="6"/>
       <c r="B113" s="17"/>
       <c r="C113" s="15" t="s">
-        <v>255</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" ht="18.75" spans="1:3">
       <c r="A114" s="6"/>
       <c r="B114" s="17"/>
       <c r="C114" s="15" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:3">
       <c r="A115" s="6"/>
       <c r="B115" s="17"/>
       <c r="C115" s="15" t="s">
-        <v>257</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" ht="18.75" spans="1:3">
       <c r="A116" s="6"/>
       <c r="B116" s="17"/>
       <c r="C116" s="15" t="s">
-        <v>258</v>
+        <v>309</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:3">
       <c r="A117" s="6"/>
       <c r="B117" s="17"/>
       <c r="C117" s="15" t="s">
-        <v>259</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" ht="18.75" spans="1:3">
       <c r="A118" s="6"/>
       <c r="B118" s="17"/>
       <c r="C118" s="15" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
     </row>
     <row r="119" ht="37.5" spans="1:3">
       <c r="A119" s="6"/>
       <c r="B119" s="17"/>
       <c r="C119" s="15" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
       <c r="A120" s="6"/>
       <c r="B120" s="17"/>
       <c r="C120" s="15" t="s">
-        <v>262</v>
+        <v>313</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:3">
       <c r="A121" s="6"/>
       <c r="B121" s="17"/>
       <c r="C121" s="15" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="122" ht="18.75" spans="1:3">
       <c r="A122" s="6"/>
       <c r="B122" s="17"/>
       <c r="C122" s="15" t="s">
-        <v>264</v>
+        <v>315</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -4665,17 +5296,17 @@
     <row r="124" ht="37.5" spans="1:3">
       <c r="A124" s="6"/>
       <c r="B124" s="18" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" ht="18.75" spans="1:3">
       <c r="A125" s="6"/>
       <c r="B125" s="18"/>
       <c r="C125" s="15" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -4685,7 +5316,7 @@
     </row>
     <row r="130" ht="18.75" spans="1:2">
       <c r="A130" s="19" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="B130" s="20">
         <v>2</v>
@@ -4693,7 +5324,7 @@
     </row>
     <row r="131" ht="18.75" spans="1:2">
       <c r="A131" s="19" t="s">
-        <v>269</v>
+        <v>320</v>
       </c>
       <c r="B131" s="20">
         <v>16</v>
@@ -4722,13 +5353,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30:C30"/>
     </sheetView>
@@ -4754,14 +5385,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>271</v>
+        <v>322</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>20</v>
@@ -4778,80 +5409,80 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="6"/>
       <c r="B5" s="7" t="s">
-        <v>272</v>
+        <v>323</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="5" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="5" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="5" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="5" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="5" t="s">
-        <v>277</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="5" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="5" t="s">
-        <v>279</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="5" t="s">
-        <v>280</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="5" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="5" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
@@ -4862,66 +5493,66 @@
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="6"/>
       <c r="B17" s="7" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="5" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="5" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="5" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="5" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="5" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="5" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="5" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="5" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4932,17 +5563,17 @@
     <row r="27" ht="15" spans="1:3">
       <c r="A27" s="6"/>
       <c r="B27" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:3">
       <c r="A28" s="6"/>
       <c r="B28" s="9"/>
       <c r="C28" s="11" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
     </row>
     <row r="29" ht="8" customHeight="1" spans="1:3">
@@ -4952,83 +5583,83 @@
     </row>
     <row r="30" customFormat="1" ht="24.75" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="13" t="s">
-        <v>294</v>
+        <v>345</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
       <c r="A32" s="13"/>
       <c r="B32" s="7"/>
       <c r="C32" s="5" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="13"/>
       <c r="B33" s="7"/>
       <c r="C33" s="5" t="s">
-        <v>297</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="13"/>
       <c r="B34" s="7"/>
       <c r="C34" s="5" t="s">
-        <v>298</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="13"/>
       <c r="B35" s="7"/>
       <c r="C35" s="5" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="13"/>
       <c r="B36" s="7"/>
       <c r="C36" s="5" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="13"/>
       <c r="B37" s="7"/>
       <c r="C37" s="5" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="13"/>
       <c r="B38" s="7"/>
       <c r="C38" s="5" t="s">
-        <v>302</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="13"/>
       <c r="B39" s="7"/>
       <c r="C39" s="5" t="s">
-        <v>303</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
       <c r="A40" s="13"/>
       <c r="B40" s="7"/>
       <c r="C40" s="5" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" ht="15.75" spans="1:3">
@@ -5039,103 +5670,103 @@
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="13"/>
       <c r="B42" s="7" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
       <c r="A43" s="13"/>
       <c r="B43" s="7"/>
       <c r="C43" s="5" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="13"/>
       <c r="B44" s="7"/>
       <c r="C44" s="5" t="s">
-        <v>306</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="13"/>
       <c r="B45" s="7"/>
       <c r="C45" s="5" t="s">
-        <v>307</v>
+        <v>358</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="13"/>
       <c r="B46" s="7"/>
       <c r="C46" s="5" t="s">
-        <v>308</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="13"/>
       <c r="B47" s="7"/>
       <c r="C47" s="5" t="s">
-        <v>309</v>
+        <v>360</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="13"/>
       <c r="B48" s="7"/>
       <c r="C48" s="5" t="s">
-        <v>310</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="13"/>
       <c r="B49" s="7"/>
       <c r="C49" s="5" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="13"/>
       <c r="B50" s="7"/>
       <c r="C50" s="5" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="13"/>
       <c r="B51" s="7"/>
       <c r="C51" s="8" t="s">
-        <v>313</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="13"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8" t="s">
-        <v>314</v>
+        <v>365</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="13"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
       <c r="A54" s="13"/>
       <c r="B54" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="13"/>
       <c r="B55" s="9"/>
       <c r="C55" s="11" t="s">
-        <v>315</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="9" customHeight="1" spans="1:3">

--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Spring REST" sheetId="15" r:id="rId5"/>
     <sheet name="Spring  Data JPA" sheetId="16" r:id="rId6"/>
     <sheet name="Spring Data REST" sheetId="17" r:id="rId7"/>
+    <sheet name="Sprint 1 Evaluation" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="383">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -461,6 +462,15 @@
     <t>7. Bean Profiles</t>
   </si>
   <si>
+    <t>8. Bean Factory</t>
+  </si>
+  <si>
+    <t>9. Configuring Collections</t>
+  </si>
+  <si>
+    <t>10. Using c- and p- namespaces in Spring</t>
+  </si>
+  <si>
     <t>8. Summary</t>
   </si>
   <si>
@@ -584,6 +594,15 @@
     <t>6. Demo: Passing Parameters</t>
   </si>
   <si>
+    <t>7. Demo: ContextLoaderListener and DispatcherServlet Configuration</t>
+  </si>
+  <si>
+    <t>8. Demo: @RequestHeader</t>
+  </si>
+  <si>
+    <t>9. Demo: Resource</t>
+  </si>
+  <si>
     <t>Create Views in Spring MVC Validation                               Annotations in Spring MVC</t>
   </si>
   <si>
@@ -641,7 +660,10 @@
     <t>4. Demo: @PostMapping</t>
   </si>
   <si>
-    <t>5. Demo: jQuery Integration</t>
+    <t>5.  Demo: @PostMapping with XMl Data Exchange</t>
+  </si>
+  <si>
+    <t>6. Demo: jQuery Integration</t>
   </si>
   <si>
     <t>Spring MVC</t>
@@ -1236,6 +1258,33 @@
   <si>
     <t>Hands On Lab 2 - Expose RESTful APIs around Spring Data Repositories</t>
   </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Training Artifact</t>
+  </si>
+  <si>
+    <t>Write correct code to pass JUnit test cases for JPA with Hibernate using PostgreSQL.</t>
+  </si>
+  <si>
+    <t>Complete a list of exercises dedicated to  training  JPA and Hibernate ORM skills</t>
+  </si>
+  <si>
+    <t>Write correct code to pass JUnit test cases for various modules in Spring Core.</t>
+  </si>
+  <si>
+    <t>Complete a list of exercises dedicated to training  Spring framework related skills.</t>
+  </si>
+  <si>
+    <t>spring-framework-exercises.zip</t>
+  </si>
 </sst>
 </file>
 
@@ -1244,13 +1293,39 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B0F0"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
@@ -1261,12 +1336,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1374,119 +1443,7 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1502,10 +1459,93 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1517,8 +1557,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1557,7 +1619,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1569,7 +1655,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1581,13 +1757,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1599,139 +1787,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,41 +1893,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1895,16 +1942,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,271 +1993,280 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2531,7 +2602,7 @@
   <dimension ref="A7:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2544,137 +2615,137 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="37" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="35">
+      <c r="F9" s="38">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="40">
         <v>2</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:9">
-      <c r="F10" s="38">
+      <c r="F10" s="41">
         <v>2</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="40">
         <v>7</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="40">
         <v>56</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="6:9">
-      <c r="F11" s="40">
+      <c r="F11" s="43">
         <v>3</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="40">
         <v>2</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="40">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="45.75" spans="6:9">
-      <c r="F12" s="38">
+      <c r="F12" s="41">
         <v>4</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="40">
         <v>5</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="38">
+      <c r="F13" s="41">
         <v>5</v>
       </c>
-      <c r="G13" s="36" t="s">
+      <c r="G13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="40">
         <v>1</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="40">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="41"/>
-      <c r="G14" s="42" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="46" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="45">
+      <c r="A20" s="48">
         <v>1</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45">
+      <c r="A21" s="48">
         <v>2</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
     </row>
     <row r="22" ht="26" customHeight="1" spans="1:6">
-      <c r="A22" s="48"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2692,8 +2763,8 @@
   <sheetPr/>
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
@@ -2706,247 +2777,247 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="31" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="35" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="31" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="35" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" ht="9" customHeight="1" spans="1:3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
     </row>
     <row r="22" ht="24.75" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="31" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="35" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="3"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:3">
-      <c r="A29" s="3"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="7"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="31" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="32" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="3"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="3"/>
-      <c r="B34" s="7" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
@@ -2954,60 +3025,60 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3"/>
-      <c r="B35" s="7"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="11"/>
       <c r="C35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="3"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="11"/>
       <c r="C36" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="7"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="11"/>
       <c r="C37" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="7"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="11"/>
       <c r="C40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="11"/>
       <c r="C41" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="3"/>
+      <c r="A42" s="7"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:3">
-      <c r="A43" s="3"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C43" t="s">
@@ -3015,70 +3086,70 @@
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="7"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="11"/>
       <c r="C44" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:3">
-      <c r="A45" s="3"/>
-      <c r="B45" s="7"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="11"/>
       <c r="C45" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="7"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="11"/>
       <c r="C46" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:3">
-      <c r="A47" s="3"/>
-      <c r="B47" s="7"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="11"/>
       <c r="C47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="3"/>
+      <c r="A48" s="7"/>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="3"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="7"/>
+      <c r="B49" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="3"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="5" t="s">
+      <c r="A50" s="7"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="9" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="51" ht="9" customHeight="1" spans="1:3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
     </row>
     <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B54" s="20">
+      <c r="B54" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="20">
+      <c r="B55" s="24">
         <v>16</v>
       </c>
     </row>
@@ -3103,12 +3174,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A74" sqref="$A74:$XFD74"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67:C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -3119,551 +3190,572 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="29"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="29"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="29"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="25"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="29"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="29"/>
+      <c r="B16" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="29"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="29"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="29"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="5" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
+      <c r="A28" s="29"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="25"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="29"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="9" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="9"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="7" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="9" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5" t="s">
+      <c r="A39" s="29"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="9" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="5" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="5" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="5" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="5" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="5" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="5" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="5" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="9"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="7" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="5" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="5" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="5" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="5" t="s">
+      <c r="A52" s="29"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="5" t="s">
+      <c r="A53" s="29"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="9" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="5" t="s">
+      <c r="A54" s="29"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="5" t="s">
+      <c r="A55" s="29"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="9" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="5" t="s">
+      <c r="A56" s="29"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="5" t="s">
+      <c r="A57" s="29"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="25"/>
-      <c r="C58" s="5"/>
+      <c r="A58" s="29"/>
+      <c r="C58" s="9"/>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="5" t="s">
+      <c r="A60" s="29"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="9" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="5" t="s">
+      <c r="A61" s="29"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="9" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="5" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="5" t="s">
+      <c r="A63" s="29"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="5" t="s">
+      <c r="A64" s="29"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="5" t="s">
+      <c r="A65" s="29"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="5" t="s">
+      <c r="A66" s="29"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="25"/>
-      <c r="C67" s="5"/>
+      <c r="A67" s="29"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="9" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="9" t="s">
+      <c r="A68" s="29"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" ht="15" spans="1:3">
+      <c r="A69" s="29"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" ht="15" spans="1:3">
+      <c r="A70" s="29"/>
+      <c r="C70" s="9"/>
+    </row>
+    <row r="71" ht="15" spans="1:3">
+      <c r="A71" s="29"/>
+      <c r="B71" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="26"/>
+    <row r="72" ht="15" spans="1:3">
+      <c r="A72" s="29"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" ht="9" customHeight="1" spans="1:3">
-      <c r="A74" s="27"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-    </row>
-    <row r="77" ht="18.75" spans="1:2">
-      <c r="A77" s="19" t="s">
+      <c r="A73" s="29"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="20">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="29"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:3">
+      <c r="A75" s="29"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="30"/>
+    </row>
+    <row r="76" ht="15" spans="1:3">
+      <c r="A76" s="29"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="77" ht="9" customHeight="1" spans="1:3">
+      <c r="A77" s="31"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+    </row>
+    <row r="80" ht="18.75" spans="1:2">
+      <c r="A80" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="78" ht="18.75" spans="1:2">
-      <c r="A78" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="20">
+    <row r="81" ht="18.75" spans="1:2">
+      <c r="A81" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="24">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A73"/>
+    <mergeCell ref="A3:A76"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="B16:B28"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="B38:B46"/>
     <mergeCell ref="B48:B57"/>
-    <mergeCell ref="B59:B66"/>
-    <mergeCell ref="B68:B73"/>
-    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B59:B69"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C74:C75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3673,12 +3765,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67:B68"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -3690,489 +3782,517 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
-        <v>140</v>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
-        <v>141</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>142</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>143</v>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
-        <v>144</v>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
-        <v>146</v>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="9" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="5" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43" s="10"/>
+      <c r="C43" s="12"/>
+    </row>
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5" t="s">
+    <row r="45" ht="15" spans="1:3">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:3">
+      <c r="A49" s="10"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="9"/>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:3">
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:3">
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" ht="15" spans="1:3">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:3">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:3">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:3">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:3">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:3">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="6"/>
-      <c r="C40" s="8"/>
-    </row>
-    <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" ht="18" spans="1:3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="5"/>
-    </row>
-    <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="5"/>
-    </row>
-    <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="9" t="s">
+    <row r="64" ht="15" spans="1:3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="9"/>
+    </row>
+    <row r="65" ht="15" spans="1:3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="9"/>
-      <c r="C63" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" ht="9" customHeight="1" spans="1:3">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-    </row>
-    <row r="67" ht="18.75" spans="1:2">
-      <c r="A67" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="20">
+      <c r="C65" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" ht="15" spans="1:3">
+      <c r="A66" s="10"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="13"/>
+      <c r="C67" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" ht="9" customHeight="1" spans="1:3">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+    </row>
+    <row r="71" ht="18.75" spans="1:2">
+      <c r="A71" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="68" ht="18.75" spans="1:2">
-      <c r="A68" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="B68" s="20">
+    <row r="72" ht="18.75" spans="1:2">
+      <c r="A72" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B72" s="24">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A33"/>
-    <mergeCell ref="A34:A63"/>
+    <mergeCell ref="A3:A36"/>
+    <mergeCell ref="A37:A67"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B12:B18"/>
     <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="B47:B53"/>
-    <mergeCell ref="B54:B60"/>
-    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B26:B35"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="B65:B67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4185,7 +4305,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -4199,199 +4319,199 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>191</v>
+      <c r="A5" s="7"/>
+      <c r="B5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>193</v>
+      <c r="A7" s="7"/>
+      <c r="B7" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>194</v>
+      <c r="A8" s="7"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>195</v>
+      <c r="A9" s="7"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
-        <v>197</v>
+      <c r="A12" s="7"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
-        <v>198</v>
+      <c r="A13" s="7"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5" t="s">
-        <v>200</v>
+      <c r="A16" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="5" t="s">
-        <v>201</v>
+      <c r="A17" s="7"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>203</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5" t="s">
-        <v>204</v>
+      <c r="A20" s="7"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5" t="s">
-        <v>205</v>
+      <c r="A21" s="7"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="9" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>206</v>
+      <c r="C22" s="14" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="22" t="s">
-        <v>207</v>
+      <c r="A23" s="7"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="26" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" ht="8" customHeight="1" spans="1:3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="28" ht="18.75" spans="1:2">
-      <c r="A28" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" s="20">
+      <c r="A28" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B28" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:2">
-      <c r="A29" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B29" s="20">
+      <c r="A29" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="24">
         <v>8</v>
       </c>
     </row>
@@ -4417,7 +4537,7 @@
   <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A98" sqref="A98:C98"/>
     </sheetView>
@@ -4430,903 +4550,903 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
-        <v>213</v>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
-        <v>214</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>215</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>216</v>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
-        <v>151</v>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" ht="18.75" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>218</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="15" t="s">
-        <v>219</v>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="19" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="15" t="s">
-        <v>220</v>
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="19" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="15" t="s">
-        <v>221</v>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="19" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="15" t="s">
-        <v>222</v>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="19" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="15" t="s">
-        <v>223</v>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="19" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="15" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="C22" s="8"/>
+      <c r="A22" s="10"/>
+      <c r="C22" s="12"/>
     </row>
     <row r="23" ht="18.75" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="15" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="15" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="19" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="15" t="s">
-        <v>225</v>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="15" t="s">
-        <v>226</v>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="19" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="15" t="s">
-        <v>227</v>
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="19" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="15" t="s">
-        <v>228</v>
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="19" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="15" t="s">
-        <v>229</v>
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="19" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="15" t="s">
-        <v>230</v>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="19" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="15" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
     </row>
     <row r="33" ht="18.75" spans="1:3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="15" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="15" t="s">
-        <v>232</v>
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="19" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="15" t="s">
-        <v>233</v>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="19" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="15" t="s">
-        <v>234</v>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="19" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="15" t="s">
-        <v>235</v>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="19" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="15" t="s">
-        <v>236</v>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="19" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="15" t="s">
-        <v>237</v>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="19" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="15" t="s">
-        <v>238</v>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="19" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="15" t="s">
-        <v>239</v>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="19" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="15" t="s">
-        <v>240</v>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="19" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="15" t="s">
-        <v>241</v>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="19" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="15" t="s">
-        <v>242</v>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="19" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="6"/>
-      <c r="C45" s="8"/>
+      <c r="A45" s="10"/>
+      <c r="C45" s="12"/>
     </row>
     <row r="46" ht="18.75" spans="1:3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C46" s="15" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="15" t="s">
-        <v>244</v>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="19" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="15" t="s">
-        <v>245</v>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="15" t="s">
-        <v>246</v>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="19" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="15" t="s">
-        <v>247</v>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="19" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="15" t="s">
-        <v>248</v>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="19" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="15" t="s">
-        <v>249</v>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="19" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="15" t="s">
-        <v>250</v>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="19" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="15" t="s">
-        <v>251</v>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="19" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="15" t="s">
-        <v>252</v>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="19" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
-      <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="15" t="s">
-        <v>253</v>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="19" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="15" t="s">
-        <v>254</v>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="19" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="15" t="s">
-        <v>255</v>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="19" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="15" t="s">
-        <v>256</v>
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="19" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="15" t="s">
-        <v>257</v>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="19" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="61" ht="18.75" spans="1:3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="15" t="s">
-        <v>258</v>
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="19" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="62" ht="18.75" spans="1:3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="15" t="s">
-        <v>259</v>
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="19" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="63" ht="18.75" spans="1:3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="15" t="s">
-        <v>260</v>
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="19" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="6"/>
-      <c r="C64" s="8"/>
+      <c r="A64" s="10"/>
+      <c r="C64" s="12"/>
     </row>
     <row r="65" ht="18.75" spans="1:3">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" s="15" t="s">
+      <c r="A65" s="10"/>
+      <c r="B65" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="15" t="s">
-        <v>262</v>
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="19" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="15" t="s">
-        <v>263</v>
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="19" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="15" t="s">
-        <v>264</v>
+      <c r="A68" s="10"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="19" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="15" t="s">
-        <v>265</v>
+      <c r="A69" s="10"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="19" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="70" ht="18.75" spans="1:3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="15" t="s">
-        <v>266</v>
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="19" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="71" ht="18.75" spans="1:3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="15" t="s">
-        <v>267</v>
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="19" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="15" t="s">
-        <v>268</v>
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="19" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="15" t="s">
-        <v>269</v>
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="19" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="15" t="s">
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="6"/>
-      <c r="C75" s="8"/>
+      <c r="A75" s="10"/>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" ht="18.75" spans="1:3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="A76" s="10"/>
+      <c r="B76" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="15" t="s">
-        <v>271</v>
+      <c r="A77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="19" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="15" t="s">
-        <v>272</v>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="19" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="15" t="s">
-        <v>273</v>
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="19" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="15" t="s">
-        <v>274</v>
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="19" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="15" t="s">
-        <v>275</v>
+      <c r="A81" s="10"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="19" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="15" t="s">
-        <v>276</v>
+      <c r="A82" s="10"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="15" t="s">
-        <v>277</v>
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="19" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="15" t="s">
-        <v>278</v>
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="19" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="15" t="s">
-        <v>279</v>
+      <c r="A85" s="10"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="19" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="15" t="s">
-        <v>280</v>
+      <c r="A86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="19" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="15" t="s">
-        <v>281</v>
+      <c r="A87" s="10"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="19" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="15" t="s">
-        <v>282</v>
+      <c r="A88" s="10"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="19" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="89" ht="18.75" spans="1:3">
-      <c r="A89" s="6"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="15" t="s">
-        <v>283</v>
+      <c r="A89" s="10"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="19" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
-      <c r="A90" s="6"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="15" t="s">
-        <v>284</v>
+      <c r="A90" s="10"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="19" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="15" t="s">
-        <v>285</v>
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="19" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="92" ht="18.75" spans="1:3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="15" t="s">
-        <v>286</v>
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="19" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="93" ht="18.75" spans="1:3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="15"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="19"/>
     </row>
     <row r="94" ht="17" customHeight="1" spans="1:3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="9" t="s">
+      <c r="A94" s="10"/>
+      <c r="B94" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C94" s="16" t="s">
-        <v>287</v>
+      <c r="C94" s="20" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="15" t="s">
-        <v>288</v>
+      <c r="A95" s="10"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="19" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
-      <c r="A96" s="6"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="15" t="s">
-        <v>289</v>
+      <c r="A96" s="10"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="19" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
     </row>
     <row r="98" ht="24.75" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
     </row>
     <row r="99" ht="18.75" spans="1:3">
-      <c r="A99" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>293</v>
+      <c r="A99" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="100" ht="18.75" spans="1:3">
-      <c r="A100" s="6"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="15" t="s">
-        <v>294</v>
+      <c r="A100" s="10"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="19" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
-      <c r="A101" s="6"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="15" t="s">
-        <v>295</v>
+      <c r="A101" s="10"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="19" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="102" ht="18.75" spans="1:3">
-      <c r="A102" s="6"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="15" t="s">
-        <v>296</v>
+      <c r="A102" s="10"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="19" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="103" ht="18.75" spans="1:3">
-      <c r="A103" s="6"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="15" t="s">
-        <v>297</v>
+      <c r="A103" s="10"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="19" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="104" ht="18.75" spans="1:3">
-      <c r="A104" s="6"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="15" t="s">
-        <v>298</v>
+      <c r="A104" s="10"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
-      <c r="A105" s="6"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="15" t="s">
-        <v>299</v>
+      <c r="A105" s="10"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="19" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
-      <c r="A106" s="6"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="15" t="s">
-        <v>300</v>
+      <c r="A106" s="10"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="19" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="6"/>
-      <c r="C107" s="8"/>
+      <c r="A107" s="10"/>
+      <c r="C107" s="12"/>
     </row>
     <row r="108" ht="18.75" spans="1:3">
-      <c r="A108" s="6"/>
-      <c r="B108" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="C108" s="15" t="s">
+      <c r="A108" s="10"/>
+      <c r="B108" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="15" t="s">
-        <v>302</v>
+      <c r="A109" s="10"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="19" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="110" ht="18.75" spans="1:3">
-      <c r="A110" s="6"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="15" t="s">
-        <v>303</v>
+      <c r="A110" s="10"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="19" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="15" t="s">
-        <v>304</v>
+      <c r="A111" s="10"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="19" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:3">
-      <c r="A112" s="6"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="15" t="s">
-        <v>305</v>
+      <c r="A112" s="10"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="19" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:3">
-      <c r="A113" s="6"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="15" t="s">
-        <v>306</v>
+      <c r="A113" s="10"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="19" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="114" ht="18.75" spans="1:3">
-      <c r="A114" s="6"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="15" t="s">
-        <v>307</v>
+      <c r="A114" s="10"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="19" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:3">
-      <c r="A115" s="6"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="15" t="s">
-        <v>308</v>
+      <c r="A115" s="10"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="19" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="116" ht="18.75" spans="1:3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="15" t="s">
-        <v>309</v>
+      <c r="A116" s="10"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="19" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:3">
-      <c r="A117" s="6"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="15" t="s">
-        <v>310</v>
+      <c r="A117" s="10"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="19" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="118" ht="18.75" spans="1:3">
-      <c r="A118" s="6"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="15" t="s">
-        <v>311</v>
+      <c r="A118" s="10"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="19" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="119" ht="37.5" spans="1:3">
-      <c r="A119" s="6"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="15" t="s">
-        <v>312</v>
+      <c r="A119" s="10"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="19" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
-      <c r="A120" s="6"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="15" t="s">
-        <v>313</v>
+      <c r="A120" s="10"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="19" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:3">
-      <c r="A121" s="6"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="15" t="s">
-        <v>314</v>
+      <c r="A121" s="10"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="19" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="122" ht="18.75" spans="1:3">
-      <c r="A122" s="6"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="15" t="s">
-        <v>315</v>
+      <c r="A122" s="10"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="19" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="6"/>
-      <c r="B123" s="8"/>
-      <c r="C123" s="8"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
     </row>
     <row r="124" ht="37.5" spans="1:3">
-      <c r="A124" s="6"/>
-      <c r="B124" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>317</v>
+      <c r="A124" s="10"/>
+      <c r="B124" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="19" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="125" ht="18.75" spans="1:3">
-      <c r="A125" s="6"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="15" t="s">
-        <v>318</v>
+      <c r="A125" s="10"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="19" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
     </row>
     <row r="130" ht="18.75" spans="1:2">
-      <c r="A130" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B130" s="20">
+      <c r="A130" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B130" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="131" ht="18.75" spans="1:2">
-      <c r="A131" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="B131" s="20">
+      <c r="A131" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B131" s="24">
         <v>16</v>
       </c>
     </row>
@@ -5359,9 +5479,9 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:C30"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -5373,487 +5493,487 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="5" t="s">
-        <v>324</v>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5" t="s">
-        <v>325</v>
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="5" t="s">
-        <v>326</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="5" t="s">
-        <v>327</v>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="5" t="s">
-        <v>328</v>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="5" t="s">
-        <v>329</v>
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="5" t="s">
-        <v>330</v>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="5" t="s">
-        <v>331</v>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5" t="s">
-        <v>332</v>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="5" t="s">
-        <v>333</v>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="5" t="s">
-        <v>335</v>
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="5" t="s">
-        <v>336</v>
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="5" t="s">
-        <v>337</v>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="5" t="s">
-        <v>338</v>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="5" t="s">
-        <v>339</v>
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="5" t="s">
-        <v>340</v>
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="5" t="s">
-        <v>341</v>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>342</v>
+      <c r="C27" s="14" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="11" t="s">
-        <v>343</v>
+      <c r="A28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="15" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="29" ht="8" customHeight="1" spans="1:3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" customFormat="1" ht="24.75" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="5" t="s">
-        <v>347</v>
+      <c r="A32" s="17"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="5" t="s">
-        <v>348</v>
+      <c r="A33" s="17"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="5" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="9" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" spans="1:3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="9"/>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="9" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="9" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:3">
+      <c r="A49" s="17"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="17"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="17"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="17"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="17"/>
+      <c r="B54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" spans="1:3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="5"/>
-    </row>
-    <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="5" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="13"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>342</v>
-      </c>
-    </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="11" t="s">
-        <v>366</v>
+      <c r="A55" s="17"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="15" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="3"/>
+      <c r="A57" s="7"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="3"/>
+      <c r="A58" s="7"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="3"/>
+      <c r="A59" s="7"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="3"/>
+      <c r="A60" s="7"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="3"/>
+      <c r="A61" s="7"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="3"/>
+      <c r="A62" s="7"/>
     </row>
     <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="3"/>
+      <c r="A63" s="7"/>
     </row>
     <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="3"/>
+      <c r="A64" s="7"/>
     </row>
     <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="3"/>
+      <c r="A65" s="7"/>
     </row>
     <row r="66" ht="18.75" spans="1:1">
-      <c r="A66" s="3"/>
+      <c r="A66" s="7"/>
     </row>
     <row r="67" ht="18.75" spans="1:1">
-      <c r="A67" s="3"/>
+      <c r="A67" s="7"/>
     </row>
     <row r="68" ht="18.75" spans="1:1">
-      <c r="A68" s="3"/>
+      <c r="A68" s="7"/>
     </row>
     <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="3"/>
+      <c r="A69" s="7"/>
     </row>
     <row r="70" ht="18.75" spans="1:1">
-      <c r="A70" s="3"/>
+      <c r="A70" s="7"/>
     </row>
     <row r="71" ht="18.75" spans="1:1">
-      <c r="A71" s="3"/>
+      <c r="A71" s="7"/>
     </row>
     <row r="72" ht="18.75" spans="1:1">
-      <c r="A72" s="3"/>
+      <c r="A72" s="7"/>
     </row>
     <row r="73" ht="18.75" spans="1:1">
-      <c r="A73" s="3"/>
+      <c r="A73" s="7"/>
     </row>
     <row r="74" ht="18.75" spans="1:1">
-      <c r="A74" s="3"/>
+      <c r="A74" s="7"/>
     </row>
     <row r="75" ht="18.75" spans="1:1">
-      <c r="A75" s="3"/>
+      <c r="A75" s="7"/>
     </row>
     <row r="76" ht="18.75" spans="1:1">
-      <c r="A76" s="3"/>
+      <c r="A76" s="7"/>
     </row>
     <row r="77" ht="18.75" spans="1:1">
-      <c r="A77" s="3"/>
+      <c r="A77" s="7"/>
     </row>
     <row r="78" ht="18.75" spans="1:1">
-      <c r="A78" s="3"/>
+      <c r="A78" s="7"/>
     </row>
     <row r="79" ht="18.75" spans="1:1">
-      <c r="A79" s="3"/>
+      <c r="A79" s="7"/>
     </row>
     <row r="80" ht="18.75" spans="1:1">
-      <c r="A80" s="3"/>
+      <c r="A80" s="7"/>
     </row>
     <row r="81" ht="18.75" spans="1:1">
-      <c r="A81" s="3"/>
+      <c r="A81" s="7"/>
     </row>
     <row r="82" ht="18.75" spans="1:1">
-      <c r="A82" s="3"/>
+      <c r="A82" s="7"/>
     </row>
     <row r="83" ht="18.75" spans="1:1">
-      <c r="A83" s="3"/>
+      <c r="A83" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5871,4 +5991,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="24.75" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="15" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" spans="1:4">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="377">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -875,49 +875,40 @@
     <t>3. Database Overview</t>
   </si>
   <si>
-    <t>4.  MySQL Setup and Installation</t>
-  </si>
-  <si>
-    <t>5. persistence.xml</t>
-  </si>
-  <si>
-    <t>6. persistence.xml Demo</t>
-  </si>
-  <si>
-    <t>7. pom.xml</t>
-  </si>
-  <si>
-    <t>8. pom.xml Demo</t>
-  </si>
-  <si>
-    <t>9. jpaContext.xml</t>
-  </si>
-  <si>
-    <t>10. jpaContext.xml Demo</t>
-  </si>
-  <si>
-    <t>11. Entity Manager Factory</t>
-  </si>
-  <si>
-    <t>12. Adding MySql Dependency</t>
-  </si>
-  <si>
-    <t>13. MySQL Maven Demo</t>
-  </si>
-  <si>
-    <t>14. application.properties Demo</t>
-  </si>
-  <si>
-    <t>15. Transactional</t>
-  </si>
-  <si>
-    <t>16. Tips and Tricks</t>
-  </si>
-  <si>
-    <t>17. Logging Configuration</t>
-  </si>
-  <si>
-    <t>18. Summary</t>
+    <t>4. PostgreSQL Setup and Installation</t>
+  </si>
+  <si>
+    <t>5. pom.xml</t>
+  </si>
+  <si>
+    <t>6. pom.xml Demo</t>
+  </si>
+  <si>
+    <t>7. jpaContext.xml</t>
+  </si>
+  <si>
+    <t>8. Entity Manager Factory</t>
+  </si>
+  <si>
+    <t>9. Adding PostgreSQL Dependency</t>
+  </si>
+  <si>
+    <t>10. PostgreSQL  Maven Demo</t>
+  </si>
+  <si>
+    <t>11. application.properties Demo</t>
+  </si>
+  <si>
+    <t>12. Transactional</t>
+  </si>
+  <si>
+    <t>13. Tips and Tricks</t>
+  </si>
+  <si>
+    <t>14. Logging Configuration</t>
+  </si>
+  <si>
+    <t>15. Summary</t>
   </si>
   <si>
     <t>7. Overview of JPA and Creating Your First Entity</t>
@@ -938,13 +929,7 @@
     <t>6. Verify Database Demo</t>
   </si>
   <si>
-    <t>7. MySQL Workbench Download</t>
-  </si>
-  <si>
-    <t>8. MySQL Workbench Demo</t>
-  </si>
-  <si>
-    <t>9. Run the App and Verify Tables Demo</t>
+    <t>7. Run the App and Verify Tables Demo</t>
   </si>
   <si>
     <t>8. JPA Annotations and How to Use Them</t>
@@ -1080,9 +1065,6 @@
   </si>
   <si>
     <t>14. Spring Data JPA Recap</t>
-  </si>
-  <si>
-    <t>15. Summary</t>
   </si>
   <si>
     <t>Hand On Assignments</t>
@@ -1291,10 +1273,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1442,41 +1424,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1503,8 +1476,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1519,25 +1514,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1557,30 +1561,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1619,7 +1601,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,7 +1655,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,97 +1703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,7 +1721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,13 +1745,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,25 +1769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,41 +1875,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1952,6 +1904,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1981,27 +1972,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2011,130 +1993,130 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3767,8 +3749,8 @@
   <sheetPr/>
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
@@ -4534,12 +4516,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98:C98"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -4975,38 +4957,38 @@
         <v>264</v>
       </c>
     </row>
-    <row r="61" ht="18.75" spans="1:3">
+    <row r="61" spans="1:3">
       <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="19" t="s">
-        <v>265</v>
-      </c>
+      <c r="C61" s="12"/>
     </row>
     <row r="62" ht="18.75" spans="1:3">
       <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
+      <c r="B62" s="11" t="s">
+        <v>265</v>
+      </c>
       <c r="C62" s="19" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" ht="18.75" spans="1:3">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" ht="18.75" spans="1:3">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="19" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="10"/>
-      <c r="C64" s="12"/>
     </row>
     <row r="65" ht="18.75" spans="1:3">
       <c r="A65" s="10"/>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="11"/>
+      <c r="C65" s="19" t="s">
         <v>268</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
@@ -5034,55 +5016,55 @@
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="70" ht="18.75" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="10"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="19" t="s">
-        <v>273</v>
-      </c>
+      <c r="C70" s="12"/>
     </row>
     <row r="71" ht="18.75" spans="1:3">
       <c r="A71" s="10"/>
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>272</v>
+      </c>
       <c r="C71" s="19" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:3">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="19" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="75" ht="18.75" spans="1:3">
       <c r="A75" s="10"/>
-      <c r="C75" s="12"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="19" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
       <c r="A76" s="10"/>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="11"/>
+      <c r="C76" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
@@ -5165,85 +5147,85 @@
     <row r="88" ht="18.75" spans="1:3">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
-      <c r="C88" s="19" t="s">
+      <c r="C88" s="19"/>
+    </row>
+    <row r="89" ht="17" customHeight="1" spans="1:3">
+      <c r="A89" s="10"/>
+      <c r="B89" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="20" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="89" ht="18.75" spans="1:3">
-      <c r="A89" s="10"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="19" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
       <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
       <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+    </row>
+    <row r="93" ht="24.75" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="92" ht="18.75" spans="1:3">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="19" t="s">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" ht="18.75" spans="1:3">
+      <c r="A94" s="10" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="93" ht="18.75" spans="1:3">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="19"/>
-    </row>
-    <row r="94" ht="17" customHeight="1" spans="1:3">
-      <c r="A94" s="10"/>
-      <c r="B94" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C94" s="20" t="s">
+      <c r="B94" s="21" t="s">
         <v>294</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
       <c r="A95" s="10"/>
-      <c r="B95" s="13"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
       <c r="A96" s="10"/>
-      <c r="B96" s="13"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-    </row>
-    <row r="98" ht="24.75" spans="1:3">
-      <c r="A98" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
+    </row>
+    <row r="97" ht="18.75" spans="1:3">
+      <c r="A97" s="10"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="19" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" ht="18.75" spans="1:3">
+      <c r="A98" s="10"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="19" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="99" ht="18.75" spans="1:3">
-      <c r="A99" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>299</v>
-      </c>
+      <c r="A99" s="10"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="19" t="s">
         <v>300</v>
       </c>
@@ -5262,52 +5244,52 @@
         <v>302</v>
       </c>
     </row>
-    <row r="102" ht="18.75" spans="1:3">
+    <row r="102" spans="1:3">
       <c r="A102" s="10"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="19" t="s">
-        <v>303</v>
-      </c>
+      <c r="C102" s="12"/>
     </row>
     <row r="103" ht="18.75" spans="1:3">
       <c r="A103" s="10"/>
-      <c r="B103" s="21"/>
+      <c r="B103" s="21" t="s">
+        <v>303</v>
+      </c>
       <c r="C103" s="19" t="s">
-        <v>304</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" ht="18.75" spans="1:3">
       <c r="A104" s="10"/>
       <c r="B104" s="21"/>
       <c r="C104" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
       <c r="A105" s="10"/>
       <c r="B105" s="21"/>
       <c r="C105" s="19" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
       <c r="A106" s="10"/>
       <c r="B106" s="21"/>
       <c r="C106" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107" ht="18.75" spans="1:3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="19" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="10"/>
-      <c r="C107" s="12"/>
     </row>
     <row r="108" ht="18.75" spans="1:3">
       <c r="A108" s="10"/>
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="21"/>
+      <c r="C108" s="19" t="s">
         <v>308</v>
-      </c>
-      <c r="C108" s="19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
@@ -5345,7 +5327,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="114" ht="18.75" spans="1:3">
+    <row r="114" ht="37.5" spans="1:3">
       <c r="A114" s="10"/>
       <c r="B114" s="21"/>
       <c r="C114" s="19" t="s">
@@ -5370,103 +5352,68 @@
       <c r="A117" s="10"/>
       <c r="B117" s="21"/>
       <c r="C117" s="19" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="118" ht="18.75" spans="1:3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="10"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="19" t="s">
-        <v>318</v>
-      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
     </row>
     <row r="119" ht="37.5" spans="1:3">
       <c r="A119" s="10"/>
-      <c r="B119" s="21"/>
+      <c r="B119" s="22" t="s">
+        <v>317</v>
+      </c>
       <c r="C119" s="19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
       <c r="A120" s="10"/>
-      <c r="B120" s="21"/>
+      <c r="B120" s="22"/>
       <c r="C120" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+    </row>
+    <row r="125" ht="18.75" spans="1:2">
+      <c r="A125" s="23" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="121" ht="18.75" spans="1:3">
-      <c r="A121" s="10"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="19" t="s">
+      <c r="B125" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" ht="18.75" spans="1:2">
+      <c r="A126" s="23" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="122" ht="18.75" spans="1:3">
-      <c r="A122" s="10"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="10"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-    </row>
-    <row r="124" ht="37.5" spans="1:3">
-      <c r="A124" s="10"/>
-      <c r="B124" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="C124" s="19" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="125" ht="18.75" spans="1:3">
-      <c r="A125" s="10"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-    </row>
-    <row r="130" ht="18.75" spans="1:2">
-      <c r="A130" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="B130" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" ht="18.75" spans="1:2">
-      <c r="A131" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="B131" s="24">
+      <c r="B126" s="24">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A3:A96"/>
-    <mergeCell ref="A99:A125"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A3:A91"/>
+    <mergeCell ref="A94:A120"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B13:B21"/>
     <mergeCell ref="B23:B32"/>
     <mergeCell ref="B33:B44"/>
-    <mergeCell ref="B46:B63"/>
-    <mergeCell ref="B65:B74"/>
-    <mergeCell ref="B76:B92"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="B99:B106"/>
-    <mergeCell ref="B108:B122"/>
-    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B46:B60"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="B71:B87"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="B103:B117"/>
+    <mergeCell ref="B119:B120"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5505,14 +5452,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -5529,7 +5476,7 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>74</v>
@@ -5539,70 +5486,70 @@
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="9" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="9" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
@@ -5613,7 +5560,7 @@
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>74</v>
@@ -5623,49 +5570,49 @@
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
@@ -5686,14 +5633,14 @@
         <v>66</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:3">
       <c r="A28" s="10"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" ht="8" customHeight="1" spans="1:3">
@@ -5703,17 +5650,17 @@
     </row>
     <row r="30" customFormat="1" ht="24.75" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="17" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>74</v>
@@ -5723,56 +5670,56 @@
       <c r="A32" s="17"/>
       <c r="B32" s="11"/>
       <c r="C32" s="9" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="17"/>
       <c r="B33" s="11"/>
       <c r="C33" s="9" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="17"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="17"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="17"/>
       <c r="B36" s="11"/>
       <c r="C36" s="9" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="17"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="17"/>
       <c r="B38" s="11"/>
       <c r="C38" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="17"/>
       <c r="B39" s="11"/>
       <c r="C39" s="9" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
@@ -5790,7 +5737,7 @@
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="17"/>
       <c r="B42" s="11" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>74</v>
@@ -5800,70 +5747,70 @@
       <c r="A43" s="17"/>
       <c r="B43" s="11"/>
       <c r="C43" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="17"/>
       <c r="B44" s="11"/>
       <c r="C44" s="9" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="17"/>
       <c r="B45" s="11"/>
       <c r="C45" s="9" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="17"/>
       <c r="B46" s="11"/>
       <c r="C46" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="17"/>
       <c r="B47" s="11"/>
       <c r="C47" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="17"/>
       <c r="B48" s="11"/>
       <c r="C48" s="9" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="17"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="17"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="17"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="17"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -5879,14 +5826,14 @@
         <v>66</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="17"/>
       <c r="B55" s="13"/>
       <c r="C55" s="15" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -6015,7 +5962,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="24.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6023,16 +5970,16 @@
     </row>
     <row r="2" ht="15" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:4">
@@ -6040,10 +5987,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>68</v>
@@ -6054,13 +6001,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" activeTab="5"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="382">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -675,6 +675,9 @@
     <t>Hands On Lab 2 - Spring Boot MVC Login Controller</t>
   </si>
   <si>
+    <t>spring-framework-exercises.zip</t>
+  </si>
+  <si>
     <t>Total # of Days for Spring MVC</t>
   </si>
   <si>
@@ -1074,6 +1077,9 @@
   </si>
   <si>
     <t>Hands On Lab 2 - Spring MVC with JSP</t>
+  </si>
+  <si>
+    <t>spring-data-jpa-exercises.zip</t>
   </si>
   <si>
     <t>Total # of Days for Spring  Data JPA</t>
@@ -1253,19 +1259,28 @@
     <t>Training Artifact</t>
   </si>
   <si>
+    <t>Deliverables</t>
+  </si>
+  <si>
     <t>Write correct code to pass JUnit test cases for JPA with Hibernate using PostgreSQL.</t>
   </si>
   <si>
     <t>Complete a list of exercises dedicated to  training  JPA and Hibernate ORM skills</t>
   </si>
   <si>
+    <t>Demonstrate passing test cases in IDE.</t>
+  </si>
+  <si>
     <t>Write correct code to pass JUnit test cases for various modules in Spring Core.</t>
   </si>
   <si>
     <t>Complete a list of exercises dedicated to training  Spring framework related skills.</t>
   </si>
   <si>
-    <t>spring-framework-exercises.zip</t>
+    <t>Write correct code to pass JUnit test cases for various modules in Spring Data JPA.</t>
+  </si>
+  <si>
+    <t>Complete a list of exercises dedicated to training  Spring Data JPa related skills.</t>
   </si>
 </sst>
 </file>
@@ -1273,10 +1288,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1425,44 +1440,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1477,22 +1462,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1506,24 +1476,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1545,9 +1500,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1563,6 +1571,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1601,19 +1616,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,25 +1646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,7 +1670,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,19 +1712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,13 +1736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,13 +1754,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1739,49 +1796,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1893,17 +1908,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1938,15 +1947,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1958,6 +1958,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1975,7 +1990,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1993,130 +2008,130 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2746,7 +2761,7 @@
   <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
@@ -3747,12 +3762,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -4240,24 +4255,31 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" ht="9" customHeight="1" spans="1:3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-    </row>
-    <row r="71" ht="18.75" spans="1:2">
-      <c r="A71" s="23" t="s">
+    <row r="68" ht="18.75" spans="1:3">
+      <c r="A68" s="10"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="24">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="69" ht="9" customHeight="1" spans="1:3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="72" ht="18.75" spans="1:2">
       <c r="A72" s="23" t="s">
         <v>194</v>
       </c>
       <c r="B72" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" ht="18.75" spans="1:2">
+      <c r="A73" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" s="24">
         <v>8</v>
       </c>
     </row>
@@ -4287,7 +4309,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -4313,14 +4335,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -4337,10 +4359,10 @@
     <row r="5" ht="15.75" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
@@ -4351,24 +4373,24 @@
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="7"/>
       <c r="B7" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="7"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="7"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
@@ -4379,7 +4401,7 @@
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="7"/>
       <c r="B11" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>74</v>
@@ -4389,14 +4411,14 @@
       <c r="A12" s="7"/>
       <c r="B12" s="11"/>
       <c r="C12" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="7"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
@@ -4407,7 +4429,7 @@
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="7"/>
       <c r="B15" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>74</v>
@@ -4417,14 +4439,14 @@
       <c r="A16" s="7"/>
       <c r="B16" s="11"/>
       <c r="C16" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="7"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
@@ -4435,24 +4457,24 @@
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="7"/>
       <c r="B19" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="7"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="7"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
@@ -4461,14 +4483,14 @@
         <v>66</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
       <c r="A23" s="7"/>
       <c r="B23" s="13"/>
       <c r="C23" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -4483,7 +4505,7 @@
     </row>
     <row r="28" ht="18.75" spans="1:2">
       <c r="A28" s="23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B28" s="24">
         <v>1</v>
@@ -4491,7 +4513,7 @@
     </row>
     <row r="29" ht="18.75" spans="1:2">
       <c r="A29" s="23" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B29" s="24">
         <v>8</v>
@@ -4516,12 +4538,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -4544,14 +4566,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -4568,7 +4590,7 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>20</v>
@@ -4578,28 +4600,28 @@
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
@@ -4624,7 +4646,7 @@
     <row r="13" ht="18.75" spans="1:3">
       <c r="A13" s="10"/>
       <c r="B13" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>74</v>
@@ -4634,7 +4656,7 @@
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
@@ -4648,35 +4670,35 @@
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="19" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
@@ -4693,7 +4715,7 @@
     <row r="23" ht="18.75" spans="1:3">
       <c r="A23" s="10"/>
       <c r="B23" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>74</v>
@@ -4710,42 +4732,42 @@
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="19" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
@@ -4763,7 +4785,7 @@
     <row r="33" ht="18.75" spans="1:3">
       <c r="A33" s="10"/>
       <c r="B33" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C33" s="19" t="s">
         <v>74</v>
@@ -4773,77 +4795,77 @@
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="19" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="19" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="19" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -4853,7 +4875,7 @@
     <row r="46" ht="18.75" spans="1:3">
       <c r="A46" s="10"/>
       <c r="B46" s="11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>74</v>
@@ -4863,98 +4885,98 @@
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="19" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="19" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="19" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -4964,7 +4986,7 @@
     <row r="62" ht="18.75" spans="1:3">
       <c r="A62" s="10"/>
       <c r="B62" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C62" s="19" t="s">
         <v>74</v>
@@ -4974,42 +4996,42 @@
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:3">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:3">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
       <c r="C67" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
@@ -5026,7 +5048,7 @@
     <row r="71" ht="18.75" spans="1:3">
       <c r="A71" s="10"/>
       <c r="B71" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C71" s="19" t="s">
         <v>74</v>
@@ -5036,112 +5058,112 @@
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="75" ht="18.75" spans="1:3">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="19" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="19" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="19" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="19" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="19" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
       <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="19" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
@@ -5155,21 +5177,21 @@
         <v>66</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
       <c r="A90" s="10"/>
       <c r="B90" s="13"/>
       <c r="C90" s="19" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
       <c r="A91" s="10"/>
       <c r="B91" s="13"/>
       <c r="C91" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -5179,69 +5201,69 @@
     </row>
     <row r="93" ht="24.75" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
     <row r="94" ht="18.75" spans="1:3">
       <c r="A94" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
       <c r="A95" s="10"/>
       <c r="B95" s="21"/>
       <c r="C95" s="19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
       <c r="A96" s="10"/>
       <c r="B96" s="21"/>
       <c r="C96" s="19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" ht="18.75" spans="1:3">
       <c r="A97" s="10"/>
       <c r="B97" s="21"/>
       <c r="C97" s="19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="98" ht="18.75" spans="1:3">
       <c r="A98" s="10"/>
       <c r="B98" s="21"/>
       <c r="C98" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" ht="18.75" spans="1:3">
       <c r="A99" s="10"/>
       <c r="B99" s="21"/>
       <c r="C99" s="19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" ht="18.75" spans="1:3">
       <c r="A100" s="10"/>
       <c r="B100" s="21"/>
       <c r="C100" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
       <c r="A101" s="10"/>
       <c r="B101" s="21"/>
       <c r="C101" s="19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -5251,7 +5273,7 @@
     <row r="103" ht="18.75" spans="1:3">
       <c r="A103" s="10"/>
       <c r="B103" s="21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C103" s="19" t="s">
         <v>74</v>
@@ -5261,98 +5283,98 @@
       <c r="A104" s="10"/>
       <c r="B104" s="21"/>
       <c r="C104" s="19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
       <c r="A105" s="10"/>
       <c r="B105" s="21"/>
       <c r="C105" s="19" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
       <c r="A106" s="10"/>
       <c r="B106" s="21"/>
       <c r="C106" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="107" ht="18.75" spans="1:3">
       <c r="A107" s="10"/>
       <c r="B107" s="21"/>
       <c r="C107" s="19" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" ht="18.75" spans="1:3">
       <c r="A108" s="10"/>
       <c r="B108" s="21"/>
       <c r="C108" s="19" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
       <c r="A109" s="10"/>
       <c r="B109" s="21"/>
       <c r="C109" s="19" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="110" ht="18.75" spans="1:3">
       <c r="A110" s="10"/>
       <c r="B110" s="21"/>
       <c r="C110" s="19" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
       <c r="A111" s="10"/>
       <c r="B111" s="21"/>
       <c r="C111" s="19" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:3">
       <c r="A112" s="10"/>
       <c r="B112" s="21"/>
       <c r="C112" s="19" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:3">
       <c r="A113" s="10"/>
       <c r="B113" s="21"/>
       <c r="C113" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="114" ht="37.5" spans="1:3">
       <c r="A114" s="10"/>
       <c r="B114" s="21"/>
       <c r="C114" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:3">
       <c r="A115" s="10"/>
       <c r="B115" s="21"/>
       <c r="C115" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" ht="18.75" spans="1:3">
       <c r="A116" s="10"/>
       <c r="B116" s="21"/>
       <c r="C116" s="19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:3">
       <c r="A117" s="10"/>
       <c r="B117" s="21"/>
       <c r="C117" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -5363,37 +5385,44 @@
     <row r="119" ht="37.5" spans="1:3">
       <c r="A119" s="10"/>
       <c r="B119" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C119" s="19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
       <c r="A120" s="10"/>
       <c r="B120" s="22"/>
       <c r="C120" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="16"/>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-    </row>
-    <row r="125" ht="18.75" spans="1:2">
-      <c r="A125" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="B125" s="24">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="121" ht="18.75" spans="1:3">
+      <c r="A121" s="10"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
     </row>
     <row r="126" ht="18.75" spans="1:2">
       <c r="A126" s="23" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B126" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="18.75" spans="1:2">
+      <c r="A127" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="B127" s="24">
         <v>16</v>
       </c>
     </row>
@@ -5452,14 +5481,14 @@
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>20</v>
@@ -5476,7 +5505,7 @@
     <row r="5" ht="15" spans="1:3">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>74</v>
@@ -5486,70 +5515,70 @@
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="9" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="9" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
@@ -5560,7 +5589,7 @@
     <row r="17" ht="15" spans="1:3">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>74</v>
@@ -5570,49 +5599,49 @@
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
@@ -5633,14 +5662,14 @@
         <v>66</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:3">
       <c r="A28" s="10"/>
       <c r="B28" s="13"/>
       <c r="C28" s="15" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29" ht="8" customHeight="1" spans="1:3">
@@ -5650,17 +5679,17 @@
     </row>
     <row r="30" customFormat="1" ht="24.75" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
     <row r="31" ht="15" spans="1:3">
       <c r="A31" s="17" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>74</v>
@@ -5670,56 +5699,56 @@
       <c r="A32" s="17"/>
       <c r="B32" s="11"/>
       <c r="C32" s="9" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
       <c r="A33" s="17"/>
       <c r="B33" s="11"/>
       <c r="C33" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
       <c r="A34" s="17"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
       <c r="A35" s="17"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
       <c r="A36" s="17"/>
       <c r="B36" s="11"/>
       <c r="C36" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
       <c r="A37" s="17"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
       <c r="A38" s="17"/>
       <c r="B38" s="11"/>
       <c r="C38" s="9" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
       <c r="A39" s="17"/>
       <c r="B39" s="11"/>
       <c r="C39" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
@@ -5737,7 +5766,7 @@
     <row r="42" ht="15" spans="1:3">
       <c r="A42" s="17"/>
       <c r="B42" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>74</v>
@@ -5747,77 +5776,77 @@
       <c r="A43" s="17"/>
       <c r="B43" s="11"/>
       <c r="C43" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
       <c r="A44" s="17"/>
       <c r="B44" s="11"/>
       <c r="C44" s="9" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
       <c r="A45" s="17"/>
       <c r="B45" s="11"/>
       <c r="C45" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
       <c r="A46" s="17"/>
       <c r="B46" s="11"/>
       <c r="C46" s="9" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
       <c r="A47" s="17"/>
       <c r="B47" s="11"/>
       <c r="C47" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
       <c r="A48" s="17"/>
       <c r="B48" s="11"/>
       <c r="C48" s="9" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
       <c r="A49" s="17"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
       <c r="A50" s="17"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="17"/>
       <c r="B51" s="11"/>
       <c r="C51" s="12" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="17"/>
       <c r="B52" s="11"/>
       <c r="C52" s="12" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="17"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
@@ -5826,14 +5855,14 @@
         <v>66</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
       <c r="A55" s="17"/>
       <c r="B55" s="13"/>
       <c r="C55" s="15" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="9" customHeight="1" spans="1:3">
@@ -5943,15 +5972,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
@@ -5962,52 +5991,78 @@
   <sheetData>
     <row r="1" customFormat="1" ht="24.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="15" spans="1:4">
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:4">
+        <v>373</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:5">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" ht="25.5" spans="1:4">
+      <c r="E4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" spans="1:5">
       <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>376</v>
+        <v>193</v>
+      </c>
+      <c r="E6" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" spans="1:5">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -14,14 +14,15 @@
     <sheet name="Spring REST" sheetId="15" r:id="rId5"/>
     <sheet name="Spring  Data JPA" sheetId="16" r:id="rId6"/>
     <sheet name="Spring Data REST" sheetId="17" r:id="rId7"/>
-    <sheet name="Sprint 1 Evaluation" sheetId="18" r:id="rId8"/>
+    <sheet name="Swagger" sheetId="19" r:id="rId8"/>
+    <sheet name="Sprint 1 Evaluation" sheetId="18" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="413">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1247,6 +1248,119 @@
     <t>Hands On Lab 2 - Expose RESTful APIs around Spring Data Repositories</t>
   </si>
   <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Swagger Tools is the leading platform for describing RESTful web services.                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Learn how to use Swagger Tools to describe, document, generate code, and test RESTful web APIs based on the OpenAPI standard.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Introduction </t>
+  </si>
+  <si>
+    <t>2. The Swagger Tools</t>
+  </si>
+  <si>
+    <t>3. Setup Free Swagger Account</t>
+  </si>
+  <si>
+    <t>4. The Demo Code</t>
+  </si>
+  <si>
+    <t>3. Create OpenAPI Documents with Swagger Editor</t>
+  </si>
+  <si>
+    <t>1. Navigating the Swagger Editor</t>
+  </si>
+  <si>
+    <t>2. OpenAPI 2.0: Version and Info</t>
+  </si>
+  <si>
+    <t>3. OpenAPI 2.0: Paths and GET Operation</t>
+  </si>
+  <si>
+    <t>4. OpenAPI 2.0: Produces, Consumes and Parameters</t>
+  </si>
+  <si>
+    <t>5. OpenAPI 2.0: Responses</t>
+  </si>
+  <si>
+    <t>6. OpenAPI 2.0: References and Definitions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. OpenAPI 2.0: Post, Put, Delete </t>
+  </si>
+  <si>
+    <t>8. OpenAPI 2.0: Host, Schema, and BasePath</t>
+  </si>
+  <si>
+    <t>9. OpenAPI 2.0: SecurityDefinitions and Security</t>
+  </si>
+  <si>
+    <t>Swagger Editor</t>
+  </si>
+  <si>
+    <t>Hands On Lab 1- Create Your First OpenAPI Definition with Swagger Editor</t>
+  </si>
+  <si>
+    <t>Day 11</t>
+  </si>
+  <si>
+    <t>Explore the Swagger Editor, Swagger UI, and Swagger Inspector to describe, document, and test RESTful web APIs.                                             Discover how to auto-generate code in several languages from OpenAPI documents.</t>
+  </si>
+  <si>
+    <t>4. OpenAPI 2.0 vs. OpenAPI 3.0</t>
+  </si>
+  <si>
+    <t>1. Converting to OpenAPI 3.0</t>
+  </si>
+  <si>
+    <t>2. The Content and RequestBody Fields</t>
+  </si>
+  <si>
+    <t>3. Servers, Security and Component</t>
+  </si>
+  <si>
+    <t>5. Document OpenAPI with Swagger UI</t>
+  </si>
+  <si>
+    <t>1. URL, Security, Operations, and Parameters</t>
+  </si>
+  <si>
+    <t>2. Operations, Model, Example Values, and Responses</t>
+  </si>
+  <si>
+    <t>6. Interacting with Web APIs Using Swagger Inspector and Codegen</t>
+  </si>
+  <si>
+    <t>1. Testing a Web API</t>
+  </si>
+  <si>
+    <t>2. Interrogating a Web API</t>
+  </si>
+  <si>
+    <t>3. Generate Client SDKs and Server Stubs</t>
+  </si>
+  <si>
     <t>Serial Number</t>
   </si>
   <si>
@@ -1290,8 +1404,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1453,26 +1567,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1484,11 +1583,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1508,7 +1623,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1517,32 +1640,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1561,16 +1661,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1616,7 +1730,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,25 +1772,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1658,7 +1796,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1670,37 +1838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,7 +1862,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,49 +1886,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1784,19 +1910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1890,33 +2004,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1928,6 +2015,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1962,6 +2058,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1979,6 +2084,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1990,7 +2104,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2008,130 +2122,130 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2599,7 +2713,7 @@
   <dimension ref="A7:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -5455,7 +5569,7 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
@@ -5972,10 +6086,392 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:C64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="58.625" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="9" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="9" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="9" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="1:3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="22" ht="8" customHeight="1" spans="1:3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" customFormat="1" ht="24.75" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" spans="1:3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" spans="1:3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" spans="1:3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="14"/>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="15"/>
+    </row>
+    <row r="37" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+    </row>
+    <row r="38" ht="18.75" spans="1:1">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" ht="18.75" spans="1:1">
+      <c r="A39" s="7"/>
+    </row>
+    <row r="40" ht="18.75" spans="1:1">
+      <c r="A40" s="7"/>
+    </row>
+    <row r="41" ht="18.75" spans="1:1">
+      <c r="A41" s="7"/>
+    </row>
+    <row r="42" ht="18.75" spans="1:1">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" ht="18.75" spans="1:1">
+      <c r="A43" s="7"/>
+    </row>
+    <row r="44" ht="18.75" spans="1:1">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" ht="18.75" spans="1:1">
+      <c r="A45" s="7"/>
+    </row>
+    <row r="46" ht="18.75" spans="1:1">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" ht="18.75" spans="1:1">
+      <c r="A47" s="7"/>
+    </row>
+    <row r="48" ht="18.75" spans="1:1">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" ht="18.75" spans="1:1">
+      <c r="A49" s="7"/>
+    </row>
+    <row r="50" ht="18.75" spans="1:1">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" ht="18.75" spans="1:1">
+      <c r="A51" s="7"/>
+    </row>
+    <row r="52" ht="18.75" spans="1:1">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" ht="18.75" spans="1:1">
+      <c r="A53" s="7"/>
+    </row>
+    <row r="54" ht="18.75" spans="1:1">
+      <c r="A54" s="7"/>
+    </row>
+    <row r="55" ht="18.75" spans="1:1">
+      <c r="A55" s="7"/>
+    </row>
+    <row r="56" ht="18.75" spans="1:1">
+      <c r="A56" s="7"/>
+    </row>
+    <row r="57" ht="18.75" spans="1:1">
+      <c r="A57" s="7"/>
+    </row>
+    <row r="58" ht="18.75" spans="1:1">
+      <c r="A58" s="7"/>
+    </row>
+    <row r="59" ht="18.75" spans="1:1">
+      <c r="A59" s="7"/>
+    </row>
+    <row r="60" ht="18.75" spans="1:1">
+      <c r="A60" s="7"/>
+    </row>
+    <row r="61" ht="18.75" spans="1:1">
+      <c r="A61" s="7"/>
+    </row>
+    <row r="62" ht="18.75" spans="1:1">
+      <c r="A62" s="7"/>
+    </row>
+    <row r="63" ht="18.75" spans="1:1">
+      <c r="A63" s="7"/>
+    </row>
+    <row r="64" ht="18.75" spans="1:1">
+      <c r="A64" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B35:B36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
@@ -5999,19 +6495,19 @@
     </row>
     <row r="2" ht="15" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:5">
@@ -6019,16 +6515,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" ht="25.5" spans="1:5">
@@ -6036,16 +6532,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>193</v>
       </c>
       <c r="E6" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" ht="25.5" spans="1:5">
@@ -6053,16 +6549,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>321</v>
       </c>
       <c r="E8" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="3" activeTab="7"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -15,14 +15,16 @@
     <sheet name="Spring  Data JPA" sheetId="16" r:id="rId6"/>
     <sheet name="Spring Data REST" sheetId="17" r:id="rId7"/>
     <sheet name="Swagger" sheetId="19" r:id="rId8"/>
-    <sheet name="Sprint 1 Evaluation" sheetId="18" r:id="rId9"/>
+    <sheet name="Jenkins" sheetId="20" r:id="rId9"/>
+    <sheet name="API Development" sheetId="21" r:id="rId10"/>
+    <sheet name="Sprint 1" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="477">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -39,10 +41,13 @@
     <t>JPA with Hibernate</t>
   </si>
   <si>
-    <t>Spring 5.0</t>
+    <t>Spring 5.0 (Core, MVC, REST, Data JPA, Data REST)</t>
   </si>
   <si>
     <t>Swagger</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
   </si>
   <si>
     <t>Sprint 1 ( API Development using  Spring Boot application and Spring Data JPA and test API Using Swagger )  + MCQ</t>
@@ -1173,82 +1178,79 @@
     <t>8. Demo: Working with Association Resources</t>
   </si>
   <si>
+    <t>Customize and utilize this framework to meet your specific application needs.</t>
+  </si>
+  <si>
+    <t>4. Customizing REST Payloads</t>
+  </si>
+  <si>
+    <t>2. Demo: From Repositories to REST APIs</t>
+  </si>
+  <si>
+    <t>3. Changing Payloads with Projections</t>
+  </si>
+  <si>
+    <t>4. Creating a Projection</t>
+  </si>
+  <si>
+    <t>5. Demo: Coding a Projection</t>
+  </si>
+  <si>
+    <t>6. Demo: Virtual Projections</t>
+  </si>
+  <si>
+    <t>7. Demo: Projection Excerpts</t>
+  </si>
+  <si>
+    <t>8. Projections: Pros and Cons</t>
+  </si>
+  <si>
+    <t>9. Customizing Payloads with Jackson</t>
+  </si>
+  <si>
+    <t>5. Searching, Paging, Validating, and Event Handling</t>
+  </si>
+  <si>
+    <t>2. Hypermedia in a REST API</t>
+  </si>
+  <si>
+    <t>3. Spring Data REST Hypermedia Components</t>
+  </si>
+  <si>
+    <t>4. Demo: Exploring Hypermedia</t>
+  </si>
+  <si>
+    <t>5. Validation with Spring Data REST</t>
+  </si>
+  <si>
+    <t>6. Demo: Constraint Validation</t>
+  </si>
+  <si>
+    <t>7. Demo: Event Validation</t>
+  </si>
+  <si>
+    <t>8. Searching and Filtering with Spring Data REST</t>
+  </si>
+  <si>
+    <t>9. Demo: Searching and Filtering</t>
+  </si>
+  <si>
+    <t>10. Paging and Sorting an API</t>
+  </si>
+  <si>
+    <t>11.Demo: Paging and Sorting</t>
+  </si>
+  <si>
     <t>Spring Data REST</t>
   </si>
   <si>
     <t>Hands On Lab 1 - Spring Data REST - Developing RESTful APIs with Ease</t>
   </si>
   <si>
+    <t>Hands On Lab 2 - Expose RESTful APIs around Spring Data Repositories</t>
+  </si>
+  <si>
     <t>Day 9</t>
-  </si>
-  <si>
-    <t>Customize and utilize this framework to meet your specific application needs.</t>
-  </si>
-  <si>
-    <t>4. Customizing REST Payloads</t>
-  </si>
-  <si>
-    <t>2. Demo: From Repositories to REST APIs</t>
-  </si>
-  <si>
-    <t>3. Changing Payloads with Projections</t>
-  </si>
-  <si>
-    <t>4. Creating a Projection</t>
-  </si>
-  <si>
-    <t>5. Demo: Coding a Projection</t>
-  </si>
-  <si>
-    <t>6. Demo: Virtual Projections</t>
-  </si>
-  <si>
-    <t>7. Demo: Projection Excerpts</t>
-  </si>
-  <si>
-    <t>8. Projections: Pros and Cons</t>
-  </si>
-  <si>
-    <t>9. Customizing Payloads with Jackson</t>
-  </si>
-  <si>
-    <t>5. Searching, Paging, Validating, and Event Handling</t>
-  </si>
-  <si>
-    <t>2. Hypermedia in a REST API</t>
-  </si>
-  <si>
-    <t>3. Spring Data REST Hypermedia Components</t>
-  </si>
-  <si>
-    <t>4. Demo: Exploring Hypermedia</t>
-  </si>
-  <si>
-    <t>5. Validation with Spring Data REST</t>
-  </si>
-  <si>
-    <t>6. Demo: Constraint Validation</t>
-  </si>
-  <si>
-    <t>7. Demo: Event Validation</t>
-  </si>
-  <si>
-    <t>8. Searching and Filtering with Spring Data REST</t>
-  </si>
-  <si>
-    <t>9. Demo: Searching and Filtering</t>
-  </si>
-  <si>
-    <t>10. Paging and Sorting an API</t>
-  </si>
-  <si>
-    <t>11.Demo: Paging and Sorting</t>
-  </si>
-  <si>
-    <t>Hands On Lab 2 - Expose RESTful APIs around Spring Data Repositories</t>
-  </si>
-  <si>
-    <t>Day 10</t>
   </si>
   <si>
     <r>
@@ -1316,49 +1318,258 @@
     <t>9. OpenAPI 2.0: SecurityDefinitions and Security</t>
   </si>
   <si>
+    <t>Explore the Swagger Editor, Swagger UI, and Swagger Inspector to describe, document, and test RESTful web APIs.                                             Discover how to auto-generate code in several languages from OpenAPI documents.</t>
+  </si>
+  <si>
+    <t>4. OpenAPI 2.0 vs. OpenAPI 3.0</t>
+  </si>
+  <si>
+    <t>1. Converting to OpenAPI 3.0</t>
+  </si>
+  <si>
+    <t>2. The Content and RequestBody Fields</t>
+  </si>
+  <si>
+    <t>3. Servers, Security and Component</t>
+  </si>
+  <si>
+    <t>5. Document OpenAPI with Swagger UI</t>
+  </si>
+  <si>
+    <t>1. URL, Security, Operations, and Parameters</t>
+  </si>
+  <si>
+    <t>2. Operations, Model, Example Values, and Responses</t>
+  </si>
+  <si>
+    <t>6. Interacting with Web APIs Using Swagger Inspector and Codegen</t>
+  </si>
+  <si>
+    <t>1. Testing a Web API</t>
+  </si>
+  <si>
+    <t>2. Interrogating a Web API</t>
+  </si>
+  <si>
+    <t>3. Generate Client SDKs and Server Stubs</t>
+  </si>
+  <si>
     <t>Swagger Editor</t>
   </si>
   <si>
     <t>Hands On Lab 1- Create Your First OpenAPI Definition with Swagger Editor</t>
   </si>
   <si>
+    <t>Day 10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Manually deploying software is both painful and rife with inefficiencies.                                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">You’ll learn to automate mundane, repetitive tasks with Jenkins.                                    First, you’ll set up a Jenkins instance. </t>
+    </r>
+  </si>
+  <si>
+    <t>2. Setting Up a Jenkins Learning Environment</t>
+  </si>
+  <si>
+    <t>1. Jenkins V2 Is a Marked Improvement over V1</t>
+  </si>
+  <si>
+    <t>2. Should I Use the LTS or Weekly Jenkins Release?</t>
+  </si>
+  <si>
+    <t>3. Understanding High Level Installation Routes and Downloading jenkins.war</t>
+  </si>
+  <si>
+    <t>4. Installing AdoptOpenJDK</t>
+  </si>
+  <si>
+    <t>5. java -jar jenkins.war - Then Unlock the Protected Setup Wizard with the InitialAdminPassword</t>
+  </si>
+  <si>
+    <t>6. Setup Wizard - Installing Plugins</t>
+  </si>
+  <si>
+    <t>7. Setup Wizard - Creating the First Admin User</t>
+  </si>
+  <si>
+    <t>8. Setup Wizard - What Is the Jenkins URL?</t>
+  </si>
+  <si>
+    <t>9. Manage Jenkins: Changing Configuration after Setup - for Example, Creating a User</t>
+  </si>
+  <si>
+    <t>10. Spelunking JENKINS_HOME: How to Reset Your Jenkins Install and Back It Up</t>
+  </si>
+  <si>
+    <t>11. Docker Rocks for Learning Jenkins Thanks to the Official jenkins/jenkins Images - Setup is Effortless</t>
+  </si>
+  <si>
+    <t>12. Using docker-compose up to Spin up Jenkins and a MailHog Test Email Server!</t>
+  </si>
+  <si>
+    <t>13. Clean up and Recreation Is a Breeze with docker-compose</t>
+  </si>
+  <si>
     <t>Day 11</t>
   </si>
   <si>
-    <t>Explore the Swagger Editor, Swagger UI, and Swagger Inspector to describe, document, and test RESTful web APIs.                                             Discover how to auto-generate code in several languages from OpenAPI documents.</t>
-  </si>
-  <si>
-    <t>4. OpenAPI 2.0 vs. OpenAPI 3.0</t>
-  </si>
-  <si>
-    <t>1. Converting to OpenAPI 3.0</t>
-  </si>
-  <si>
-    <t>2. The Content and RequestBody Fields</t>
-  </si>
-  <si>
-    <t>3. Servers, Security and Component</t>
-  </si>
-  <si>
-    <t>5. Document OpenAPI with Swagger UI</t>
-  </si>
-  <si>
-    <t>1. URL, Security, Operations, and Parameters</t>
-  </si>
-  <si>
-    <t>2. Operations, Model, Example Values, and Responses</t>
-  </si>
-  <si>
-    <t>6. Interacting with Web APIs Using Swagger Inspector and Codegen</t>
-  </si>
-  <si>
-    <t>1. Testing a Web API</t>
-  </si>
-  <si>
-    <t>2. Interrogating a Web API</t>
-  </si>
-  <si>
-    <t>3. Generate Client SDKs and Server Stubs</t>
+    <t>Next, you’ll learn how to automate tasks with both Freestyle and Pipeline job types.                                             Finally, you’ll explore practical examples of compiling, testing, packaging, and deploying software.                                                When you’re finished with this course, you’ll have the skills and knowledge of Jenkins needed to markedly boost your productivity!</t>
+  </si>
+  <si>
+    <t>4. Building Applications with Freestyle Jobs</t>
+  </si>
+  <si>
+    <t>1. Anatomy of the Build</t>
+  </si>
+  <si>
+    <t>2. Tip - First Make Sure Your Application Build Process Works Outside of Jenkins</t>
+  </si>
+  <si>
+    <t>3. Manually Building with Maven and Then Running the Sample App</t>
+  </si>
+  <si>
+    <t>4. Porting Manual Expertise to Automated</t>
+  </si>
+  <si>
+    <t>5. Creating a First Freestyle Project (aka Job) and Configuring It to Clone Our Git Repo</t>
+  </si>
+  <si>
+    <t>6. Testing if Jenkins Can Clone the Git Repo</t>
+  </si>
+  <si>
+    <t>7. Fixing the Default Branch Specifier to Use Main Not the Default of Master</t>
+  </si>
+  <si>
+    <t>8. Configuring a Shell Build Step to Run the Maven Wrapper to Compile Our App</t>
+  </si>
+  <si>
+    <t>9. The Workspace Is Where Jenkins Performs Disk Based Build Operations</t>
+  </si>
+  <si>
+    <t>10. Never Forget the Console Output Is Your Troubleshooting Best Friend</t>
+  </si>
+  <si>
+    <t>11. Packaging Our App While Viewing Build Output in Real Time with the Scrolling Console</t>
+  </si>
+  <si>
+    <t>12. Navigating Build Aka Run History without Losing Context</t>
+  </si>
+  <si>
+    <t>13. Capturing App Build Artifacts: In This Case a Jar File</t>
+  </si>
+  <si>
+    <t>14. Configuring Our Job to Capture Rich Unit Test Results</t>
+  </si>
+  <si>
+    <t>15. Drilling into the Captured Unit Test Overview</t>
+  </si>
+  <si>
+    <t>16. Viewing Test Result Trends and Stepping through the History of Build Overviews</t>
+  </si>
+  <si>
+    <t>17. Aborting a Long Running Build and the Legend of Balls and Weather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18. Visualizing Common Build Triggers - Push, Pull, and Scheduled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. Configuring Our Job to Trigger by Polling for Changes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Testing Our Polling Trigger by Pushing a Broken Test </t>
+  </si>
+  <si>
+    <t>21. Perusing Polling Logs after Triggering an Automated Build</t>
+  </si>
+  <si>
+    <t>22. Surfacing Test Failures and Troubleshooting What Went Wrong</t>
+  </si>
+  <si>
+    <t>23. Zippering Git Commit History with Build History - an Invaluable, Automatic Changelog</t>
+  </si>
+  <si>
+    <t>Day 12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Testing your API using information from a Swagger/OpenAPI specification is simple.                    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Swagger provides capabilities to easily inspect API request-responses, and make sure they work as expected.  Automating your API testing and verifying that it functions correctly in different scenarios is a breeze with the Swagger UI.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Configuring Spring Rest, Spring Data JPA and H2 in Spring Boot</t>
+  </si>
+  <si>
+    <t>2. Demo of Spring Rest, Spring Data JPA, and H2 to create restful services endpoints with Spring Boot</t>
+  </si>
+  <si>
+    <t>3. Using Swagger to test the Restful endpoints</t>
+  </si>
+  <si>
+    <t>2. Configuring Spring Rest, Spring Data JPA and H2 in Spring Boot</t>
+  </si>
+  <si>
+    <t>1. Creating a Spring Boot project with Spring Initializer</t>
+  </si>
+  <si>
+    <t>3. Demo: Using Spring Rest, Spring Data JPA, and H2 to create restful services endpoints with Spring Boot</t>
+  </si>
+  <si>
+    <t>1. Create Employee resource</t>
+  </si>
+  <si>
+    <t>2. Retrieve List of Employees</t>
+  </si>
+  <si>
+    <t>3. Retrieve Employee</t>
+  </si>
+  <si>
+    <t>4. Update Employee resource</t>
+  </si>
+  <si>
+    <t>5. Delete Employee resource</t>
+  </si>
+  <si>
+    <t>4. Using Swagger to test the Restful endpoints</t>
+  </si>
+  <si>
+    <t>1. Swagger URL</t>
+  </si>
+  <si>
+    <t>2. Test Operations</t>
+  </si>
+  <si>
+    <t>3. Summary</t>
+  </si>
+  <si>
+    <t>Day 17</t>
   </si>
   <si>
     <t>Serial Number</t>
@@ -1376,6 +1587,9 @@
     <t>Deliverables</t>
   </si>
   <si>
+    <t>Due Date</t>
+  </si>
+  <si>
     <t>Write correct code to pass JUnit test cases for JPA with Hibernate using PostgreSQL.</t>
   </si>
   <si>
@@ -1395,6 +1609,18 @@
   </si>
   <si>
     <t>Complete a list of exercises dedicated to training  Spring Data JPa related skills.</t>
+  </si>
+  <si>
+    <t>Sprint 1 Evaluation Project - Spring Boot RESTful API Documentation and Testing with Swagger 2</t>
+  </si>
+  <si>
+    <t>Create a complete working application with Spring Bott, Spring Data JPA and incorporate Testing and Documentation with SWagger.</t>
+  </si>
+  <si>
+    <t>Sprint 1 Evaluation Project - Spring Boot RESTful API Documentation and Testing with Swagger 2.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present the project and demonstrate working functionality and prescribed  documentation. Demonstrate testing with Swagger UI. </t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1633,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1443,6 +1669,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1473,6 +1706,20 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1481,20 +1728,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1554,7 +1787,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,9 +1800,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1592,14 +1832,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1609,14 +1841,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1640,15 +1880,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1676,7 +1916,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1684,14 +1924,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1730,37 +1963,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,13 +1975,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,43 +2005,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1844,13 +2041,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1874,43 +2089,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,6 +2237,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2029,16 +2286,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2057,199 +2334,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2266,115 +2499,127 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2710,10 +2955,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A7:I22"/>
+  <dimension ref="A7:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
@@ -2726,143 +2971,547 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="38">
+      <c r="F9" s="42">
         <v>1</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="44">
         <v>2</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:9">
-      <c r="F10" s="41">
+      <c r="F10" s="45">
         <v>2</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="44">
+        <v>5</v>
+      </c>
+      <c r="I10" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" ht="14" customHeight="1" spans="6:9">
+      <c r="F11" s="47">
+        <v>3</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="44">
+        <v>2</v>
+      </c>
+      <c r="I11" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="14" customHeight="1" spans="6:9">
+      <c r="F12" s="45">
+        <v>4</v>
+      </c>
+      <c r="G12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="40">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" ht="14" customHeight="1" spans="6:9">
-      <c r="F11" s="43">
-        <v>3</v>
-      </c>
-      <c r="G11" s="42" t="s">
+      <c r="H12" s="44">
+        <v>2</v>
+      </c>
+      <c r="I12" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="45.75" spans="6:9">
+      <c r="F13" s="45">
+        <v>5</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="44">
+        <v>5</v>
+      </c>
+      <c r="I13" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" spans="6:9">
+      <c r="F14" s="45">
         <v>6</v>
       </c>
-      <c r="H11" s="40">
+      <c r="G14" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="44">
+        <v>1</v>
+      </c>
+      <c r="I14" s="44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="6:9">
+      <c r="F15" s="48"/>
+      <c r="G15" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="52">
+        <v>1</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="52">
         <v>2</v>
       </c>
-      <c r="I11" s="40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" ht="45.75" spans="6:9">
-      <c r="F12" s="41">
-        <v>4</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="40">
-        <v>5</v>
-      </c>
-      <c r="I12" s="40">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" spans="6:9">
-      <c r="F13" s="41">
-        <v>5</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="40">
-        <v>1</v>
-      </c>
-      <c r="I13" s="40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="44"/>
-      <c r="G14" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="48">
-        <v>1</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="48">
-        <v>2</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-    </row>
-    <row r="22" ht="26" customHeight="1" spans="1:6">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="B22" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" ht="26" customHeight="1" spans="1:6">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B23:F23"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="69.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" ht="15" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" ht="30" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" ht="22" customHeight="1" spans="1:3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" ht="28" customHeight="1" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" ht="15" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="15" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" ht="8" customHeight="1" spans="1:3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" ht="18.75" spans="1:1">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" ht="18.75" spans="1:1">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" ht="18.75" spans="1:1">
+      <c r="A22" s="10"/>
+    </row>
+    <row r="23" ht="18.75" spans="1:1">
+      <c r="A23" s="10"/>
+    </row>
+    <row r="24" ht="18.75" spans="1:1">
+      <c r="A24" s="10"/>
+    </row>
+    <row r="25" ht="18.75" spans="1:1">
+      <c r="A25" s="10"/>
+    </row>
+    <row r="26" ht="18.75" spans="1:1">
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" ht="18.75" spans="1:1">
+      <c r="A27" s="10"/>
+    </row>
+    <row r="28" ht="18.75" spans="1:1">
+      <c r="A28" s="10"/>
+    </row>
+    <row r="29" ht="18.75" spans="1:1">
+      <c r="A29" s="10"/>
+    </row>
+    <row r="30" ht="18.75" spans="1:1">
+      <c r="A30" s="10"/>
+    </row>
+    <row r="31" ht="18.75" spans="1:1">
+      <c r="A31" s="10"/>
+    </row>
+    <row r="32" ht="18.75" spans="1:1">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" ht="18.75" spans="1:1">
+      <c r="A33" s="10"/>
+    </row>
+    <row r="34" ht="18.75" spans="1:1">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" ht="18.75" spans="1:1">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="36" ht="18.75" spans="1:1">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" ht="18.75" spans="1:1">
+      <c r="A37" s="10"/>
+    </row>
+    <row r="38" ht="18.75" spans="1:1">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" ht="18.75" spans="1:1">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" ht="18.75" spans="1:1">
+      <c r="A40" s="10"/>
+    </row>
+    <row r="41" ht="18.75" spans="1:1">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" ht="18.75" spans="1:1">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" ht="18.75" spans="1:1">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="44" ht="18.75" spans="1:1">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="45" ht="18.75" spans="1:1">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" ht="18.75" spans="1:1">
+      <c r="A46" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A18"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C7:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="38.25" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+    <col min="4" max="4" width="38.75" customWidth="1"/>
+    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="24.75" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:6">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="6">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" spans="1:6">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" t="s">
+        <v>468</v>
+      </c>
+      <c r="F6" s="6">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="8" ht="25.5" spans="1:6">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F8" s="6">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="10" ht="51" spans="1:6">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="6">
+        <v>44607</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2888,379 +3537,379 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>20</v>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="33" t="s">
         <v>22</v>
       </c>
+      <c r="C5" s="38" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
-        <v>23</v>
+      <c r="C6" s="19" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="35" t="s">
-        <v>24</v>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="35" t="s">
-        <v>25</v>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="35" t="s">
-        <v>26</v>
+      <c r="C9" s="15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="9" t="s">
-        <v>27</v>
+      <c r="C10" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="35" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="15" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
-        <v>30</v>
+      <c r="C13" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
-        <v>31</v>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
-        <v>32</v>
+      <c r="C15" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
-        <v>33</v>
+      <c r="C16" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="9" t="s">
-        <v>34</v>
+      <c r="C17" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="35" t="s">
-        <v>35</v>
+      <c r="C18" s="15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="9" t="s">
-        <v>36</v>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="9" t="s">
-        <v>37</v>
+      <c r="C20" s="14" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" ht="9" customHeight="1" spans="1:3">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
     </row>
     <row r="22" ht="24.75" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:3">
-      <c r="A23" s="7" t="s">
-        <v>39</v>
+      <c r="A23" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="35" t="s">
         <v>41</v>
       </c>
+      <c r="C23" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
-      <c r="A24" s="7"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="9" t="s">
-        <v>42</v>
+      <c r="C24" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="7"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="9" t="s">
-        <v>43</v>
+      <c r="C25" s="14" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:3">
-      <c r="A26" s="7"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="35" t="s">
-        <v>44</v>
+      <c r="C26" s="15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
-      <c r="A27" s="7"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
-        <v>45</v>
+      <c r="C27" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="7"/>
+      <c r="A28" s="10"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="35" t="s">
-        <v>46</v>
+      <c r="C28" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:3">
-      <c r="A29" s="7"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="9" t="s">
-        <v>47</v>
+      <c r="C29" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:3">
-      <c r="A30" s="7"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="9" t="s">
-        <v>48</v>
+      <c r="C30" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:3">
-      <c r="A31" s="7"/>
+      <c r="A31" s="10"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="35" t="s">
-        <v>49</v>
+      <c r="C31" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
+      <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="7"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="7"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="7"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="7"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="7"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="7"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:3">
-      <c r="A43" s="7"/>
+      <c r="A43" s="10"/>
       <c r="B43" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:3">
-      <c r="A44" s="7"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:3">
-      <c r="A45" s="7"/>
+      <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:3">
-      <c r="A46" s="7"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:3">
-      <c r="A47" s="7"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="7"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="7"/>
-      <c r="B49" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="14" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="23" t="s">
         <v>67</v>
       </c>
+      <c r="C49" s="24" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="9" t="s">
-        <v>68</v>
+      <c r="A50" s="10"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="51" ht="9" customHeight="1" spans="1:3">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
     </row>
     <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B54" s="24">
+      <c r="A54" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:2">
-      <c r="A55" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="24">
+      <c r="A55" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="30">
         <v>16</v>
       </c>
     </row>
@@ -3301,557 +3950,557 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
+      <c r="A3" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="29"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="C5" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="29"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
-        <v>73</v>
+      <c r="C6" s="14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="29"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="9" t="s">
-        <v>75</v>
+      <c r="C7" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="29"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
-        <v>76</v>
+      <c r="C8" s="14" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="29"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
-        <v>77</v>
+      <c r="C9" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="29"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="9" t="s">
-        <v>78</v>
+      <c r="C10" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="29"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="9" t="s">
-        <v>79</v>
+      <c r="C11" s="14" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="29"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
-        <v>80</v>
+      <c r="C12" s="14" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="29"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
-        <v>81</v>
+      <c r="C13" s="14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="29"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
-        <v>82</v>
+      <c r="C14" s="14" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="29"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="34"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" ht="15" spans="1:3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="34"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="34"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="34"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="34"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="34"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="34"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="34"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:3">
+      <c r="A33" s="34"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:3">
+      <c r="A34" s="34"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="34"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="34"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="1:3">
+      <c r="A37" s="34"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="34"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="34"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="34"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="34"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" ht="15" spans="1:3">
+      <c r="A43" s="34"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="34"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:3">
+      <c r="A45" s="34"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="34"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" spans="1:3">
+      <c r="A47" s="34"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="14"/>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="34"/>
+      <c r="B48" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" ht="15" spans="1:3">
+      <c r="A49" s="34"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="34"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="34"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="34"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="34"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:3">
+      <c r="A55" s="34"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:3">
+      <c r="A56" s="34"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" ht="15" spans="1:3">
+      <c r="A57" s="34"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="29"/>
-      <c r="C29" s="12"/>
-    </row>
-    <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="29"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="9"/>
-    </row>
-    <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="9"/>
-    </row>
-    <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9" t="s">
+    </row>
+    <row r="58" ht="15" spans="1:3">
+      <c r="A58" s="34"/>
+      <c r="C58" s="14"/>
+    </row>
+    <row r="59" ht="15" spans="1:3">
+      <c r="A59" s="34"/>
+      <c r="B59" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:3">
+      <c r="A60" s="34"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:3">
+      <c r="A61" s="34"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:3">
+      <c r="A62" s="34"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="29"/>
-      <c r="C58" s="9"/>
-    </row>
-    <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="29"/>
+      <c r="A63" s="34"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="9" t="s">
-        <v>126</v>
+      <c r="C63" s="14" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="29"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="9" t="s">
-        <v>127</v>
+      <c r="C64" s="14" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="29"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="11"/>
-      <c r="C65" s="9" t="s">
-        <v>128</v>
+      <c r="C65" s="14" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="29"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="11"/>
-      <c r="C66" s="9" t="s">
-        <v>129</v>
+      <c r="C66" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="29"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="11"/>
-      <c r="C67" s="9" t="s">
-        <v>130</v>
+      <c r="C67" s="14" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="29"/>
+      <c r="A68" s="34"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="15" t="s">
-        <v>131</v>
+      <c r="C68" s="16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="29"/>
+      <c r="A69" s="34"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="9" t="s">
-        <v>132</v>
+      <c r="C69" s="14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="29"/>
-      <c r="C70" s="9"/>
+      <c r="A70" s="34"/>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="29"/>
-      <c r="B71" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>133</v>
+      <c r="A71" s="34"/>
+      <c r="B71" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="29"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="9" t="s">
-        <v>134</v>
+      <c r="A72" s="34"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="14" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="29"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="9" t="s">
-        <v>135</v>
+      <c r="A73" s="34"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="14" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="29"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="30" t="s">
-        <v>136</v>
+      <c r="A74" s="34"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="35" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="75" hidden="1" spans="1:3">
-      <c r="A75" s="29"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="30"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="35"/>
     </row>
     <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="30" t="s">
-        <v>137</v>
+      <c r="A76" s="34"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="35" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="77" ht="9" customHeight="1" spans="1:3">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
     </row>
     <row r="80" ht="18.75" spans="1:2">
-      <c r="A80" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="24">
+      <c r="A80" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:2">
-      <c r="A81" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="24">
+      <c r="A81" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B81" s="30">
         <v>8</v>
       </c>
     </row>
@@ -3879,7 +4528,7 @@
   <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
@@ -3893,507 +4542,507 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
+      <c r="A3" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>74</v>
+        <v>143</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
-        <v>143</v>
+      <c r="C6" s="14" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="9" t="s">
-        <v>144</v>
+      <c r="C7" s="14" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
-        <v>145</v>
+      <c r="C8" s="14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
-        <v>146</v>
+      <c r="C9" s="14" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="9" t="s">
-        <v>147</v>
+      <c r="C10" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="9"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" ht="15" spans="1:3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="21"/>
+      <c r="C19" s="19"/>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+    </row>
+    <row r="26" ht="15" spans="1:3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="1:3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="21"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" ht="15" spans="1:3">
+      <c r="A33" s="21"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:3">
+      <c r="A34" s="21"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" ht="15" spans="1:3">
+      <c r="A35" s="21"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:3">
+      <c r="A36" s="21"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+    </row>
+    <row r="37" ht="15" spans="1:3">
+      <c r="A37" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" ht="15" spans="1:3">
+      <c r="A38" s="21"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" ht="15" spans="1:3">
+      <c r="A39" s="21"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:3">
+      <c r="A40" s="21"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="21"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" ht="15" spans="1:3">
+      <c r="A42" s="21"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11" t="s">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="21"/>
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" ht="15" spans="1:3">
+      <c r="A44" s="21"/>
+      <c r="B44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" ht="15" spans="1:3">
+      <c r="A45" s="21"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" ht="15" spans="1:3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" ht="15" spans="1:3">
+      <c r="A47" s="21"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" ht="15" spans="1:3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" ht="18" spans="1:3">
+      <c r="A49" s="21"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" ht="15" spans="1:3">
+      <c r="A50" s="21"/>
+      <c r="B50" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="21"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="21"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" ht="15" spans="1:3">
+      <c r="A53" s="21"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" ht="15" spans="1:3">
+      <c r="A54" s="21"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" ht="15" spans="1:3">
+      <c r="A55" s="21"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="56" ht="15" spans="1:3">
+      <c r="A56" s="21"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="14"/>
+    </row>
+    <row r="57" ht="15" spans="1:3">
+      <c r="A57" s="21"/>
+      <c r="B57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="1:3">
+      <c r="A58" s="21"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="1:3">
+      <c r="A59" s="21"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" ht="15" spans="1:3">
+      <c r="A60" s="21"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" ht="15" spans="1:3">
+      <c r="A61" s="21"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" ht="15" spans="1:3">
+      <c r="A62" s="21"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="63" ht="15" spans="1:3">
+      <c r="A63" s="21"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="9" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="9" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-    </row>
-    <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="10"/>
-      <c r="C43" s="12"/>
-    </row>
-    <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="49" ht="18" spans="1:3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="9"/>
-    </row>
-    <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="9" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="9"/>
-    </row>
-    <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="9" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="9"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="14" t="s">
-        <v>190</v>
+      <c r="A65" s="21"/>
+      <c r="B65" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="15" t="s">
-        <v>191</v>
+      <c r="A66" s="21"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="16" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="23"/>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="13"/>
-      <c r="C68" s="15" t="s">
-        <v>193</v>
+      <c r="A68" s="21"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="69" ht="9" customHeight="1" spans="1:3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
     </row>
     <row r="72" ht="18.75" spans="1:2">
-      <c r="A72" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="B72" s="24">
+      <c r="A72" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B72" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:2">
-      <c r="A73" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73" s="24">
+      <c r="A73" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B73" s="30">
         <v>8</v>
       </c>
     </row>
@@ -4437,199 +5086,199 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
+      <c r="A3" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="9" t="s">
         <v>199</v>
       </c>
+      <c r="C5" s="14" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="9"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C7" s="9" t="s">
         <v>201</v>
       </c>
+      <c r="C7" s="14" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
-        <v>202</v>
+      <c r="C8" s="14" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
-        <v>203</v>
+      <c r="C9" s="14" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="19"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>74</v>
+        <v>205</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
-        <v>205</v>
+      <c r="C12" s="14" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
-        <v>206</v>
+      <c r="C13" s="14" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>74</v>
+        <v>208</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
-        <v>208</v>
+      <c r="C16" s="14" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="7"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="9" t="s">
-        <v>209</v>
+      <c r="C17" s="14" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C19" s="9" t="s">
         <v>211</v>
       </c>
+      <c r="C19" s="14" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="7"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="9" t="s">
-        <v>212</v>
+      <c r="C20" s="14" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="9" t="s">
-        <v>213</v>
+      <c r="C21" s="14" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>214</v>
+      <c r="A22" s="10"/>
+      <c r="B22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="26" t="s">
-        <v>215</v>
+      <c r="A23" s="10"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="12" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" ht="8" customHeight="1" spans="1:3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="28" ht="18.75" spans="1:2">
-      <c r="A28" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="24">
+      <c r="A28" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B28" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:2">
-      <c r="A29" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B29" s="24">
+      <c r="A29" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="30">
         <v>8</v>
       </c>
     </row>
@@ -4655,9 +5304,9 @@
   <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C121" sqref="C121"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="$A92:$XFD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -4668,875 +5317,875 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
+      <c r="A3" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>221</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
-        <v>221</v>
+      <c r="C6" s="14" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="9" t="s">
-        <v>222</v>
+      <c r="C7" s="14" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
-        <v>223</v>
+      <c r="C8" s="14" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
-        <v>224</v>
+      <c r="C9" s="14" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="9" t="s">
-        <v>78</v>
+      <c r="C10" s="14" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="9" t="s">
-        <v>154</v>
+      <c r="C11" s="14" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" ht="18.75" spans="1:3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>74</v>
+        <v>226</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
-        <v>226</v>
+      <c r="C14" s="14" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="1:3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="1:3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" spans="1:3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" spans="1:3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" spans="1:3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" ht="18.75" spans="1:3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="1:3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="16" ht="18.75" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="19" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="19" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="19" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="19" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" ht="18.75" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="19" t="s">
-        <v>233</v>
+      <c r="C25" s="25" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="19" t="s">
-        <v>234</v>
+      <c r="C26" s="25" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
-      <c r="A27" s="10"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="11"/>
-      <c r="C27" s="19" t="s">
-        <v>235</v>
+      <c r="C27" s="25" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
-      <c r="A28" s="10"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="19" t="s">
-        <v>236</v>
+      <c r="C28" s="25" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
-      <c r="A29" s="10"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="19" t="s">
-        <v>237</v>
+      <c r="C29" s="25" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="19" t="s">
-        <v>238</v>
+      <c r="C30" s="25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="19" t="s">
-        <v>114</v>
+      <c r="C31" s="25" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="19"/>
     </row>
     <row r="33" ht="18.75" spans="1:3">
-      <c r="A33" s="10"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>74</v>
+        <v>240</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:3">
-      <c r="A34" s="10"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="19" t="s">
-        <v>240</v>
+      <c r="C34" s="25" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
-      <c r="A35" s="10"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="19" t="s">
-        <v>241</v>
+      <c r="C35" s="25" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="19" t="s">
-        <v>242</v>
+      <c r="C36" s="25" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="19" t="s">
-        <v>243</v>
+      <c r="C37" s="25" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="19" t="s">
-        <v>244</v>
+      <c r="C38" s="25" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
-      <c r="A39" s="10"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="19" t="s">
-        <v>245</v>
+      <c r="C39" s="25" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
-      <c r="A40" s="10"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="19" t="s">
-        <v>246</v>
+      <c r="C40" s="25" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
-      <c r="A41" s="10"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="19" t="s">
-        <v>247</v>
+      <c r="C41" s="25" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
-      <c r="A42" s="10"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="19" t="s">
-        <v>248</v>
+      <c r="C42" s="25" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
-      <c r="A43" s="10"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="19" t="s">
-        <v>249</v>
+      <c r="C43" s="25" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
-      <c r="A44" s="10"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="19" t="s">
-        <v>250</v>
+      <c r="C44" s="25" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="10"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="21"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" ht="18.75" spans="1:3">
-      <c r="A46" s="10"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>74</v>
+        <v>252</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="19" t="s">
-        <v>252</v>
+      <c r="C47" s="25" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
-      <c r="A48" s="10"/>
+      <c r="A48" s="21"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="19" t="s">
-        <v>253</v>
+      <c r="C48" s="25" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
-      <c r="A49" s="10"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="19" t="s">
-        <v>254</v>
+      <c r="C49" s="25" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
-      <c r="A50" s="10"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="19" t="s">
-        <v>255</v>
+      <c r="C50" s="25" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
-      <c r="A51" s="10"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="19" t="s">
-        <v>256</v>
+      <c r="C51" s="25" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
-      <c r="A52" s="10"/>
+      <c r="A52" s="21"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="19" t="s">
-        <v>257</v>
+      <c r="C52" s="25" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
-      <c r="A53" s="10"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="11"/>
-      <c r="C53" s="19" t="s">
-        <v>258</v>
+      <c r="C53" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
-      <c r="A54" s="10"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="19" t="s">
-        <v>259</v>
+      <c r="C54" s="25" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
-      <c r="A55" s="10"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="19" t="s">
-        <v>260</v>
+      <c r="C55" s="25" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
-      <c r="A56" s="10"/>
+      <c r="A56" s="21"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="19" t="s">
-        <v>261</v>
+      <c r="C56" s="25" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
-      <c r="A57" s="10"/>
+      <c r="A57" s="21"/>
       <c r="B57" s="11"/>
-      <c r="C57" s="19" t="s">
-        <v>262</v>
+      <c r="C57" s="25" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
-      <c r="A58" s="10"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="19" t="s">
-        <v>263</v>
+      <c r="C58" s="25" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
-      <c r="A59" s="10"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="19" t="s">
-        <v>264</v>
+      <c r="C59" s="25" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
-      <c r="A60" s="10"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="11"/>
-      <c r="C60" s="19" t="s">
-        <v>265</v>
+      <c r="C60" s="25" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="10"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="21"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" ht="18.75" spans="1:3">
-      <c r="A62" s="10"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>74</v>
+        <v>267</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="63" ht="18.75" spans="1:3">
-      <c r="A63" s="10"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="19" t="s">
-        <v>267</v>
+      <c r="C63" s="25" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:3">
-      <c r="A64" s="10"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="19" t="s">
-        <v>268</v>
+      <c r="C64" s="25" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:3">
-      <c r="A65" s="10"/>
+      <c r="A65" s="21"/>
       <c r="B65" s="11"/>
-      <c r="C65" s="19" t="s">
-        <v>269</v>
+      <c r="C65" s="25" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
-      <c r="A66" s="10"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="11"/>
-      <c r="C66" s="19" t="s">
-        <v>270</v>
+      <c r="C66" s="25" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
-      <c r="A67" s="10"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="11"/>
-      <c r="C67" s="19" t="s">
-        <v>271</v>
+      <c r="C67" s="25" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="10"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="19" t="s">
-        <v>272</v>
+      <c r="C68" s="25" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
-      <c r="A69" s="10"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="19" t="s">
-        <v>132</v>
+      <c r="C69" s="25" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="10"/>
-      <c r="C70" s="12"/>
+      <c r="A70" s="21"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" ht="18.75" spans="1:3">
-      <c r="A71" s="10"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>74</v>
+        <v>274</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:3">
-      <c r="A72" s="10"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="11"/>
-      <c r="C72" s="19" t="s">
-        <v>274</v>
+      <c r="C72" s="25" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
-      <c r="A73" s="10"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="19" t="s">
-        <v>275</v>
+      <c r="C73" s="25" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
-      <c r="A74" s="10"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="11"/>
-      <c r="C74" s="19" t="s">
-        <v>276</v>
+      <c r="C74" s="25" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="75" ht="18.75" spans="1:3">
-      <c r="A75" s="10"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="11"/>
-      <c r="C75" s="19" t="s">
-        <v>277</v>
+      <c r="C75" s="25" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
-      <c r="A76" s="10"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="11"/>
-      <c r="C76" s="19" t="s">
-        <v>278</v>
+      <c r="C76" s="25" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
-      <c r="A77" s="10"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="11"/>
-      <c r="C77" s="19" t="s">
-        <v>279</v>
+      <c r="C77" s="25" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
-      <c r="A78" s="10"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="11"/>
-      <c r="C78" s="19" t="s">
-        <v>280</v>
+      <c r="C78" s="25" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
-      <c r="A79" s="10"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="19" t="s">
-        <v>281</v>
+      <c r="C79" s="25" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
-      <c r="A80" s="10"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="11"/>
-      <c r="C80" s="19" t="s">
-        <v>282</v>
+      <c r="C80" s="25" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
-      <c r="A81" s="10"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="11"/>
-      <c r="C81" s="19" t="s">
-        <v>283</v>
+      <c r="C81" s="25" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
-      <c r="A82" s="10"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="19" t="s">
-        <v>284</v>
+      <c r="C82" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
-      <c r="A83" s="10"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="11"/>
-      <c r="C83" s="19" t="s">
-        <v>285</v>
+      <c r="C83" s="25" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
-      <c r="A84" s="10"/>
+      <c r="A84" s="21"/>
       <c r="B84" s="11"/>
-      <c r="C84" s="19" t="s">
-        <v>286</v>
+      <c r="C84" s="25" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
-      <c r="A85" s="10"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="11"/>
-      <c r="C85" s="19" t="s">
-        <v>287</v>
+      <c r="C85" s="25" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
-      <c r="A86" s="10"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="19" t="s">
-        <v>288</v>
+      <c r="C86" s="25" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
-      <c r="A87" s="10"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="11"/>
-      <c r="C87" s="19" t="s">
-        <v>289</v>
+      <c r="C87" s="25" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
-      <c r="A88" s="10"/>
+      <c r="A88" s="21"/>
       <c r="B88" s="11"/>
-      <c r="C88" s="19"/>
+      <c r="C88" s="25"/>
     </row>
     <row r="89" ht="17" customHeight="1" spans="1:3">
-      <c r="A89" s="10"/>
-      <c r="B89" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>290</v>
+      <c r="A89" s="21"/>
+      <c r="B89" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
-      <c r="A90" s="10"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="19" t="s">
-        <v>291</v>
+      <c r="A90" s="21"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="25" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
-      <c r="A91" s="10"/>
-      <c r="B91" s="13"/>
-      <c r="C91" s="19" t="s">
-        <v>292</v>
+      <c r="A91" s="21"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="25" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
     </row>
     <row r="93" ht="24.75" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
     </row>
     <row r="94" ht="18.75" spans="1:3">
-      <c r="A94" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="B94" s="21" t="s">
+      <c r="A94" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="19" t="s">
+      <c r="B94" s="27" t="s">
         <v>296</v>
       </c>
+      <c r="C94" s="25" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
-      <c r="A95" s="10"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="19" t="s">
-        <v>297</v>
+      <c r="A95" s="21"/>
+      <c r="B95" s="27"/>
+      <c r="C95" s="25" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
-      <c r="A96" s="10"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="19" t="s">
-        <v>298</v>
+      <c r="A96" s="21"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="25" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="97" ht="18.75" spans="1:3">
-      <c r="A97" s="10"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="19" t="s">
-        <v>299</v>
+      <c r="A97" s="21"/>
+      <c r="B97" s="27"/>
+      <c r="C97" s="25" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="98" ht="18.75" spans="1:3">
-      <c r="A98" s="10"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="19" t="s">
-        <v>300</v>
+      <c r="A98" s="21"/>
+      <c r="B98" s="27"/>
+      <c r="C98" s="25" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="99" ht="18.75" spans="1:3">
-      <c r="A99" s="10"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="19" t="s">
-        <v>301</v>
+      <c r="A99" s="21"/>
+      <c r="B99" s="27"/>
+      <c r="C99" s="25" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="100" ht="18.75" spans="1:3">
-      <c r="A100" s="10"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="19" t="s">
-        <v>302</v>
+      <c r="A100" s="21"/>
+      <c r="B100" s="27"/>
+      <c r="C100" s="25" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
-      <c r="A101" s="10"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="19" t="s">
-        <v>303</v>
+      <c r="A101" s="21"/>
+      <c r="B101" s="27"/>
+      <c r="C101" s="25" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="10"/>
-      <c r="C102" s="12"/>
+      <c r="A102" s="21"/>
+      <c r="C102" s="19"/>
     </row>
     <row r="103" ht="18.75" spans="1:3">
-      <c r="A103" s="10"/>
-      <c r="B103" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C103" s="19" t="s">
-        <v>74</v>
+      <c r="A103" s="21"/>
+      <c r="B103" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="104" ht="18.75" spans="1:3">
-      <c r="A104" s="10"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="19" t="s">
-        <v>305</v>
+      <c r="A104" s="21"/>
+      <c r="B104" s="27"/>
+      <c r="C104" s="25" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
-      <c r="A105" s="10"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="19" t="s">
-        <v>306</v>
+      <c r="A105" s="21"/>
+      <c r="B105" s="27"/>
+      <c r="C105" s="25" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
-      <c r="A106" s="10"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="19" t="s">
-        <v>307</v>
+      <c r="A106" s="21"/>
+      <c r="B106" s="27"/>
+      <c r="C106" s="25" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="107" ht="18.75" spans="1:3">
-      <c r="A107" s="10"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="19" t="s">
-        <v>308</v>
+      <c r="A107" s="21"/>
+      <c r="B107" s="27"/>
+      <c r="C107" s="25" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="108" ht="18.75" spans="1:3">
-      <c r="A108" s="10"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="19" t="s">
-        <v>309</v>
+      <c r="A108" s="21"/>
+      <c r="B108" s="27"/>
+      <c r="C108" s="25" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
-      <c r="A109" s="10"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="19" t="s">
-        <v>310</v>
+      <c r="A109" s="21"/>
+      <c r="B109" s="27"/>
+      <c r="C109" s="25" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="110" ht="18.75" spans="1:3">
-      <c r="A110" s="10"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="19" t="s">
-        <v>311</v>
+      <c r="A110" s="21"/>
+      <c r="B110" s="27"/>
+      <c r="C110" s="25" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
-      <c r="A111" s="10"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="19" t="s">
-        <v>312</v>
+      <c r="A111" s="21"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="25" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:3">
-      <c r="A112" s="10"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="19" t="s">
-        <v>313</v>
+      <c r="A112" s="21"/>
+      <c r="B112" s="27"/>
+      <c r="C112" s="25" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:3">
-      <c r="A113" s="10"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="19" t="s">
-        <v>314</v>
+      <c r="A113" s="21"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="25" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="114" ht="37.5" spans="1:3">
-      <c r="A114" s="10"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="19" t="s">
-        <v>315</v>
+      <c r="A114" s="21"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="25" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:3">
-      <c r="A115" s="10"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="19" t="s">
-        <v>316</v>
+      <c r="A115" s="21"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="25" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="116" ht="18.75" spans="1:3">
-      <c r="A116" s="10"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="19" t="s">
-        <v>317</v>
+      <c r="A116" s="21"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="25" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:3">
-      <c r="A117" s="10"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="19" t="s">
-        <v>265</v>
+      <c r="A117" s="21"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="25" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="10"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
+      <c r="A118" s="21"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
     </row>
     <row r="119" ht="37.5" spans="1:3">
-      <c r="A119" s="10"/>
-      <c r="B119" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="C119" s="19" t="s">
+      <c r="A119" s="21"/>
+      <c r="B119" s="28" t="s">
         <v>319</v>
       </c>
+      <c r="C119" s="25" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
-      <c r="A120" s="10"/>
-      <c r="B120" s="22"/>
-      <c r="C120" s="19" t="s">
-        <v>320</v>
+      <c r="A120" s="21"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="25" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:3">
-      <c r="A121" s="10"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="19" t="s">
-        <v>321</v>
+      <c r="A121" s="21"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="25" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
     </row>
     <row r="126" ht="18.75" spans="1:2">
-      <c r="A126" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="B126" s="24">
+      <c r="A126" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="127" ht="18.75" spans="1:2">
-      <c r="A127" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="B127" s="24">
+      <c r="A127" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" s="30">
         <v>16</v>
       </c>
     </row>
@@ -5566,12 +6215,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="$A30:$XFD30"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -5583,500 +6232,477 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
+      <c r="A3" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>74</v>
+        <v>327</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
-        <v>327</v>
+      <c r="C6" s="14" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="9" t="s">
-        <v>328</v>
+      <c r="C7" s="14" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
-        <v>329</v>
+      <c r="C8" s="14" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="9" t="s">
-        <v>330</v>
+      <c r="C9" s="14" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="9" t="s">
-        <v>331</v>
+      <c r="C10" s="14" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="9" t="s">
-        <v>332</v>
+      <c r="C11" s="14" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
-        <v>333</v>
+      <c r="C12" s="14" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
-        <v>334</v>
+      <c r="C13" s="14" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
-        <v>335</v>
+      <c r="C14" s="14" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
-        <v>336</v>
+      <c r="C15" s="14" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="9"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>74</v>
+        <v>338</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="9" t="s">
-        <v>338</v>
+      <c r="C18" s="14" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="9" t="s">
-        <v>339</v>
+      <c r="C19" s="14" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="9" t="s">
-        <v>340</v>
+      <c r="C20" s="14" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="9" t="s">
-        <v>341</v>
+      <c r="C21" s="14" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="9" t="s">
-        <v>342</v>
+      <c r="C22" s="14" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="9" t="s">
-        <v>343</v>
+      <c r="C23" s="14" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="9" t="s">
-        <v>344</v>
+      <c r="C24" s="14" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="9" t="s">
-        <v>114</v>
+      <c r="C25" s="14" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="19"/>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="13" t="s">
-        <v>66</v>
+      <c r="A27" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>347</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="15" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="29" ht="8" customHeight="1" spans="1:3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-    </row>
-    <row r="30" customFormat="1" ht="24.75" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="1:3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="29" ht="15" spans="1:3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>74</v>
+      <c r="A31" s="18"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="9" t="s">
-        <v>350</v>
+      <c r="C32" s="14" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="17"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="9" t="s">
-        <v>351</v>
+      <c r="C33" s="14" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="9" t="s">
-        <v>352</v>
+      <c r="C34" s="14" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="17"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="9" t="s">
-        <v>353</v>
+      <c r="C35" s="14" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="17"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="9" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="9" t="s">
-        <v>355</v>
-      </c>
+      <c r="C36" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" spans="1:3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="11" t="s">
         <v>356</v>
       </c>
+      <c r="C38" s="14" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="17"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="17"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="11"/>
-      <c r="C40" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" spans="1:3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="9"/>
+      <c r="C40" s="14" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41" ht="15" spans="1:3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="14" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>74</v>
+      <c r="A42" s="18"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="9" t="s">
-        <v>359</v>
+      <c r="C43" s="14" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="9" t="s">
-        <v>360</v>
+      <c r="C44" s="14" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="17"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="9" t="s">
-        <v>361</v>
+      <c r="C45" s="14" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="17"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="17"/>
+      <c r="C46" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="18"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="17"/>
+      <c r="C47" s="19" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="18"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="9" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="17"/>
+      <c r="C48" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="18"/>
       <c r="B49" s="11"/>
-      <c r="C49" s="9" t="s">
-        <v>365</v>
+      <c r="C49" s="19" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="24" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
+    <row r="51" ht="15" spans="1:3">
+      <c r="A51" s="18"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="16" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="52" ht="15" spans="1:3">
+      <c r="A52" s="18"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="9" customHeight="1" spans="1:3">
       <c r="A53" s="17"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="15" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="56" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+    </row>
+    <row r="54" ht="18.75" spans="1:1">
+      <c r="A54" s="10"/>
+    </row>
+    <row r="55" ht="18.75" spans="1:1">
+      <c r="A55" s="10"/>
+    </row>
+    <row r="56" ht="18.75" spans="1:1">
+      <c r="A56" s="10"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="7"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="7"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="7"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="7"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="7"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="7"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="7"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="7"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="7"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" ht="18.75" spans="1:1">
-      <c r="A66" s="7"/>
+      <c r="A66" s="10"/>
     </row>
     <row r="67" ht="18.75" spans="1:1">
-      <c r="A67" s="7"/>
+      <c r="A67" s="10"/>
     </row>
     <row r="68" ht="18.75" spans="1:1">
-      <c r="A68" s="7"/>
+      <c r="A68" s="10"/>
     </row>
     <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="7"/>
+      <c r="A69" s="10"/>
     </row>
     <row r="70" ht="18.75" spans="1:1">
-      <c r="A70" s="7"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" ht="18.75" spans="1:1">
-      <c r="A71" s="7"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" ht="18.75" spans="1:1">
-      <c r="A72" s="7"/>
+      <c r="A72" s="10"/>
     </row>
     <row r="73" ht="18.75" spans="1:1">
-      <c r="A73" s="7"/>
+      <c r="A73" s="10"/>
     </row>
     <row r="74" ht="18.75" spans="1:1">
-      <c r="A74" s="7"/>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" ht="18.75" spans="1:1">
-      <c r="A75" s="7"/>
+      <c r="A75" s="10"/>
     </row>
     <row r="76" ht="18.75" spans="1:1">
-      <c r="A76" s="7"/>
+      <c r="A76" s="10"/>
     </row>
     <row r="77" ht="18.75" spans="1:1">
-      <c r="A77" s="7"/>
+      <c r="A77" s="10"/>
     </row>
     <row r="78" ht="18.75" spans="1:1">
-      <c r="A78" s="7"/>
+      <c r="A78" s="10"/>
     </row>
     <row r="79" ht="18.75" spans="1:1">
-      <c r="A79" s="7"/>
+      <c r="A79" s="10"/>
     </row>
     <row r="80" ht="18.75" spans="1:1">
-      <c r="A80" s="7"/>
-    </row>
-    <row r="81" ht="18.75" spans="1:1">
-      <c r="A81" s="7"/>
-    </row>
-    <row r="82" ht="18.75" spans="1:1">
-      <c r="A82" s="7"/>
-    </row>
-    <row r="83" ht="18.75" spans="1:1">
-      <c r="A83" s="7"/>
+      <c r="A80" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="8">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A3:A28"/>
-    <mergeCell ref="A31:A55"/>
+    <mergeCell ref="A3:A26"/>
+    <mergeCell ref="A27:A52"/>
     <mergeCell ref="B5:B15"/>
     <mergeCell ref="B17:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B31:B40"/>
-    <mergeCell ref="B42:B53"/>
-    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B27:B36"/>
+    <mergeCell ref="B38:B49"/>
+    <mergeCell ref="B50:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6086,12 +6712,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -6103,14 +6729,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
@@ -6121,344 +6747,318 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>74</v>
+      <c r="C5" s="14" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="11"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="14" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="14" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="14" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="14" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="14" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="13" t="s">
-        <v>66</v>
+      <c r="A20" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="1" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="15" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="22" ht="8" customHeight="1" spans="1:3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-    </row>
-    <row r="23" customFormat="1" ht="24.75" spans="1:3">
-      <c r="A23" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="1:3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="17" t="s">
-        <v>389</v>
-      </c>
+      <c r="A24" s="18"/>
       <c r="B24" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24" s="9" t="s">
         <v>391</v>
       </c>
+      <c r="C24" s="14" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="11"/>
-      <c r="C25" s="9" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="17"/>
+      <c r="C25" s="14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" spans="1:3">
+      <c r="A26" s="18"/>
       <c r="B26" s="11"/>
-      <c r="C26" s="9" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" spans="1:3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="11" t="s">
+      <c r="C26" s="19"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C27" s="19" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="17"/>
+    <row r="28" spans="1:3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="18"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="9" t="s">
-        <v>396</v>
+      <c r="C29" s="19" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" ht="15" spans="1:3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+    <row r="32" ht="15" spans="1:3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="16" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" customFormat="1" ht="9" customHeight="1" spans="1:3">
       <c r="A33" s="17"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" spans="1:3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" ht="18.75" spans="1:1">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" ht="18.75" spans="1:1">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="36" ht="18.75" spans="1:1">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" ht="18.75" spans="1:1">
+      <c r="A37" s="10"/>
     </row>
     <row r="38" ht="18.75" spans="1:1">
-      <c r="A38" s="7"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="7"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" ht="18.75" spans="1:1">
-      <c r="A40" s="7"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" ht="18.75" spans="1:1">
-      <c r="A41" s="7"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" ht="18.75" spans="1:1">
-      <c r="A42" s="7"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="7"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" ht="18.75" spans="1:1">
-      <c r="A44" s="7"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" ht="18.75" spans="1:1">
-      <c r="A45" s="7"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="7"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="7"/>
+      <c r="A47" s="10"/>
     </row>
     <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="7"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="7"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" ht="18.75" spans="1:1">
-      <c r="A50" s="7"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="7"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" ht="18.75" spans="1:1">
-      <c r="A52" s="7"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="7"/>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="7"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="7"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="7"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="7"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="7"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="7"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="7"/>
-    </row>
-    <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="7"/>
-    </row>
-    <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="7"/>
+      <c r="A60" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="A3:A19"/>
+    <mergeCell ref="A20:A32"/>
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B10:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -6468,104 +7068,422 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20:A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="41.375" customWidth="1"/>
-    <col min="4" max="4" width="38.75" customWidth="1"/>
-    <col min="5" max="5" width="37.125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="35.125" customWidth="1"/>
+    <col min="3" max="3" width="69.75" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" ht="24.75" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" ht="15" spans="1:5">
-      <c r="A2" s="2" t="s">
+    <row r="1" ht="16.5" spans="1:3">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" ht="15" spans="1:3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="6" ht="15" spans="1:3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="7" ht="15" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="16" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="4" ht="25.5" spans="1:5">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="8" ht="15" spans="1:3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="9" ht="30" spans="1:3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="10" ht="15" spans="1:3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="16" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="1:5">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="11" ht="15" spans="1:3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="12" ht="15" spans="1:3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" ht="25.5" spans="1:5">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    </row>
+    <row r="13" ht="15" spans="1:3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="14" ht="15" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="E8" t="s">
-        <v>408</v>
-      </c>
+    </row>
+    <row r="15" ht="30" spans="1:3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="17" ht="15" spans="1:3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="16" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="8" customHeight="1" spans="1:3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" customFormat="1" ht="24.75" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" ht="15" spans="1:3">
+      <c r="A20" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="21" ht="15" spans="1:3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" ht="15" spans="1:3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" ht="15" spans="1:3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="18"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="19" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="19" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="18"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="19" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="19" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="30" ht="25.5" spans="1:3">
+      <c r="A30" s="18"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="18"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="20" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="32" ht="27" customHeight="1" spans="1:3">
+      <c r="A32" s="18"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A33" s="18"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="16" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="16" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="17" customHeight="1" spans="1:3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+    </row>
+    <row r="44" ht="18.75" spans="1:1">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="45" ht="18.75" spans="1:1">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" ht="18.75" spans="1:1">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="47" ht="18.75" spans="1:1">
+      <c r="A47" s="10"/>
+    </row>
+    <row r="48" ht="18.75" spans="1:1">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" ht="18.75" spans="1:1">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" ht="18.75" spans="1:1">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" ht="18.75" spans="1:1">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" ht="18.75" spans="1:1">
+      <c r="A52" s="10"/>
+    </row>
+    <row r="53" ht="18.75" spans="1:1">
+      <c r="A53" s="10"/>
+    </row>
+    <row r="54" ht="18.75" spans="1:1">
+      <c r="A54" s="10"/>
+    </row>
+    <row r="55" ht="18.75" spans="1:1">
+      <c r="A55" s="10"/>
+    </row>
+    <row r="56" ht="18.75" spans="1:1">
+      <c r="A56" s="10"/>
+    </row>
+    <row r="57" ht="18.75" spans="1:1">
+      <c r="A57" s="10"/>
+    </row>
+    <row r="58" ht="18.75" spans="1:1">
+      <c r="A58" s="10"/>
+    </row>
+    <row r="59" ht="18.75" spans="1:1">
+      <c r="A59" s="10"/>
+    </row>
+    <row r="60" ht="18.75" spans="1:1">
+      <c r="A60" s="10"/>
+    </row>
+    <row r="61" ht="18.75" spans="1:1">
+      <c r="A61" s="10"/>
+    </row>
+    <row r="62" ht="18.75" spans="1:1">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" ht="18.75" spans="1:1">
+      <c r="A63" s="10"/>
+    </row>
+    <row r="64" ht="18.75" spans="1:1">
+      <c r="A64" s="10"/>
+    </row>
+    <row r="65" ht="18.75" spans="1:1">
+      <c r="A65" s="10"/>
+    </row>
+    <row r="66" ht="18.75" spans="1:1">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" ht="18.75" spans="1:1">
+      <c r="A67" s="10"/>
+    </row>
+    <row r="68" ht="18.75" spans="1:1">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="69" ht="18.75" spans="1:1">
+      <c r="A69" s="10"/>
+    </row>
+    <row r="70" ht="18.75" spans="1:1">
+      <c r="A70" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A3:A17"/>
+    <mergeCell ref="A20:A42"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="B20:B42"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="478">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1506,10 +1506,21 @@
     <t>23. Zippering Git Commit History with Build History - an Invaluable, Automatic Changelog</t>
   </si>
   <si>
+    <t>Hands On Lab 1- Create a New Build Job in Jenkins Freestyle Project</t>
+  </si>
+  <si>
     <t>Day 12</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Testing your API using information from a Swagger/OpenAPI specification is simple.                    </t>
     </r>
     <r>
@@ -1629,9 +1640,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1712,6 +1723,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1720,14 +1739,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1786,8 +1797,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1807,17 +1850,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1839,24 +1873,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1870,6 +1888,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1878,11 +1904,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1894,8 +1919,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1903,28 +1936,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1963,7 +1974,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,13 +2004,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,55 +2058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,13 +2088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2083,43 +2106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2131,19 +2124,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,25 +2249,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2276,15 +2278,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2296,6 +2289,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2320,24 +2337,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2355,134 +2366,134 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2502,9 +2513,6 @@
     <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2538,18 +2546,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2558,7 +2566,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2971,151 +2979,151 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="42">
+      <c r="F9" s="41">
         <v>1</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="43">
         <v>2</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:9">
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>2</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="43">
         <v>5</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="6:9">
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>3</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="43">
         <v>2</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="43">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="6:9">
-      <c r="F12" s="45">
+      <c r="F12" s="44">
         <v>4</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="43">
         <v>2</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="45.75" spans="6:9">
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>5</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="43">
         <v>5</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <v>40</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>6</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="43">
         <v>1</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="43">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="6:9">
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="47"/>
+      <c r="G15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="49" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="52">
+      <c r="A21" s="51">
         <v>1</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="52">
+      <c r="A22" s="51">
         <v>2</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:6">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3133,10 +3141,10 @@
   <sheetPr/>
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -3148,222 +3156,221 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" ht="24.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>444</v>
+      <c r="C3" s="11" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
-        <v>445</v>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>446</v>
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>448</v>
       </c>
+      <c r="C7" s="14" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="9"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10" t="s">
         <v>450</v>
       </c>
+      <c r="C10" s="11" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
-        <v>451</v>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
-        <v>452</v>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
-        <v>453</v>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
-        <v>454</v>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10" t="s">
         <v>456</v>
       </c>
+      <c r="C16" s="11" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="16" t="s">
-        <v>457</v>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="15" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="16" t="s">
-        <v>458</v>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="15" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" ht="18.75" spans="1:1">
-      <c r="A20" s="10"/>
+      <c r="A20" s="9"/>
     </row>
     <row r="21" ht="18.75" spans="1:1">
-      <c r="A21" s="10"/>
+      <c r="A21" s="9"/>
     </row>
     <row r="22" ht="18.75" spans="1:1">
-      <c r="A22" s="10"/>
+      <c r="A22" s="9"/>
     </row>
     <row r="23" ht="18.75" spans="1:1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="9"/>
     </row>
     <row r="24" ht="18.75" spans="1:1">
-      <c r="A24" s="10"/>
+      <c r="A24" s="9"/>
     </row>
     <row r="25" ht="18.75" spans="1:1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="9"/>
     </row>
     <row r="26" ht="18.75" spans="1:1">
-      <c r="A26" s="10"/>
+      <c r="A26" s="9"/>
     </row>
     <row r="27" ht="18.75" spans="1:1">
-      <c r="A27" s="10"/>
+      <c r="A27" s="9"/>
     </row>
     <row r="28" ht="18.75" spans="1:1">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
     </row>
     <row r="29" ht="18.75" spans="1:1">
-      <c r="A29" s="10"/>
+      <c r="A29" s="9"/>
     </row>
     <row r="30" ht="18.75" spans="1:1">
-      <c r="A30" s="10"/>
+      <c r="A30" s="9"/>
     </row>
     <row r="31" ht="18.75" spans="1:1">
-      <c r="A31" s="10"/>
+      <c r="A31" s="9"/>
     </row>
     <row r="32" ht="18.75" spans="1:1">
-      <c r="A32" s="10"/>
+      <c r="A32" s="9"/>
     </row>
     <row r="33" ht="18.75" spans="1:1">
-      <c r="A33" s="10"/>
+      <c r="A33" s="9"/>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
     </row>
     <row r="35" ht="18.75" spans="1:1">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
     </row>
     <row r="36" ht="18.75" spans="1:1">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
     </row>
     <row r="38" ht="18.75" spans="1:1">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
     </row>
     <row r="40" ht="18.75" spans="1:1">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
     </row>
     <row r="41" ht="18.75" spans="1:1">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
     </row>
     <row r="42" ht="18.75" spans="1:1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
     </row>
     <row r="44" ht="18.75" spans="1:1">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
     </row>
     <row r="45" ht="18.75" spans="1:1">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3403,7 +3410,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="24.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3411,22 +3418,22 @@
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:6">
@@ -3434,16 +3441,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F4" s="6">
         <v>44606</v>
@@ -3454,16 +3461,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F6" s="6">
         <v>44606</v>
@@ -3474,16 +3481,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>322</v>
       </c>
       <c r="E8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F8" s="6">
         <v>44606</v>
@@ -3493,17 +3500,17 @@
       <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>476</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="F10" s="6">
         <v>44607</v>
@@ -3537,13 +3544,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3555,139 +3562,139 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="9" customHeight="1" spans="1:3">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
     </row>
     <row r="22" ht="24.75" spans="1:3">
       <c r="A22" s="1" t="s">
@@ -3697,87 +3704,87 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="19" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="15" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="15" t="s">
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
@@ -3785,60 +3792,60 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
       <c r="C37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
       <c r="C38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
       <c r="C39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
       <c r="C40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="10"/>
       <c r="C41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
@@ -3846,70 +3853,70 @@
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
       <c r="C45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
       <c r="C46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="10"/>
       <c r="C47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="21" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="14" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" ht="9" customHeight="1" spans="1:3">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
     </row>
     <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="29" t="s">
+      <c r="A54" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="30">
+      <c r="B54" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:2">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="30">
+      <c r="B55" s="29">
         <v>16</v>
       </c>
     </row>
@@ -3950,13 +3957,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3968,539 +3975,539 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="34"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="33"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="33"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="33"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="34"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14" t="s">
+      <c r="A26" s="33"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="33"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="34"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="33"/>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="33"/>
+      <c r="B30" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="33"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="33"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="33"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="33"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="33"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="34"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="34"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="33"/>
+      <c r="B38" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="34"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="33"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="34"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="13" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="34"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="33"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="13" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="34"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="33"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14" t="s">
+      <c r="A43" s="33"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="13" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="34"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="33"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="34"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="33"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="13"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="34"/>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="33"/>
+      <c r="B48" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="34"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14" t="s">
+      <c r="A49" s="33"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="34"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14" t="s">
+      <c r="A50" s="33"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="13" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="34"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14" t="s">
+      <c r="A51" s="33"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="34"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="33"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="34"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14" t="s">
+      <c r="A53" s="33"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14" t="s">
+      <c r="A54" s="33"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="34"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="14" t="s">
+      <c r="A55" s="33"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="13" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="34"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14" t="s">
+      <c r="A56" s="33"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="13" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="34"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="14" t="s">
+      <c r="A57" s="33"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="34"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="33"/>
+      <c r="C58" s="13"/>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="34"/>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="33"/>
+      <c r="B59" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="13" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="34"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="14" t="s">
+      <c r="A60" s="33"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="34"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="34"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14" t="s">
+      <c r="A62" s="33"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="34"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="14" t="s">
+      <c r="A63" s="33"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="34"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="14" t="s">
+      <c r="A64" s="33"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="13" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="34"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="14" t="s">
+      <c r="A65" s="33"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="13" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="34"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="14" t="s">
+      <c r="A66" s="33"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="13" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="34"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="14" t="s">
+      <c r="A67" s="33"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="13" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="16" t="s">
+      <c r="A68" s="33"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="34"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="14" t="s">
+      <c r="A69" s="33"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="34"/>
-      <c r="C70" s="14"/>
+      <c r="A70" s="33"/>
+      <c r="C70" s="13"/>
     </row>
     <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="34"/>
-      <c r="B71" s="23" t="s">
+      <c r="A71" s="33"/>
+      <c r="B71" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="21" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="34"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="14" t="s">
+      <c r="A72" s="33"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="14" t="s">
+      <c r="A73" s="33"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="34"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="35" t="s">
+      <c r="A74" s="33"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="34" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" hidden="1" spans="1:3">
-      <c r="A75" s="34"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="35"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="34"/>
     </row>
     <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="35" t="s">
+      <c r="A76" s="33"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77" ht="9" customHeight="1" spans="1:3">
-      <c r="A77" s="36"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
+      <c r="A77" s="35"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="36"/>
     </row>
     <row r="80" ht="18.75" spans="1:2">
-      <c r="A80" s="29" t="s">
+      <c r="A80" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="30">
+      <c r="B80" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:2">
-      <c r="A81" s="29" t="s">
+      <c r="A81" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="30">
+      <c r="B81" s="29">
         <v>8</v>
       </c>
     </row>
@@ -4542,13 +4549,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4560,489 +4567,489 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="21"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="22"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="13" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="13" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="13" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="13" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="13" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="13" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="13" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="21"/>
-      <c r="C43" s="19"/>
+      <c r="A43" s="22"/>
+      <c r="C43" s="18"/>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="21"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="14" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="13"/>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="32" t="s">
+      <c r="C50" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="14" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="13" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="13"/>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="14" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="14" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="14" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="21"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14" t="s">
+      <c r="A61" s="22"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14" t="s">
+      <c r="A62" s="22"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="14" t="s">
+      <c r="A63" s="22"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="23" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="21" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="16" t="s">
+      <c r="A66" s="22"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="15" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="23"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="20"/>
       <c r="C67" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="16" t="s">
+      <c r="A68" s="22"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="15" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="69" ht="9" customHeight="1" spans="1:3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
     </row>
     <row r="72" ht="18.75" spans="1:2">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="30">
+      <c r="B72" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:2">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="B73" s="30">
+      <c r="B73" s="29">
         <v>8</v>
       </c>
     </row>
@@ -5086,13 +5093,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5104,181 +5111,181 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="23" t="s">
+      <c r="A22" s="9"/>
+      <c r="B22" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="9"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="11" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" ht="8" customHeight="1" spans="1:3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="28" ht="18.75" spans="1:2">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:2">
-      <c r="A29" s="29" t="s">
+      <c r="A29" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="29">
         <v>8</v>
       </c>
     </row>
@@ -5317,13 +5324,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5335,632 +5342,632 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" ht="18.75" spans="1:3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="25" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="24" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="25" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="24" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="25" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="25" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="24" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="25" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="24" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="25" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="21"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="22"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" ht="18.75" spans="1:3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="25" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="25" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="24" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="25" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="25" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="24" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="25" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="25" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="24" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="24" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
-      <c r="A31" s="21"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="25" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="24" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="19"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" ht="18.75" spans="1:3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:3">
-      <c r="A34" s="21"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="25" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="24" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
-      <c r="A35" s="21"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="25" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="24" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="21"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="25" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="24" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="25" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="24" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="25" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="24" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
-      <c r="A39" s="21"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="25" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="24" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
-      <c r="A40" s="21"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="25" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="24" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
-      <c r="A41" s="21"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="25" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="24" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="25" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="24" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
-      <c r="A43" s="21"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="25" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="24" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
-      <c r="A44" s="21"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="25" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="24" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="21"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="22"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" ht="18.75" spans="1:3">
-      <c r="A46" s="21"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="25" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="24" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="25" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="24" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
-      <c r="A49" s="21"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="25" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="24" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
-      <c r="A50" s="21"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="25" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="24" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
-      <c r="A51" s="21"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="25" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="24" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
-      <c r="A52" s="21"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="24" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
-      <c r="A53" s="21"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="25" t="s">
+      <c r="A53" s="22"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="24" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
-      <c r="A54" s="21"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="25" t="s">
+      <c r="A54" s="22"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="24" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
-      <c r="A55" s="21"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="25" t="s">
+      <c r="A55" s="22"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="24" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="25" t="s">
+      <c r="A56" s="22"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="24" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
-      <c r="A57" s="21"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="25" t="s">
+      <c r="A57" s="22"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
-      <c r="A58" s="21"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="25" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="24" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
-      <c r="A59" s="21"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="25" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="24" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
-      <c r="A60" s="21"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="25" t="s">
+      <c r="A60" s="22"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="24" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="21"/>
-      <c r="C61" s="19"/>
+      <c r="A61" s="22"/>
+      <c r="C61" s="18"/>
     </row>
     <row r="62" ht="18.75" spans="1:3">
-      <c r="A62" s="21"/>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="22"/>
+      <c r="B62" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" ht="18.75" spans="1:3">
-      <c r="A63" s="21"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="25" t="s">
+      <c r="A63" s="22"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="24" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:3">
-      <c r="A64" s="21"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="25" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="24" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:3">
-      <c r="A65" s="21"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="25" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="24" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
-      <c r="A66" s="21"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="25" t="s">
+      <c r="A66" s="22"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="24" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
-      <c r="A67" s="21"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="25" t="s">
+      <c r="A67" s="22"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="24" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="21"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="25" t="s">
+      <c r="A68" s="22"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="24" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
-      <c r="A69" s="21"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="25" t="s">
+      <c r="A69" s="22"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="24" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="21"/>
-      <c r="C70" s="19"/>
+      <c r="A70" s="22"/>
+      <c r="C70" s="18"/>
     </row>
     <row r="71" ht="18.75" spans="1:3">
-      <c r="A71" s="21"/>
-      <c r="B71" s="11" t="s">
+      <c r="A71" s="22"/>
+      <c r="B71" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="25" t="s">
+      <c r="A72" s="22"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="24" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="25" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="24" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="25" t="s">
+      <c r="A74" s="22"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="75" ht="18.75" spans="1:3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="25" t="s">
+      <c r="A75" s="22"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="24" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
-      <c r="A76" s="21"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="25" t="s">
+      <c r="A76" s="22"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="24" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
-      <c r="A77" s="21"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="25" t="s">
+      <c r="A77" s="22"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="24" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
-      <c r="A78" s="21"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="25" t="s">
+      <c r="A78" s="22"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="24" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="25" t="s">
+      <c r="A79" s="22"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="24" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="25" t="s">
+      <c r="A80" s="22"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="24" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="25" t="s">
+      <c r="A81" s="22"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="24" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="25" t="s">
+      <c r="A82" s="22"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="24" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
-      <c r="A83" s="21"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="25" t="s">
+      <c r="A83" s="22"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="24" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
-      <c r="A84" s="21"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="25" t="s">
+      <c r="A84" s="22"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="24" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
-      <c r="A85" s="21"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="25" t="s">
+      <c r="A85" s="22"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="24" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
-      <c r="A86" s="21"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="25" t="s">
+      <c r="A86" s="22"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="24" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
-      <c r="A87" s="21"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="25" t="s">
+      <c r="A87" s="22"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="24" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
-      <c r="A88" s="21"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="25"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="24"/>
     </row>
     <row r="89" ht="17" customHeight="1" spans="1:3">
-      <c r="A89" s="21"/>
-      <c r="B89" s="23" t="s">
+      <c r="A89" s="22"/>
+      <c r="B89" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="25" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
-      <c r="A90" s="21"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="25" t="s">
+      <c r="A90" s="22"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="24" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
-      <c r="A91" s="21"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="25" t="s">
+      <c r="A91" s="22"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="24" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
     </row>
     <row r="93" ht="24.75" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -5970,222 +5977,222 @@
       <c r="C93" s="1"/>
     </row>
     <row r="94" ht="18.75" spans="1:3">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="24" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
-      <c r="A95" s="21"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="25" t="s">
+      <c r="A95" s="22"/>
+      <c r="B95" s="26"/>
+      <c r="C95" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
-      <c r="A96" s="21"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="25" t="s">
+      <c r="A96" s="22"/>
+      <c r="B96" s="26"/>
+      <c r="C96" s="24" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="97" ht="18.75" spans="1:3">
-      <c r="A97" s="21"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="25" t="s">
+      <c r="A97" s="22"/>
+      <c r="B97" s="26"/>
+      <c r="C97" s="24" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="98" ht="18.75" spans="1:3">
-      <c r="A98" s="21"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="25" t="s">
+      <c r="A98" s="22"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="24" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="99" ht="18.75" spans="1:3">
-      <c r="A99" s="21"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="25" t="s">
+      <c r="A99" s="22"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="24" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="100" ht="18.75" spans="1:3">
-      <c r="A100" s="21"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="25" t="s">
+      <c r="A100" s="22"/>
+      <c r="B100" s="26"/>
+      <c r="C100" s="24" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
-      <c r="A101" s="21"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="25" t="s">
+      <c r="A101" s="22"/>
+      <c r="B101" s="26"/>
+      <c r="C101" s="24" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="21"/>
-      <c r="C102" s="19"/>
+      <c r="A102" s="22"/>
+      <c r="C102" s="18"/>
     </row>
     <row r="103" ht="18.75" spans="1:3">
-      <c r="A103" s="21"/>
-      <c r="B103" s="27" t="s">
+      <c r="A103" s="22"/>
+      <c r="B103" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="C103" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" ht="18.75" spans="1:3">
-      <c r="A104" s="21"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="25" t="s">
+      <c r="A104" s="22"/>
+      <c r="B104" s="26"/>
+      <c r="C104" s="24" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
-      <c r="A105" s="21"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="25" t="s">
+      <c r="A105" s="22"/>
+      <c r="B105" s="26"/>
+      <c r="C105" s="24" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
-      <c r="A106" s="21"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="25" t="s">
+      <c r="A106" s="22"/>
+      <c r="B106" s="26"/>
+      <c r="C106" s="24" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="107" ht="18.75" spans="1:3">
-      <c r="A107" s="21"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="25" t="s">
+      <c r="A107" s="22"/>
+      <c r="B107" s="26"/>
+      <c r="C107" s="24" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="108" ht="18.75" spans="1:3">
-      <c r="A108" s="21"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="25" t="s">
+      <c r="A108" s="22"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="24" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
-      <c r="A109" s="21"/>
-      <c r="B109" s="27"/>
-      <c r="C109" s="25" t="s">
+      <c r="A109" s="22"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="24" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="110" ht="18.75" spans="1:3">
-      <c r="A110" s="21"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="25" t="s">
+      <c r="A110" s="22"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="24" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
-      <c r="A111" s="21"/>
-      <c r="B111" s="27"/>
-      <c r="C111" s="25" t="s">
+      <c r="A111" s="22"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="24" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:3">
-      <c r="A112" s="21"/>
-      <c r="B112" s="27"/>
-      <c r="C112" s="25" t="s">
+      <c r="A112" s="22"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="24" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:3">
-      <c r="A113" s="21"/>
-      <c r="B113" s="27"/>
-      <c r="C113" s="25" t="s">
+      <c r="A113" s="22"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="24" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="114" ht="37.5" spans="1:3">
-      <c r="A114" s="21"/>
-      <c r="B114" s="27"/>
-      <c r="C114" s="25" t="s">
+      <c r="A114" s="22"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="24" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:3">
-      <c r="A115" s="21"/>
-      <c r="B115" s="27"/>
-      <c r="C115" s="25" t="s">
+      <c r="A115" s="22"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="24" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="116" ht="18.75" spans="1:3">
-      <c r="A116" s="21"/>
-      <c r="B116" s="27"/>
-      <c r="C116" s="25" t="s">
+      <c r="A116" s="22"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="24" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:3">
-      <c r="A117" s="21"/>
-      <c r="B117" s="27"/>
-      <c r="C117" s="25" t="s">
+      <c r="A117" s="22"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="24" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="21"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
+      <c r="A118" s="22"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
     </row>
     <row r="119" ht="37.5" spans="1:3">
-      <c r="A119" s="21"/>
-      <c r="B119" s="28" t="s">
+      <c r="A119" s="22"/>
+      <c r="B119" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
-      <c r="A120" s="21"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="25" t="s">
+      <c r="A120" s="22"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="24" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:3">
-      <c r="A121" s="21"/>
-      <c r="B121" s="28"/>
-      <c r="C121" s="25" t="s">
+      <c r="A121" s="22"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="24" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
     </row>
     <row r="126" ht="18.75" spans="1:2">
-      <c r="A126" s="29" t="s">
+      <c r="A126" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="B126" s="30">
+      <c r="B126" s="29">
         <v>2</v>
       </c>
     </row>
     <row r="127" ht="18.75" spans="1:2">
-      <c r="A127" s="29" t="s">
+      <c r="A127" s="28" t="s">
         <v>324</v>
       </c>
-      <c r="B127" s="30">
+      <c r="B127" s="29">
         <v>16</v>
       </c>
     </row>
@@ -6232,13 +6239,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6250,448 +6257,448 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="22"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="13" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="13" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="13" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="13" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="13" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="13" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="13" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="13" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="13" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="13" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="13" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="13" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="13" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="13" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="13" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="17"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="13" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="19" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="18" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="19" t="s">
+      <c r="A48" s="17"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="18" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="19" t="s">
+      <c r="A49" s="17"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="18" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="23" t="s">
+      <c r="A50" s="17"/>
+      <c r="B50" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="21" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="16" t="s">
+      <c r="A51" s="17"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="15" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="16" t="s">
+      <c r="A52" s="17"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="15" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="10"/>
+      <c r="A63" s="9"/>
     </row>
     <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
     </row>
     <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="10"/>
+      <c r="A65" s="9"/>
     </row>
     <row r="66" ht="18.75" spans="1:1">
-      <c r="A66" s="10"/>
+      <c r="A66" s="9"/>
     </row>
     <row r="67" ht="18.75" spans="1:1">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9"/>
     </row>
     <row r="68" ht="18.75" spans="1:1">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="10"/>
+      <c r="A69" s="9"/>
     </row>
     <row r="70" ht="18.75" spans="1:1">
-      <c r="A70" s="10"/>
+      <c r="A70" s="9"/>
     </row>
     <row r="71" ht="18.75" spans="1:1">
-      <c r="A71" s="10"/>
+      <c r="A71" s="9"/>
     </row>
     <row r="72" ht="18.75" spans="1:1">
-      <c r="A72" s="10"/>
+      <c r="A72" s="9"/>
     </row>
     <row r="73" ht="18.75" spans="1:1">
-      <c r="A73" s="10"/>
+      <c r="A73" s="9"/>
     </row>
     <row r="74" ht="18.75" spans="1:1">
-      <c r="A74" s="10"/>
+      <c r="A74" s="9"/>
     </row>
     <row r="75" ht="18.75" spans="1:1">
-      <c r="A75" s="10"/>
+      <c r="A75" s="9"/>
     </row>
     <row r="76" ht="18.75" spans="1:1">
-      <c r="A76" s="10"/>
+      <c r="A76" s="9"/>
     </row>
     <row r="77" ht="18.75" spans="1:1">
-      <c r="A77" s="10"/>
+      <c r="A77" s="9"/>
     </row>
     <row r="78" ht="18.75" spans="1:1">
-      <c r="A78" s="10"/>
+      <c r="A78" s="9"/>
     </row>
     <row r="79" ht="18.75" spans="1:1">
-      <c r="A79" s="10"/>
+      <c r="A79" s="9"/>
     </row>
     <row r="80" ht="18.75" spans="1:1">
-      <c r="A80" s="10"/>
+      <c r="A80" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6715,9 +6722,9 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="$A31:$XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -6729,13 +6736,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6747,306 +6754,306 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="13" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="13" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="22"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="13" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="22"/>
+      <c r="B10" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="13" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="13" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="13" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="18" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="18" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="19"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="18"/>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="23" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="21" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="15" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="10"/>
+      <c r="A34" s="9"/>
     </row>
     <row r="35" ht="18.75" spans="1:1">
-      <c r="A35" s="10"/>
+      <c r="A35" s="9"/>
     </row>
     <row r="36" ht="18.75" spans="1:1">
-      <c r="A36" s="10"/>
+      <c r="A36" s="9"/>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="9"/>
     </row>
     <row r="38" ht="18.75" spans="1:1">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="10"/>
+      <c r="A39" s="9"/>
     </row>
     <row r="40" ht="18.75" spans="1:1">
-      <c r="A40" s="10"/>
+      <c r="A40" s="9"/>
     </row>
     <row r="41" ht="18.75" spans="1:1">
-      <c r="A41" s="10"/>
+      <c r="A41" s="9"/>
     </row>
     <row r="42" ht="18.75" spans="1:1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="9"/>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="10"/>
+      <c r="A43" s="9"/>
     </row>
     <row r="44" ht="18.75" spans="1:1">
-      <c r="A44" s="10"/>
+      <c r="A44" s="9"/>
     </row>
     <row r="45" ht="18.75" spans="1:1">
-      <c r="A45" s="10"/>
+      <c r="A45" s="9"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
     </row>
     <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
     </row>
     <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
     </row>
     <row r="50" ht="18.75" spans="1:1">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
     </row>
     <row r="52" ht="18.75" spans="1:1">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7068,12 +7075,12 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:A42"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -7085,13 +7092,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7103,118 +7110,118 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="15" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="15" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="15" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="15" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="15" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="15" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="15" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="15" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="15" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="15" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="15" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="15" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" customFormat="1" ht="24.75" spans="1:3">
       <c r="A19" s="1" t="s">
@@ -7224,264 +7231,281 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="13" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="13" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="17"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="13" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="13" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="13" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="18" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="19" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="18" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="19" t="s">
+      <c r="A28" s="17"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="18" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="19" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="18" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="30" ht="25.5" spans="1:3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="20" t="s">
+      <c r="A30" s="17"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="19" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="20" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="19" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="17"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="16" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="15" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="16" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="15" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="16" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="15" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="16" t="s">
+      <c r="A36" s="17"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="15" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="16" t="s">
+      <c r="A37" s="17"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="15" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="16" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="15" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="16" t="s">
+      <c r="A39" s="17"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="15" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="16" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="15" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="16" t="s">
+      <c r="A41" s="17"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="15" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="16" t="s">
+      <c r="A42" s="17"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="15" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="9" customHeight="1" spans="1:3">
+    <row r="43" customFormat="1" ht="18.75" spans="1:3">
       <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-    </row>
-    <row r="44" ht="18.75" spans="1:1">
-      <c r="A44" s="10"/>
-    </row>
-    <row r="45" ht="18.75" spans="1:1">
-      <c r="A45" s="10"/>
+      <c r="B43" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" ht="18.75" spans="1:3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="15" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="9"/>
     </row>
     <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="10"/>
+      <c r="A47" s="9"/>
     </row>
     <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="9"/>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="10"/>
+      <c r="A49" s="9"/>
     </row>
     <row r="50" ht="18.75" spans="1:1">
-      <c r="A50" s="10"/>
+      <c r="A50" s="9"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="9"/>
     </row>
     <row r="52" ht="18.75" spans="1:1">
-      <c r="A52" s="10"/>
+      <c r="A52" s="9"/>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="10"/>
+      <c r="A53" s="9"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="9"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="10"/>
+      <c r="A55" s="9"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="9"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="10"/>
+      <c r="A57" s="9"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="10"/>
+      <c r="A58" s="9"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="9"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="9"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="10"/>
+      <c r="A61" s="9"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="10"/>
+      <c r="A62" s="9"/>
     </row>
     <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="10"/>
+      <c r="A63" s="9"/>
     </row>
     <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="10"/>
+      <c r="A64" s="9"/>
     </row>
     <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="10"/>
+      <c r="A65" s="9"/>
     </row>
     <row r="66" ht="18.75" spans="1:1">
-      <c r="A66" s="10"/>
+      <c r="A66" s="9"/>
     </row>
     <row r="67" ht="18.75" spans="1:1">
-      <c r="A67" s="10"/>
+      <c r="A67" s="9"/>
     </row>
     <row r="68" ht="18.75" spans="1:1">
-      <c r="A68" s="10"/>
+      <c r="A68" s="9"/>
     </row>
     <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="10"/>
+      <c r="A69" s="9"/>
     </row>
     <row r="70" ht="18.75" spans="1:1">
-      <c r="A70" s="10"/>
+      <c r="A70" s="9"/>
+    </row>
+    <row r="71" ht="18.75" spans="1:1">
+      <c r="A71" s="9"/>
+    </row>
+    <row r="72" ht="18.75" spans="1:1">
+      <c r="A72" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A20:A42"/>
+    <mergeCell ref="A20:A44"/>
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="B20:B42"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -1625,7 +1625,7 @@
     <t>Sprint 1 Evaluation Project - Spring Boot RESTful API Documentation and Testing with Swagger 2</t>
   </si>
   <si>
-    <t>Create a complete working application with Spring Bott, Spring Data JPA and incorporate Testing and Documentation with SWagger.</t>
+    <t>Create a complete working application with Spring Boot, Spring Data JPA and incorporate Testing and Documentation with SWagger.</t>
   </si>
   <si>
     <t>Sprint 1 Evaluation Project - Spring Boot RESTful API Documentation and Testing with Swagger 2.docx</t>
@@ -1639,10 +1639,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1797,47 +1797,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1850,68 +1812,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1929,6 +1829,106 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1974,7 +1974,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,13 +2058,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,7 +2082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,67 +2100,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,13 +2130,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2112,49 +2154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2249,16 +2249,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2274,21 +2294,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2326,37 +2331,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2366,130 +2366,130 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3142,9 +3142,9 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -3392,10 +3392,10 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -6225,7 +6225,7 @@
   <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
@@ -6722,7 +6722,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C31" sqref="$A31:$XFD32"/>
     </sheetView>
@@ -7077,10 +7077,10 @@
   <sheetPr/>
   <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="$A19:$XFD46"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -7395,7 +7395,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="43" customFormat="1" ht="18.75" spans="1:3">
+    <row r="43" customFormat="1" ht="15" spans="1:3">
       <c r="A43" s="17"/>
       <c r="B43" s="20" t="s">
         <v>67</v>
@@ -7404,7 +7404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="1" ht="18.75" spans="1:3">
+    <row r="44" customFormat="1" ht="15" spans="1:3">
       <c r="A44" s="17"/>
       <c r="B44" s="20"/>
       <c r="C44" s="15" t="s">

--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="10"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="488">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1580,6 +1580,33 @@
     <t>3. Summary</t>
   </si>
   <si>
+    <t>Day 13</t>
+  </si>
+  <si>
+    <t>Interactive REST API Documentation with Swagger UI</t>
+  </si>
+  <si>
+    <t>1.Configuring Swagger 2 and Swagger UI in the Application</t>
+  </si>
+  <si>
+    <t>1. Add the Swagger and Swagger UI Maven Dependency in the pom.xml.</t>
+  </si>
+  <si>
+    <t>2. Configure Swagger</t>
+  </si>
+  <si>
+    <t>3. Verification</t>
+  </si>
+  <si>
+    <t>2. Exploring Swagger UI</t>
+  </si>
+  <si>
+    <t>1. Make a Get Request</t>
+  </si>
+  <si>
+    <t>2. Make a Post Request</t>
+  </si>
+  <si>
     <t>Day 17</t>
   </si>
   <si>
@@ -1632,6 +1659,9 @@
   </si>
   <si>
     <t xml:space="preserve">Present the project and demonstrate working functionality and prescribed  documentation. Demonstrate testing with Swagger UI. </t>
+  </si>
+  <si>
+    <t>Note: Create a separate workspace in Spring Tool Suite for your projects.    Name it "Sprint1".</t>
   </si>
 </sst>
 </file>
@@ -1639,12 +1669,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1682,6 +1712,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1797,69 +1834,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,18 +1857,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1896,8 +1901,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1911,11 +1933,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1935,7 +1972,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1974,7 +2011,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +2029,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1998,121 +2107,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,7 +2131,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,19 +2155,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2248,56 +2285,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2322,11 +2309,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2345,155 +2373,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2516,118 +2553,121 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2979,151 +3019,151 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="41">
+      <c r="F9" s="42">
         <v>1</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="43">
+      <c r="H9" s="44">
         <v>2</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:9">
-      <c r="F10" s="44">
+      <c r="F10" s="45">
         <v>2</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="44">
         <v>5</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="44">
         <v>40</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="6:9">
-      <c r="F11" s="46">
+      <c r="F11" s="47">
         <v>3</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="44">
         <v>2</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="6:9">
-      <c r="F12" s="44">
+      <c r="F12" s="45">
         <v>4</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="43">
+      <c r="H12" s="44">
         <v>2</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="44">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="45.75" spans="6:9">
-      <c r="F13" s="44">
+      <c r="F13" s="45">
         <v>5</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="44">
         <v>5</v>
       </c>
-      <c r="I13" s="43">
+      <c r="I13" s="44">
         <v>40</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="44">
+      <c r="F14" s="45">
         <v>6</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="43">
+      <c r="H14" s="44">
         <v>1</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="44">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="6:9">
-      <c r="F15" s="47"/>
-      <c r="G15" s="48" t="s">
+      <c r="F15" s="48"/>
+      <c r="G15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="51" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="51">
+      <c r="A21" s="52">
         <v>1</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="51">
+      <c r="A22" s="52">
         <v>2</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:6">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3139,12 +3179,12 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="2"/>
@@ -3156,13 +3196,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3174,213 +3214,278 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="15" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="15"/>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="10"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="15" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="16" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="16" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" ht="18.75" spans="1:1">
-      <c r="A20" s="9"/>
-    </row>
-    <row r="21" ht="18.75" spans="1:1">
-      <c r="A21" s="9"/>
-    </row>
-    <row r="22" ht="18.75" spans="1:1">
-      <c r="A22" s="9"/>
-    </row>
-    <row r="23" ht="18.75" spans="1:1">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" ht="18.75" spans="1:1">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" ht="18.75" spans="1:1">
-      <c r="A25" s="9"/>
-    </row>
-    <row r="26" ht="18.75" spans="1:1">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" ht="18.75" spans="1:1">
-      <c r="A27" s="9"/>
-    </row>
-    <row r="28" ht="18.75" spans="1:1">
-      <c r="A28" s="9"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" customFormat="1" ht="24.75" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" ht="15" spans="1:3">
+      <c r="A21" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="15" spans="1:3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="22" customHeight="1" spans="1:3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="15.75" spans="1:3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+    </row>
+    <row r="25" customFormat="1" ht="16" customHeight="1" spans="1:3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="9" customHeight="1" spans="1:3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="15"/>
+    </row>
+    <row r="27" customFormat="1" ht="15" spans="1:3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="18" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="8" customHeight="1" spans="1:3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
     </row>
     <row r="29" ht="18.75" spans="1:1">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" ht="18.75" spans="1:1">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" ht="18.75" spans="1:1">
-      <c r="A31" s="9"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" ht="18.75" spans="1:1">
-      <c r="A32" s="9"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" ht="18.75" spans="1:1">
-      <c r="A33" s="9"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" ht="18.75" spans="1:1">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" ht="18.75" spans="1:1">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" ht="18.75" spans="1:1">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" ht="18.75" spans="1:1">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" ht="18.75" spans="1:1">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" ht="18.75" spans="1:1">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" ht="18.75" spans="1:1">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" ht="18.75" spans="1:1">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
+    </row>
+    <row r="47" ht="18.75" spans="1:1">
+      <c r="A47" s="10"/>
+    </row>
+    <row r="48" ht="18.75" spans="1:1">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" ht="18.75" spans="1:1">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" ht="18.75" spans="1:1">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" ht="18.75" spans="1:1">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" ht="18.75" spans="1:1">
+      <c r="A52" s="10"/>
+    </row>
+    <row r="53" ht="18.75" spans="1:1">
+      <c r="A53" s="10"/>
+    </row>
+    <row r="54" ht="18.75" spans="1:1">
+      <c r="A54" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A3:A18"/>
+    <mergeCell ref="A21:A27"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B25:B27"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C25:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -3390,12 +3495,12 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -3410,7 +3515,7 @@
   <sheetData>
     <row r="1" customFormat="1" ht="24.75" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3418,22 +3523,22 @@
     </row>
     <row r="2" ht="15" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" ht="25.5" spans="1:6">
@@ -3441,16 +3546,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F4" s="6">
         <v>44606</v>
@@ -3461,16 +3566,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F6" s="6">
         <v>44606</v>
@@ -3481,16 +3586,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>322</v>
       </c>
       <c r="E8" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F8" s="6">
         <v>44606</v>
@@ -3501,24 +3606,44 @@
         <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="F10" s="6">
         <v>44607</v>
       </c>
     </row>
+    <row r="11" ht="15.75" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3544,13 +3669,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3562,139 +3687,139 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="18" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="18" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="9" customHeight="1" spans="1:3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
     </row>
     <row r="22" ht="24.75" spans="1:3">
       <c r="A22" s="1" t="s">
@@ -3704,87 +3829,87 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:3">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="14" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="20" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:3">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
@@ -3792,60 +3917,60 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
       <c r="C35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
       <c r="C36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
       <c r="C37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
       <c r="C38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="9"/>
-      <c r="B39" s="10"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
       <c r="C39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
       <c r="C40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="9"/>
-      <c r="B41" s="10"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
       <c r="C41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
@@ -3853,70 +3978,70 @@
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:3">
-      <c r="A44" s="9"/>
-      <c r="B44" s="10"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
       <c r="C44" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:3">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
       <c r="C45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:3">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
       <c r="C46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="10"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
       <c r="C47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="9"/>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="9"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="13" t="s">
+      <c r="A50" s="10"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" ht="9" customHeight="1" spans="1:3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
     </row>
     <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="29">
+      <c r="B54" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:2">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="29">
+      <c r="B55" s="31">
         <v>16</v>
       </c>
     </row>
@@ -3957,13 +4082,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3975,539 +4100,539 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="33"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="33"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="35"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="33"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="33"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="33"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="33"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="33"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="35"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="33"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="13" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="33"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="13" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="13" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="33"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="13"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="33"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="33"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="13" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="33"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="13" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="33"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="33"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="13" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="14" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="33"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="13" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="33"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="13" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="33"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="13" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="14" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="33"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="13" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="14" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="33"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="13" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="33"/>
-      <c r="C58" s="13"/>
+      <c r="A58" s="35"/>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="33"/>
-      <c r="B59" s="10" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="14" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="33"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="13" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="14" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="33"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="14" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="33"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="13" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="14" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="33"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="13" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="14" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="33"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="13" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="14" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="33"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="13" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="14" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="33"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="13" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="14" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="33"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="13" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="33"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="15" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="16" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="33"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="13" t="s">
+      <c r="A69" s="35"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="14" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="33"/>
-      <c r="C70" s="13"/>
+      <c r="A70" s="35"/>
+      <c r="C70" s="14"/>
     </row>
     <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="33"/>
-      <c r="B71" s="20" t="s">
+      <c r="A71" s="35"/>
+      <c r="B71" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="23" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="33"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13" t="s">
+      <c r="A72" s="35"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="14" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="33"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="13" t="s">
+      <c r="A73" s="35"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="33"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="34" t="s">
+      <c r="A74" s="35"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="36" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" hidden="1" spans="1:3">
-      <c r="A75" s="33"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="34"/>
+      <c r="A75" s="35"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="36"/>
     </row>
     <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="33"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="34" t="s">
+      <c r="A76" s="35"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="36" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77" ht="9" customHeight="1" spans="1:3">
-      <c r="A77" s="35"/>
-      <c r="B77" s="36"/>
-      <c r="C77" s="36"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="38"/>
     </row>
     <row r="80" ht="18.75" spans="1:2">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="29">
+      <c r="B80" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:2">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="29">
+      <c r="B81" s="31">
         <v>8</v>
       </c>
     </row>
@@ -4549,13 +4674,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4567,489 +4692,489 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="22"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="24"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="10" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="10" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="14" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="24"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="24"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="22"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="24"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="13" t="s">
+      <c r="A45" s="24"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="13" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="13" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="13" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="13"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="14"/>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="24"/>
+      <c r="B50" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="33" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="24"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="13" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="13" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="13" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="13" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="14" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="13"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="10" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="13" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="13" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="13" t="s">
+      <c r="A60" s="24"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="13" t="s">
+      <c r="A61" s="24"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="13" t="s">
+      <c r="A62" s="24"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="13" t="s">
+      <c r="A63" s="24"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="13"/>
+      <c r="A64" s="24"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="22"/>
-      <c r="B65" s="20" t="s">
+      <c r="A65" s="24"/>
+      <c r="B65" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="23" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="15" t="s">
+      <c r="A66" s="24"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="16" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="24"/>
+      <c r="B67" s="22"/>
       <c r="C67" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="15" t="s">
+      <c r="A68" s="24"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="16" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="69" ht="9" customHeight="1" spans="1:3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
     </row>
     <row r="72" ht="18.75" spans="1:2">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:2">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="30" t="s">
         <v>196</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="31">
         <v>8</v>
       </c>
     </row>
@@ -5093,13 +5218,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5111,181 +5236,181 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="13"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="23" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="11" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="12"/>
     </row>
     <row r="25" ht="8" customHeight="1" spans="1:3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="28" ht="18.75" spans="1:2">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="31">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="31">
         <v>8</v>
       </c>
     </row>
@@ -5324,13 +5449,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5342,632 +5467,632 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" ht="18.75" spans="1:3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="24" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="26" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="24" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="26" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="24" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="24" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="26" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="24" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="26" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="24" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="24" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="22"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="24"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" ht="18.75" spans="1:3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="24" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="24" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="24" t="s">
+      <c r="A26" s="24"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="24" t="s">
+      <c r="A27" s="24"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="26" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="24" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="24" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="26" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="24" t="s">
+      <c r="A30" s="24"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="26" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="24" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" ht="18.75" spans="1:3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="24"/>
+      <c r="B33" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="26" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="24" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="26" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="24" t="s">
+      <c r="A36" s="24"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="26" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="24" t="s">
+      <c r="A37" s="24"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="26" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="24" t="s">
+      <c r="A38" s="24"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="26" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="24" t="s">
+      <c r="A39" s="24"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="26" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="24" t="s">
+      <c r="A40" s="24"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="26" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="24" t="s">
+      <c r="A41" s="24"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="26" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="24" t="s">
+      <c r="A42" s="24"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="26" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="24" t="s">
+      <c r="A43" s="24"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="26" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="24" t="s">
+      <c r="A44" s="24"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="26" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="22"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="24"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" ht="18.75" spans="1:3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="24"/>
+      <c r="B46" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="24" t="s">
+      <c r="A47" s="24"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="26" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="24" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="26" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="24" t="s">
+      <c r="A49" s="24"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="26" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="24" t="s">
+      <c r="A50" s="24"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="26" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="24" t="s">
+      <c r="A51" s="24"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="26" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="24" t="s">
+      <c r="A52" s="24"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="26" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="24" t="s">
+      <c r="A53" s="24"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="26" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="24" t="s">
+      <c r="A54" s="24"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="26" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="24" t="s">
+      <c r="A55" s="24"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="26" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="24" t="s">
+      <c r="A56" s="24"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="26" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="24" t="s">
+      <c r="A57" s="24"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="26" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="24" t="s">
+      <c r="A58" s="24"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="26" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="24" t="s">
+      <c r="A59" s="24"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="26" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="24" t="s">
+      <c r="A60" s="24"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="26" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="22"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="24"/>
+      <c r="C61" s="20"/>
     </row>
     <row r="62" ht="18.75" spans="1:3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="24"/>
+      <c r="B62" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" ht="18.75" spans="1:3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="24" t="s">
+      <c r="A63" s="24"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="26" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="24" t="s">
+      <c r="A64" s="24"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="26" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:3">
-      <c r="A65" s="22"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="24" t="s">
+      <c r="A65" s="24"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="26" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="24" t="s">
+      <c r="A66" s="24"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="26" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="24" t="s">
+      <c r="A67" s="24"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="26" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="24" t="s">
+      <c r="A68" s="24"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="26" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="24" t="s">
+      <c r="A69" s="24"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="26" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="22"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="24"/>
+      <c r="C70" s="20"/>
     </row>
     <row r="71" ht="18.75" spans="1:3">
-      <c r="A71" s="22"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="24"/>
+      <c r="B71" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:3">
-      <c r="A72" s="22"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="24" t="s">
+      <c r="A72" s="24"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="26" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="24" t="s">
+      <c r="A73" s="24"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="26" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
-      <c r="A74" s="22"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="24" t="s">
+      <c r="A74" s="24"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="26" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="75" ht="18.75" spans="1:3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="24" t="s">
+      <c r="A75" s="24"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="26" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="24" t="s">
+      <c r="A76" s="24"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="26" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="24" t="s">
+      <c r="A77" s="24"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="26" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="24" t="s">
+      <c r="A78" s="24"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="26" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="24" t="s">
+      <c r="A79" s="24"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="26" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="24" t="s">
+      <c r="A80" s="24"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="26" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="24" t="s">
+      <c r="A81" s="24"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="26" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="24" t="s">
+      <c r="A82" s="24"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="26" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="24" t="s">
+      <c r="A83" s="24"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="26" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="24" t="s">
+      <c r="A84" s="24"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="26" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="24" t="s">
+      <c r="A85" s="24"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="26" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
-      <c r="A86" s="22"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="24" t="s">
+      <c r="A86" s="24"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="26" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
-      <c r="A87" s="22"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="24" t="s">
+      <c r="A87" s="24"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="26" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
-      <c r="A88" s="22"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="24"/>
+      <c r="A88" s="24"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="26"/>
     </row>
     <row r="89" ht="17" customHeight="1" spans="1:3">
-      <c r="A89" s="22"/>
-      <c r="B89" s="20" t="s">
+      <c r="A89" s="24"/>
+      <c r="B89" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="C89" s="27" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
-      <c r="A90" s="22"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="24" t="s">
+      <c r="A90" s="24"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="26" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="24" t="s">
+      <c r="A91" s="24"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="26" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
     </row>
     <row r="93" ht="24.75" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -5977,222 +6102,222 @@
       <c r="C93" s="1"/>
     </row>
     <row r="94" ht="18.75" spans="1:3">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="24" t="s">
+      <c r="C94" s="26" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
-      <c r="A95" s="22"/>
-      <c r="B95" s="26"/>
-      <c r="C95" s="24" t="s">
+      <c r="A95" s="24"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="26" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
-      <c r="A96" s="22"/>
-      <c r="B96" s="26"/>
-      <c r="C96" s="24" t="s">
+      <c r="A96" s="24"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="26" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="97" ht="18.75" spans="1:3">
-      <c r="A97" s="22"/>
-      <c r="B97" s="26"/>
-      <c r="C97" s="24" t="s">
+      <c r="A97" s="24"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="26" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="98" ht="18.75" spans="1:3">
-      <c r="A98" s="22"/>
-      <c r="B98" s="26"/>
-      <c r="C98" s="24" t="s">
+      <c r="A98" s="24"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="26" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="99" ht="18.75" spans="1:3">
-      <c r="A99" s="22"/>
-      <c r="B99" s="26"/>
-      <c r="C99" s="24" t="s">
+      <c r="A99" s="24"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="26" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="100" ht="18.75" spans="1:3">
-      <c r="A100" s="22"/>
-      <c r="B100" s="26"/>
-      <c r="C100" s="24" t="s">
+      <c r="A100" s="24"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="26" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
-      <c r="A101" s="22"/>
-      <c r="B101" s="26"/>
-      <c r="C101" s="24" t="s">
+      <c r="A101" s="24"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="26" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="22"/>
-      <c r="C102" s="18"/>
+      <c r="A102" s="24"/>
+      <c r="C102" s="20"/>
     </row>
     <row r="103" ht="18.75" spans="1:3">
-      <c r="A103" s="22"/>
-      <c r="B103" s="26" t="s">
+      <c r="A103" s="24"/>
+      <c r="B103" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="C103" s="26" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" ht="18.75" spans="1:3">
-      <c r="A104" s="22"/>
-      <c r="B104" s="26"/>
-      <c r="C104" s="24" t="s">
+      <c r="A104" s="24"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="26" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
-      <c r="A105" s="22"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="24" t="s">
+      <c r="A105" s="24"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="26" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
-      <c r="A106" s="22"/>
-      <c r="B106" s="26"/>
-      <c r="C106" s="24" t="s">
+      <c r="A106" s="24"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="26" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="107" ht="18.75" spans="1:3">
-      <c r="A107" s="22"/>
-      <c r="B107" s="26"/>
-      <c r="C107" s="24" t="s">
+      <c r="A107" s="24"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="26" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="108" ht="18.75" spans="1:3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="26"/>
-      <c r="C108" s="24" t="s">
+      <c r="A108" s="24"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="26" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
-      <c r="A109" s="22"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="24" t="s">
+      <c r="A109" s="24"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="26" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="110" ht="18.75" spans="1:3">
-      <c r="A110" s="22"/>
-      <c r="B110" s="26"/>
-      <c r="C110" s="24" t="s">
+      <c r="A110" s="24"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="26" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
-      <c r="A111" s="22"/>
-      <c r="B111" s="26"/>
-      <c r="C111" s="24" t="s">
+      <c r="A111" s="24"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="26" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:3">
-      <c r="A112" s="22"/>
-      <c r="B112" s="26"/>
-      <c r="C112" s="24" t="s">
+      <c r="A112" s="24"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="26" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:3">
-      <c r="A113" s="22"/>
-      <c r="B113" s="26"/>
-      <c r="C113" s="24" t="s">
+      <c r="A113" s="24"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="26" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="114" ht="37.5" spans="1:3">
-      <c r="A114" s="22"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="24" t="s">
+      <c r="A114" s="24"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="26" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:3">
-      <c r="A115" s="22"/>
-      <c r="B115" s="26"/>
-      <c r="C115" s="24" t="s">
+      <c r="A115" s="24"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="26" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="116" ht="18.75" spans="1:3">
-      <c r="A116" s="22"/>
-      <c r="B116" s="26"/>
-      <c r="C116" s="24" t="s">
+      <c r="A116" s="24"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="26" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:3">
-      <c r="A117" s="22"/>
-      <c r="B117" s="26"/>
-      <c r="C117" s="24" t="s">
+      <c r="A117" s="24"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="26" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="22"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
     </row>
     <row r="119" ht="37.5" spans="1:3">
-      <c r="A119" s="22"/>
-      <c r="B119" s="27" t="s">
+      <c r="A119" s="24"/>
+      <c r="B119" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="C119" s="24" t="s">
+      <c r="C119" s="26" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
-      <c r="A120" s="22"/>
-      <c r="B120" s="27"/>
-      <c r="C120" s="24" t="s">
+      <c r="A120" s="24"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:3">
-      <c r="A121" s="22"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="24" t="s">
+      <c r="A121" s="24"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="26" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="16"/>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
     </row>
     <row r="126" ht="18.75" spans="1:2">
-      <c r="A126" s="28" t="s">
+      <c r="A126" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="B126" s="29">
+      <c r="B126" s="31">
         <v>2</v>
       </c>
     </row>
     <row r="127" ht="18.75" spans="1:2">
-      <c r="A127" s="28" t="s">
+      <c r="A127" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="B127" s="29">
+      <c r="B127" s="31">
         <v>16</v>
       </c>
     </row>
@@ -6239,13 +6364,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6257,448 +6382,448 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="24"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="24"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="24"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="24"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="24"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="14" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="13" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="14" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="14" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="14" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="13" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="14" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="13" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="13" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="14" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="13" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="14" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="18" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="20" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="18" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="20" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="18" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="20" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="19"/>
+      <c r="B50" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="23" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="15" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="16" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="15" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="16" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="9"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="9"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="9"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="9"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="9"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" ht="18.75" spans="1:1">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
     </row>
     <row r="67" ht="18.75" spans="1:1">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
     </row>
     <row r="68" ht="18.75" spans="1:1">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
     </row>
     <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="9"/>
+      <c r="A69" s="10"/>
     </row>
     <row r="70" ht="18.75" spans="1:1">
-      <c r="A70" s="9"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" ht="18.75" spans="1:1">
-      <c r="A71" s="9"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" ht="18.75" spans="1:1">
-      <c r="A72" s="9"/>
+      <c r="A72" s="10"/>
     </row>
     <row r="73" ht="18.75" spans="1:1">
-      <c r="A73" s="9"/>
+      <c r="A73" s="10"/>
     </row>
     <row r="74" ht="18.75" spans="1:1">
-      <c r="A74" s="9"/>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" ht="18.75" spans="1:1">
-      <c r="A75" s="9"/>
+      <c r="A75" s="10"/>
     </row>
     <row r="76" ht="18.75" spans="1:1">
-      <c r="A76" s="9"/>
+      <c r="A76" s="10"/>
     </row>
     <row r="77" ht="18.75" spans="1:1">
-      <c r="A77" s="9"/>
+      <c r="A77" s="10"/>
     </row>
     <row r="78" ht="18.75" spans="1:1">
-      <c r="A78" s="9"/>
+      <c r="A78" s="10"/>
     </row>
     <row r="79" ht="18.75" spans="1:1">
-      <c r="A79" s="9"/>
+      <c r="A79" s="10"/>
     </row>
     <row r="80" ht="18.75" spans="1:1">
-      <c r="A80" s="9"/>
+      <c r="A80" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6736,13 +6861,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6754,306 +6879,306 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="13" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="22"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="24"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="24"/>
+      <c r="B10" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="14" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="22"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="24"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="22"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="24"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="24"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="24"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="24"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="22"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="24"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="22"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="20" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="18" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="20" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="18" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="20" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="23" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="15" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="16" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" ht="18.75" spans="1:1">
-      <c r="A35" s="9"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" ht="18.75" spans="1:1">
-      <c r="A36" s="9"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="9"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" ht="18.75" spans="1:1">
-      <c r="A38" s="9"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="9"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" ht="18.75" spans="1:1">
-      <c r="A40" s="9"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" ht="18.75" spans="1:1">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" ht="18.75" spans="1:1">
-      <c r="A42" s="9"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="9"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" ht="18.75" spans="1:1">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" ht="18.75" spans="1:1">
-      <c r="A45" s="9"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
     </row>
     <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" ht="18.75" spans="1:1">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" ht="18.75" spans="1:1">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="9"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="9"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="9"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7092,13 +7217,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7110,118 +7235,118 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="14" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="16" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="16" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="16" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="16" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="16" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="15" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="16" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="15" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="16" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="16" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="15" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="16" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="15" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="16" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="15" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="16" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="15" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="16" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
     </row>
     <row r="19" customFormat="1" ht="24.75" spans="1:3">
       <c r="A19" s="1" t="s">
@@ -7231,271 +7356,271 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="14" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="13" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="14" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="18" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="20" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="20" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="18" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="20" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="18" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="20" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="30" ht="25.5" spans="1:3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="19" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="21" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="19" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="21" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="15" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="16" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="15" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="16" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="15" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="16" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="15" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="16" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A37" s="17"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="15" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="16" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A38" s="17"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="15" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="16" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A39" s="17"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="15" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="16" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A40" s="17"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="15" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="16" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="15" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="16" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="15" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="16" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="15" spans="1:3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="20" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="1" ht="15" spans="1:3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="15" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="16" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="9"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="9"/>
+      <c r="A47" s="10"/>
     </row>
     <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="9"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="9"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" ht="18.75" spans="1:1">
-      <c r="A50" s="9"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" ht="18.75" spans="1:1">
-      <c r="A52" s="9"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="9"/>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="9"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="9"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="9"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="9"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="9"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="9"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="9"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="9"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="9"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="9"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="9"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" ht="18.75" spans="1:1">
-      <c r="A66" s="9"/>
+      <c r="A66" s="10"/>
     </row>
     <row r="67" ht="18.75" spans="1:1">
-      <c r="A67" s="9"/>
+      <c r="A67" s="10"/>
     </row>
     <row r="68" ht="18.75" spans="1:1">
-      <c r="A68" s="9"/>
+      <c r="A68" s="10"/>
     </row>
     <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="9"/>
+      <c r="A69" s="10"/>
     </row>
     <row r="70" ht="18.75" spans="1:1">
-      <c r="A70" s="9"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" ht="18.75" spans="1:1">
-      <c r="A71" s="9"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" ht="18.75" spans="1:1">
-      <c r="A72" s="9"/>
+      <c r="A72" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/JEE DevOps - TOC.xlsx
+++ b/JEE DevOps - TOC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="9"/>
+    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="496">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -1663,18 +1663,42 @@
   <si>
     <t>Note: Create a separate workspace in Spring Tool Suite for your projects.    Name it "Sprint1".</t>
   </si>
+  <si>
+    <t>Marking Scheme</t>
+  </si>
+  <si>
+    <t>jpa-hibernate-exercises                   Score (15 points)</t>
+  </si>
+  <si>
+    <t>spring-framework-exercises                   Score (15 points)</t>
+  </si>
+  <si>
+    <t>spring-data-jpa-exercises                   Score (15 points)</t>
+  </si>
+  <si>
+    <t>Sprint 1 Evaluation Project              Score (20 points)</t>
+  </si>
+  <si>
+    <t>Testing (15 points)                                                    Documentation (5 points)</t>
+  </si>
+  <si>
+    <t>Technical Knowledge/ On-Time Delivery of Project Artifacts               Score (5 points)</t>
+  </si>
+  <si>
+    <t>Final Score                                                      (70 points)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="44">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -1720,6 +1744,20 @@
       <color rgb="FF0070C0"/>
       <name val="Verdana"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1834,15 +1872,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1856,6 +1927,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1865,15 +1950,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1887,30 +1971,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1919,23 +1981,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1950,22 +1996,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1978,12 +2016,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2011,7 +2061,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,25 +2085,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,31 +2115,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,13 +2151,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2113,25 +2205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2143,65 +2217,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2285,11 +2350,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2305,21 +2385,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2343,7 +2408,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2359,21 +2439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2385,152 +2450,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2556,118 +2621,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3019,151 +3091,151 @@
   <sheetData>
     <row r="7" ht="13.5"/>
     <row r="8" ht="13.5" spans="6:9">
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="6:9">
-      <c r="F9" s="42">
+      <c r="F9" s="45">
         <v>1</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="44">
+      <c r="H9" s="47">
         <v>2</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="47">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="15.75" spans="6:9">
-      <c r="F10" s="45">
+      <c r="F10" s="48">
         <v>2</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="47">
         <v>5</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="47">
         <v>40</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="6:9">
-      <c r="F11" s="47">
+      <c r="F11" s="50">
         <v>3</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="47">
         <v>2</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="47">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1" spans="6:9">
-      <c r="F12" s="45">
+      <c r="F12" s="48">
         <v>4</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="47">
         <v>2</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="47">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="45.75" spans="6:9">
-      <c r="F13" s="45">
+      <c r="F13" s="48">
         <v>5</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="47">
         <v>5</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="47">
         <v>40</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="6:9">
-      <c r="F14" s="45">
+      <c r="F14" s="48">
         <v>6</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="47">
         <v>1</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="47">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="6:9">
-      <c r="F15" s="48"/>
-      <c r="G15" s="49" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="53" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="52">
+      <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="52">
+      <c r="A22" s="55">
         <v>2</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" ht="26" customHeight="1" spans="1:6">
-      <c r="A23" s="55"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3181,7 +3253,7 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A20" sqref="$A20:$XFD28"/>
@@ -3196,13 +3268,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3214,122 +3286,122 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="5" ht="22" customHeight="1" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="18" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="13"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>450</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="15" ht="15.75" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="15" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="19" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="15" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="16" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="19" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
     <row r="20" customFormat="1" ht="24.75" spans="1:3">
       <c r="A20" s="1" t="s">
@@ -3339,138 +3411,138 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" customFormat="1" ht="15" spans="1:3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="15" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="15" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="22" customHeight="1" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="15.75" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
     </row>
     <row r="25" customFormat="1" ht="16" customHeight="1" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="18" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="26" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" customFormat="1" ht="15" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="18" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="21" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="28" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" ht="18.75" spans="1:1">
-      <c r="A29" s="10"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" ht="18.75" spans="1:1">
-      <c r="A30" s="10"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" ht="18.75" spans="1:1">
-      <c r="A31" s="10"/>
+      <c r="A31" s="13"/>
     </row>
     <row r="32" ht="18.75" spans="1:1">
-      <c r="A32" s="10"/>
+      <c r="A32" s="13"/>
     </row>
     <row r="33" ht="18.75" spans="1:1">
-      <c r="A33" s="10"/>
+      <c r="A33" s="13"/>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
     </row>
     <row r="35" ht="18.75" spans="1:1">
-      <c r="A35" s="10"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" ht="18.75" spans="1:1">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" ht="18.75" spans="1:1">
-      <c r="A38" s="10"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="10"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" ht="18.75" spans="1:1">
-      <c r="A40" s="10"/>
+      <c r="A40" s="13"/>
     </row>
     <row r="41" ht="18.75" spans="1:1">
-      <c r="A41" s="10"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" ht="18.75" spans="1:1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="10"/>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" ht="18.75" spans="1:1">
-      <c r="A44" s="10"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="45" ht="18.75" spans="1:1">
-      <c r="A45" s="10"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="13"/>
     </row>
     <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="10"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="13"/>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="10"/>
+      <c r="A49" s="13"/>
     </row>
     <row r="50" ht="18.75" spans="1:1">
-      <c r="A50" s="10"/>
+      <c r="A50" s="13"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="13"/>
     </row>
     <row r="52" ht="18.75" spans="1:1">
-      <c r="A52" s="10"/>
+      <c r="A52" s="13"/>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="10"/>
+      <c r="A53" s="13"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -3495,12 +3567,12 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -3637,8 +3709,46 @@
     <row r="15" spans="1:1">
       <c r="A15" s="8"/>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" ht="31" customHeight="1" spans="1:1">
       <c r="A16" s="8"/>
+    </row>
+    <row r="20" ht="18" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" spans="1:1">
+      <c r="A22" s="10" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" spans="1:1">
+      <c r="A23" s="10" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" spans="1:1">
+      <c r="A24" s="10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5" spans="1:2">
+      <c r="A25" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="26" ht="38.25" spans="1:1">
+      <c r="A26" s="10" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" spans="1:1">
+      <c r="A27" s="11" t="s">
+        <v>495</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3669,13 +3779,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3687,139 +3797,139 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="10" customHeight="1" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
     </row>
     <row r="5" ht="19" customHeight="1" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="21" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" ht="12" customHeight="1" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="15" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" ht="52" customHeight="1" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" ht="12" customHeight="1" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="24" customHeight="1" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" ht="22" customHeight="1" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="15" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="9" customHeight="1" spans="1:3">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
     </row>
     <row r="22" ht="24.75" spans="1:3">
       <c r="A22" s="1" t="s">
@@ -3829,87 +3939,87 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" ht="38" customHeight="1" spans="1:3">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" ht="21" customHeight="1" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="15" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="15" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" ht="17" customHeight="1" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" ht="13" customHeight="1" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" ht="21" customHeight="1" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="15" t="s">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" ht="15.75" spans="1:3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
@@ -3917,60 +4027,60 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
       <c r="C35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
       <c r="C36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
       <c r="C37" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
       <c r="C38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
       <c r="C39" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
       <c r="C40" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
       <c r="C41" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" ht="18" customHeight="1" spans="1:3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C43" t="s">
@@ -3978,70 +4088,70 @@
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" spans="1:3">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
       <c r="C44" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" spans="1:3">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
       <c r="C45" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1" spans="1:3">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
       <c r="C46" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1" spans="1:3">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
       <c r="C47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="13"/>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="13"/>
+      <c r="B49" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="23" t="s">
+      <c r="C49" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="14" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" ht="9" customHeight="1" spans="1:3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
     </row>
     <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="31">
+      <c r="B54" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:2">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="31">
+      <c r="B55" s="34">
         <v>16</v>
       </c>
     </row>
@@ -4082,13 +4192,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4100,539 +4210,539 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="35"/>
-      <c r="C15" s="20"/>
+      <c r="A15" s="38"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="14" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="17" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="35"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="38"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="17" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="17" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="47" ht="15.75" spans="1:3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17"/>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="17" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="14" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="14" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="17" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="17" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="17" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="14" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="17" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="14" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="35"/>
-      <c r="C58" s="14"/>
+      <c r="A58" s="38"/>
+      <c r="C58" s="17"/>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="17" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="14" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="17" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="17" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="14" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="17" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="14" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="17" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="14" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="17" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="35"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="14" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="67" ht="15" spans="1:3">
-      <c r="A67" s="35"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="14" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="17" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68" ht="15" spans="1:3">
-      <c r="A68" s="35"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="16" t="s">
+      <c r="A68" s="38"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="19" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="69" ht="15" spans="1:3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="14" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" ht="15" spans="1:3">
-      <c r="A70" s="35"/>
-      <c r="C70" s="14"/>
+      <c r="A70" s="38"/>
+      <c r="C70" s="17"/>
     </row>
     <row r="71" ht="15" spans="1:3">
-      <c r="A71" s="35"/>
-      <c r="B71" s="22" t="s">
+      <c r="A71" s="38"/>
+      <c r="B71" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="23" t="s">
+      <c r="C71" s="26" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="72" ht="15" spans="1:3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="14" t="s">
+      <c r="A72" s="38"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="17" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="73" ht="15" spans="1:3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="14" t="s">
+      <c r="A73" s="38"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="36" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="39" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="75" hidden="1" spans="1:3">
-      <c r="A75" s="35"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="36"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="39"/>
     </row>
     <row r="76" ht="15" spans="1:3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="36" t="s">
+      <c r="A76" s="38"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="39" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77" ht="9" customHeight="1" spans="1:3">
-      <c r="A77" s="37"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
     </row>
     <row r="80" ht="18.75" spans="1:2">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B80" s="31">
+      <c r="B80" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:2">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B81" s="31">
+      <c r="B81" s="34">
         <v>8</v>
       </c>
     </row>
@@ -4674,13 +4784,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4692,489 +4802,489 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="1:3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17"/>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="27"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="17" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="17" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C37" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="14" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="17" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="24"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="27"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="24"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="14" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="17" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="14" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="17" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="49" ht="18" spans="1:3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="36" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="14" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="14" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="17" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="14" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="14" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="17" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="17"/>
     </row>
     <row r="57" ht="15" spans="1:3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C57" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="14" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="17" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="14" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="17" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="60" ht="15" spans="1:3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="14" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="17" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" ht="15" spans="1:3">
-      <c r="A61" s="24"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="14" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="17" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" ht="15" spans="1:3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="14" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="17" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="63" ht="15" spans="1:3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="14" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="64" ht="15" spans="1:3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="14"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="17"/>
     </row>
     <row r="65" ht="15" spans="1:3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="22" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="26" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="66" ht="15" spans="1:3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="16" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="19" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="22"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="25"/>
       <c r="C67" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="16" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="19" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="69" ht="9" customHeight="1" spans="1:3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
     </row>
     <row r="72" ht="18.75" spans="1:2">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B72" s="31">
+      <c r="B72" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:2">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="33" t="s">
         <v>196</v>
       </c>
-      <c r="B73" s="31">
+      <c r="B73" s="34">
         <v>8</v>
       </c>
     </row>
@@ -5218,13 +5328,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5236,181 +5346,181 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="15.75" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17"/>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="17" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="26"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="14" ht="15.75" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="17"/>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="20"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="17" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="26" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="12" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="15" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" ht="8" customHeight="1" spans="1:3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="28" ht="18.75" spans="1:2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:2">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="34">
         <v>8</v>
       </c>
     </row>
@@ -5449,13 +5559,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5467,632 +5577,632 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" ht="15.75" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" ht="18.75" spans="1:3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="15" ht="18.75" spans="1:3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="29" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="16" ht="18.75" spans="1:3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="26" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="29" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="17" ht="18.75" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="29" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="18" ht="18.75" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="26" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="29" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="19" ht="18.75" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="29" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="20" ht="18.75" spans="1:3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="26" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="29" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="21" ht="18.75" spans="1:3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="26" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="24"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" ht="18.75" spans="1:3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="24" ht="18.75" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="26" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" ht="18.75" spans="1:3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="26" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="29" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="26" ht="18.75" spans="1:3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="26" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="29" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27" ht="18.75" spans="1:3">
-      <c r="A27" s="24"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="26" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="29" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28" ht="18.75" spans="1:3">
-      <c r="A28" s="24"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="26" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="29" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="29" ht="18.75" spans="1:3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="26" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="29" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="30" ht="18.75" spans="1:3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="26" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="29" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="31" ht="18.75" spans="1:3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="26" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" ht="18.75" spans="1:3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" ht="18.75" spans="1:3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="26" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="29" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="35" ht="18.75" spans="1:3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="26" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="29" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="36" ht="18.75" spans="1:3">
-      <c r="A36" s="24"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="26" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="29" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="37" ht="18.75" spans="1:3">
-      <c r="A37" s="24"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="26" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="29" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="38" ht="18.75" spans="1:3">
-      <c r="A38" s="24"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="26" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="29" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="39" ht="18.75" spans="1:3">
-      <c r="A39" s="24"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="26" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="29" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="40" ht="18.75" spans="1:3">
-      <c r="A40" s="24"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="26" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="29" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="41" ht="18.75" spans="1:3">
-      <c r="A41" s="24"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="26" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="29" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="42" ht="18.75" spans="1:3">
-      <c r="A42" s="24"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="26" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="29" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="43" ht="18.75" spans="1:3">
-      <c r="A43" s="24"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="26" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="29" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:3">
-      <c r="A44" s="24"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="26" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="29" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="24"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="27"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" ht="18.75" spans="1:3">
-      <c r="A46" s="24"/>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="47" ht="18.75" spans="1:3">
-      <c r="A47" s="24"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="26" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="29" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" ht="18.75" spans="1:3">
-      <c r="A48" s="24"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="26" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="29" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="49" ht="18.75" spans="1:3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="26" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="29" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="50" ht="18.75" spans="1:3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="26" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="29" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="51" ht="18.75" spans="1:3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="26" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="29" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="52" ht="18.75" spans="1:3">
-      <c r="A52" s="24"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="26" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="29" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="53" ht="18.75" spans="1:3">
-      <c r="A53" s="24"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="26" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="29" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="54" ht="18.75" spans="1:3">
-      <c r="A54" s="24"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="26" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="29" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="55" ht="18.75" spans="1:3">
-      <c r="A55" s="24"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="26" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="29" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="56" ht="18.75" spans="1:3">
-      <c r="A56" s="24"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="26" t="s">
+      <c r="A56" s="27"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="29" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="57" ht="18.75" spans="1:3">
-      <c r="A57" s="24"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="26" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="29" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="58" ht="18.75" spans="1:3">
-      <c r="A58" s="24"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="26" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="29" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="59" ht="18.75" spans="1:3">
-      <c r="A59" s="24"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="26" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="29" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="60" ht="18.75" spans="1:3">
-      <c r="A60" s="24"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="26" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="29" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="24"/>
-      <c r="C61" s="20"/>
+      <c r="A61" s="27"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62" ht="18.75" spans="1:3">
-      <c r="A62" s="24"/>
-      <c r="B62" s="11" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="63" ht="18.75" spans="1:3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="26" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="29" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="64" ht="18.75" spans="1:3">
-      <c r="A64" s="24"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="26" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="29" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="65" ht="18.75" spans="1:3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="26" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="29" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="66" ht="18.75" spans="1:3">
-      <c r="A66" s="24"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="26" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="29" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="67" ht="18.75" spans="1:3">
-      <c r="A67" s="24"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="26" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="29" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="68" ht="18.75" spans="1:3">
-      <c r="A68" s="24"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="26" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="29" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="69" ht="18.75" spans="1:3">
-      <c r="A69" s="24"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="26" t="s">
+      <c r="A69" s="27"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="29" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="24"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="27"/>
+      <c r="C70" s="23"/>
     </row>
     <row r="71" ht="18.75" spans="1:3">
-      <c r="A71" s="24"/>
-      <c r="B71" s="11" t="s">
+      <c r="A71" s="27"/>
+      <c r="B71" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="72" ht="18.75" spans="1:3">
-      <c r="A72" s="24"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="26" t="s">
+      <c r="A72" s="27"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="29" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="73" ht="18.75" spans="1:3">
-      <c r="A73" s="24"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="26" t="s">
+      <c r="A73" s="27"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="29" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="74" ht="18.75" spans="1:3">
-      <c r="A74" s="24"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="26" t="s">
+      <c r="A74" s="27"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="29" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="75" ht="18.75" spans="1:3">
-      <c r="A75" s="24"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="26" t="s">
+      <c r="A75" s="27"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="29" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="76" ht="18.75" spans="1:3">
-      <c r="A76" s="24"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="26" t="s">
+      <c r="A76" s="27"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="29" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="77" ht="18.75" spans="1:3">
-      <c r="A77" s="24"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="26" t="s">
+      <c r="A77" s="27"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="29" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="78" ht="18.75" spans="1:3">
-      <c r="A78" s="24"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="26" t="s">
+      <c r="A78" s="27"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="29" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="79" ht="18.75" spans="1:3">
-      <c r="A79" s="24"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="26" t="s">
+      <c r="A79" s="27"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="29" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="80" ht="18.75" spans="1:3">
-      <c r="A80" s="24"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="26" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="29" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="81" ht="18.75" spans="1:3">
-      <c r="A81" s="24"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="26" t="s">
+      <c r="A81" s="27"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="29" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="82" ht="18.75" spans="1:3">
-      <c r="A82" s="24"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="26" t="s">
+      <c r="A82" s="27"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="29" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="83" ht="18.75" spans="1:3">
-      <c r="A83" s="24"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="26" t="s">
+      <c r="A83" s="27"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="29" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="84" ht="18.75" spans="1:3">
-      <c r="A84" s="24"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="26" t="s">
+      <c r="A84" s="27"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="29" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="85" ht="18.75" spans="1:3">
-      <c r="A85" s="24"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="26" t="s">
+      <c r="A85" s="27"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="29" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="86" ht="18.75" spans="1:3">
-      <c r="A86" s="24"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="26" t="s">
+      <c r="A86" s="27"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="87" ht="18.75" spans="1:3">
-      <c r="A87" s="24"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="26" t="s">
+      <c r="A87" s="27"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="29" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="88" ht="18.75" spans="1:3">
-      <c r="A88" s="24"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="26"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="29"/>
     </row>
     <row r="89" ht="17" customHeight="1" spans="1:3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="22" t="s">
+      <c r="A89" s="27"/>
+      <c r="B89" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="30" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="90" ht="18.75" spans="1:3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="26" t="s">
+      <c r="A90" s="27"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="29" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="91" ht="18.75" spans="1:3">
-      <c r="A91" s="24"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="26" t="s">
+      <c r="A91" s="27"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="29" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
     </row>
     <row r="93" ht="24.75" spans="1:3">
       <c r="A93" s="1" t="s">
@@ -6102,222 +6212,222 @@
       <c r="C93" s="1"/>
     </row>
     <row r="94" ht="18.75" spans="1:3">
-      <c r="A94" s="24" t="s">
+      <c r="A94" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="29" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="95" ht="18.75" spans="1:3">
-      <c r="A95" s="24"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="26" t="s">
+      <c r="A95" s="27"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="29" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="96" ht="18.75" spans="1:3">
-      <c r="A96" s="24"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="26" t="s">
+      <c r="A96" s="27"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="29" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="97" ht="18.75" spans="1:3">
-      <c r="A97" s="24"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="26" t="s">
+      <c r="A97" s="27"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="29" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="98" ht="18.75" spans="1:3">
-      <c r="A98" s="24"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="26" t="s">
+      <c r="A98" s="27"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="29" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="99" ht="18.75" spans="1:3">
-      <c r="A99" s="24"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="26" t="s">
+      <c r="A99" s="27"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="29" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="100" ht="18.75" spans="1:3">
-      <c r="A100" s="24"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="26" t="s">
+      <c r="A100" s="27"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="29" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="101" ht="18.75" spans="1:3">
-      <c r="A101" s="24"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="26" t="s">
+      <c r="A101" s="27"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="29" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102" s="24"/>
-      <c r="C102" s="20"/>
+      <c r="A102" s="27"/>
+      <c r="C102" s="23"/>
     </row>
     <row r="103" ht="18.75" spans="1:3">
-      <c r="A103" s="24"/>
-      <c r="B103" s="28" t="s">
+      <c r="A103" s="27"/>
+      <c r="B103" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="104" ht="18.75" spans="1:3">
-      <c r="A104" s="24"/>
-      <c r="B104" s="28"/>
-      <c r="C104" s="26" t="s">
+      <c r="A104" s="27"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="29" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="105" ht="18.75" spans="1:3">
-      <c r="A105" s="24"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="26" t="s">
+      <c r="A105" s="27"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="29" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="106" ht="18.75" spans="1:3">
-      <c r="A106" s="24"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="26" t="s">
+      <c r="A106" s="27"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="29" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="107" ht="18.75" spans="1:3">
-      <c r="A107" s="24"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="26" t="s">
+      <c r="A107" s="27"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="29" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="108" ht="18.75" spans="1:3">
-      <c r="A108" s="24"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="26" t="s">
+      <c r="A108" s="27"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="29" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="109" ht="18.75" spans="1:3">
-      <c r="A109" s="24"/>
-      <c r="B109" s="28"/>
-      <c r="C109" s="26" t="s">
+      <c r="A109" s="27"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="29" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="110" ht="18.75" spans="1:3">
-      <c r="A110" s="24"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="26" t="s">
+      <c r="A110" s="27"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="29" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="111" ht="18.75" spans="1:3">
-      <c r="A111" s="24"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="26" t="s">
+      <c r="A111" s="27"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="29" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="112" ht="18.75" spans="1:3">
-      <c r="A112" s="24"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="26" t="s">
+      <c r="A112" s="27"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="29" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="113" ht="18.75" spans="1:3">
-      <c r="A113" s="24"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="26" t="s">
+      <c r="A113" s="27"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="29" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="114" ht="37.5" spans="1:3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="26" t="s">
+      <c r="A114" s="27"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="29" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="115" ht="18.75" spans="1:3">
-      <c r="A115" s="24"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="26" t="s">
+      <c r="A115" s="27"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="29" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="116" ht="18.75" spans="1:3">
-      <c r="A116" s="24"/>
-      <c r="B116" s="28"/>
-      <c r="C116" s="26" t="s">
+      <c r="A116" s="27"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="29" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="117" ht="18.75" spans="1:3">
-      <c r="A117" s="24"/>
-      <c r="B117" s="28"/>
-      <c r="C117" s="26" t="s">
+      <c r="A117" s="27"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="29" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="24"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="20"/>
+      <c r="A118" s="27"/>
+      <c r="B118" s="23"/>
+      <c r="C118" s="23"/>
     </row>
     <row r="119" ht="37.5" spans="1:3">
-      <c r="A119" s="24"/>
-      <c r="B119" s="29" t="s">
+      <c r="A119" s="27"/>
+      <c r="B119" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="29" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="120" ht="18.75" spans="1:3">
-      <c r="A120" s="24"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="26" t="s">
+      <c r="A120" s="27"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="29" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="121" ht="18.75" spans="1:3">
-      <c r="A121" s="24"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="26" t="s">
+      <c r="A121" s="27"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="29" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
+      <c r="A122" s="20"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
     </row>
     <row r="126" ht="18.75" spans="1:2">
-      <c r="A126" s="30" t="s">
+      <c r="A126" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="B126" s="31">
+      <c r="B126" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="127" ht="18.75" spans="1:2">
-      <c r="A127" s="30" t="s">
+      <c r="A127" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="B127" s="31">
+      <c r="B127" s="34">
         <v>16</v>
       </c>
     </row>
@@ -6364,13 +6474,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6382,448 +6492,448 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="17" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="16" ht="15.75" spans="1:3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="17" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="24"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" ht="15" spans="1:3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="17" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="17" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="17" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="17" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="17" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="17" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="17" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="17" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="36" ht="15" spans="1:3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" ht="15.75" spans="1:3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="14"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="17" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="17" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="17" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="42" ht="15" spans="1:3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="17" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="17" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="14" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="17" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="14" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="17" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="14" t="s">
+      <c r="A46" s="22"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="17" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="20" t="s">
+      <c r="A47" s="22"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="23" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="20" t="s">
+      <c r="A48" s="22"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="23" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="20" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="23" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="23" t="s">
+      <c r="C50" s="26" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="16" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="19" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="16" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="19" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="53" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="13"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="10"/>
+      <c r="A55" s="13"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="13"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="10"/>
+      <c r="A57" s="13"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="10"/>
+      <c r="A58" s="13"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="13"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="13"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="10"/>
+      <c r="A61" s="13"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="10"/>
+      <c r="A62" s="13"/>
     </row>
     <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="10"/>
+      <c r="A63" s="13"/>
     </row>
     <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="10"/>
+      <c r="A64" s="13"/>
     </row>
     <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="10"/>
+      <c r="A65" s="13"/>
     </row>
     <row r="66" ht="18.75" spans="1:1">
-      <c r="A66" s="10"/>
+      <c r="A66" s="13"/>
     </row>
     <row r="67" ht="18.75" spans="1:1">
-      <c r="A67" s="10"/>
+      <c r="A67" s="13"/>
     </row>
     <row r="68" ht="18.75" spans="1:1">
-      <c r="A68" s="10"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="10"/>
+      <c r="A69" s="13"/>
     </row>
     <row r="70" ht="18.75" spans="1:1">
-      <c r="A70" s="10"/>
+      <c r="A70" s="13"/>
     </row>
     <row r="71" ht="18.75" spans="1:1">
-      <c r="A71" s="10"/>
+      <c r="A71" s="13"/>
     </row>
     <row r="72" ht="18.75" spans="1:1">
-      <c r="A72" s="10"/>
+      <c r="A72" s="13"/>
     </row>
     <row r="73" ht="18.75" spans="1:1">
-      <c r="A73" s="10"/>
+      <c r="A73" s="13"/>
     </row>
     <row r="74" ht="18.75" spans="1:1">
-      <c r="A74" s="10"/>
+      <c r="A74" s="13"/>
     </row>
     <row r="75" ht="18.75" spans="1:1">
-      <c r="A75" s="10"/>
+      <c r="A75" s="13"/>
     </row>
     <row r="76" ht="18.75" spans="1:1">
-      <c r="A76" s="10"/>
+      <c r="A76" s="13"/>
     </row>
     <row r="77" ht="18.75" spans="1:1">
-      <c r="A77" s="10"/>
+      <c r="A77" s="13"/>
     </row>
     <row r="78" ht="18.75" spans="1:1">
-      <c r="A78" s="10"/>
+      <c r="A78" s="13"/>
     </row>
     <row r="79" ht="18.75" spans="1:1">
-      <c r="A79" s="10"/>
+      <c r="A79" s="13"/>
     </row>
     <row r="80" ht="18.75" spans="1:1">
-      <c r="A80" s="10"/>
+      <c r="A80" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6861,13 +6971,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6879,306 +6989,306 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="17" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="17" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="17" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="17" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="17" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="17" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="17" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="17" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="17" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="17" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="17" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="17" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="17"/>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="17" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="26" ht="15.75" spans="1:3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="23" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="23" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="23" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="30" ht="15.75" spans="1:3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="20"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="26" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="19" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
     </row>
     <row r="35" ht="18.75" spans="1:1">
-      <c r="A35" s="10"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" ht="18.75" spans="1:1">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
     </row>
     <row r="37" ht="18.75" spans="1:1">
-      <c r="A37" s="10"/>
+      <c r="A37" s="13"/>
     </row>
     <row r="38" ht="18.75" spans="1:1">
-      <c r="A38" s="10"/>
+      <c r="A38" s="13"/>
     </row>
     <row r="39" ht="18.75" spans="1:1">
-      <c r="A39" s="10"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" ht="18.75" spans="1:1">
-      <c r="A40" s="10"/>
+      <c r="A40" s="13"/>
     </row>
     <row r="41" ht="18.75" spans="1:1">
-      <c r="A41" s="10"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" ht="18.75" spans="1:1">
-      <c r="A42" s="10"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" ht="18.75" spans="1:1">
-      <c r="A43" s="10"/>
+      <c r="A43" s="13"/>
     </row>
     <row r="44" ht="18.75" spans="1:1">
-      <c r="A44" s="10"/>
+      <c r="A44" s="13"/>
     </row>
     <row r="45" ht="18.75" spans="1:1">
-      <c r="A45" s="10"/>
+      <c r="A45" s="13"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="13"/>
     </row>
     <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="10"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="13"/>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="10"/>
+      <c r="A49" s="13"/>
     </row>
     <row r="50" ht="18.75" spans="1:1">
-      <c r="A50" s="10"/>
+      <c r="A50" s="13"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="13"/>
     </row>
     <row r="52" ht="18.75" spans="1:1">
-      <c r="A52" s="10"/>
+      <c r="A52" s="13"/>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="10"/>
+      <c r="A53" s="13"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="13"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="10"/>
+      <c r="A55" s="13"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="13"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="10"/>
+      <c r="A57" s="13"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="10"/>
+      <c r="A58" s="13"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="13"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7217,13 +7327,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>18</v>
       </c>
     </row>
@@ -7235,118 +7345,118 @@
       <c r="C2" s="1"/>
     </row>
     <row r="3" ht="15.75" spans="1:3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="19" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="19" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="19" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="19" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="9" ht="30" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="19" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="19" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="19" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="19" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="16" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="19" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="14" ht="15" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="16" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="19" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="15" ht="30" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="16" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="19" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="16" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="19" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="16" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="19" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="8" customHeight="1" spans="1:3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" customFormat="1" ht="24.75" spans="1:3">
       <c r="A19" s="1" t="s">
@@ -7356,271 +7466,271 @@
       <c r="C19" s="1"/>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>417</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="14" t="s">
         <v>418</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="17" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="22"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="17" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="17" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="22"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="17" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="17" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="17" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="20" t="s">
+      <c r="A26" s="22"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="23" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="22"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="23" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="23" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="20" t="s">
+      <c r="A29" s="22"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="23" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="30" ht="25.5" spans="1:3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="21" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="24" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="21" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="24" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="A32" s="22"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="33" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="16" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="19" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="34" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A34" s="19"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="16" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="19" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="16" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="19" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="36" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="16" t="s">
+      <c r="A36" s="22"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="19" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="37" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="16" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="19" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="38" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="16" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="19" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="16" t="s">
+      <c r="A39" s="22"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="19" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="16" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="19" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="41" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="16" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="19" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="42" customFormat="1" ht="17" customHeight="1" spans="1:3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="16" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="19" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="43" customFormat="1" ht="15" spans="1:3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="23" t="s">
+      <c r="C43" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" customFormat="1" ht="15" spans="1:3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="16" t="s">
+      <c r="A44" s="22"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="19" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="45" customFormat="1" ht="9" customHeight="1" spans="1:3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" ht="18.75" spans="1:1">
-      <c r="A46" s="10"/>
+      <c r="A46" s="13"/>
     </row>
     <row r="47" ht="18.75" spans="1:1">
-      <c r="A47" s="10"/>
+      <c r="A47" s="13"/>
     </row>
     <row r="48" ht="18.75" spans="1:1">
-      <c r="A48" s="10"/>
+      <c r="A48" s="13"/>
     </row>
     <row r="49" ht="18.75" spans="1:1">
-      <c r="A49" s="10"/>
+      <c r="A49" s="13"/>
     </row>
     <row r="50" ht="18.75" spans="1:1">
-      <c r="A50" s="10"/>
+      <c r="A50" s="13"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="10"/>
+      <c r="A51" s="13"/>
     </row>
     <row r="52" ht="18.75" spans="1:1">
-      <c r="A52" s="10"/>
+      <c r="A52" s="13"/>
     </row>
     <row r="53" ht="18.75" spans="1:1">
-      <c r="A53" s="10"/>
+      <c r="A53" s="13"/>
     </row>
     <row r="54" ht="18.75" spans="1:1">
-      <c r="A54" s="10"/>
+      <c r="A54" s="13"/>
     </row>
     <row r="55" ht="18.75" spans="1:1">
-      <c r="A55" s="10"/>
+      <c r="A55" s="13"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="10"/>
+      <c r="A56" s="13"/>
     </row>
     <row r="57" ht="18.75" spans="1:1">
-      <c r="A57" s="10"/>
+      <c r="A57" s="13"/>
     </row>
     <row r="58" ht="18.75" spans="1:1">
-      <c r="A58" s="10"/>
+      <c r="A58" s="13"/>
     </row>
     <row r="59" ht="18.75" spans="1:1">
-      <c r="A59" s="10"/>
+      <c r="A59" s="13"/>
     </row>
     <row r="60" ht="18.75" spans="1:1">
-      <c r="A60" s="10"/>
+      <c r="A60" s="13"/>
     </row>
     <row r="61" ht="18.75" spans="1:1">
-      <c r="A61" s="10"/>
+      <c r="A61" s="13"/>
     </row>
     <row r="62" ht="18.75" spans="1:1">
-      <c r="A62" s="10"/>
+      <c r="A62" s="13"/>
     </row>
     <row r="63" ht="18.75" spans="1:1">
-      <c r="A63" s="10"/>
+      <c r="A63" s="13"/>
     </row>
     <row r="64" ht="18.75" spans="1:1">
-      <c r="A64" s="10"/>
+      <c r="A64" s="13"/>
     </row>
     <row r="65" ht="18.75" spans="1:1">
-      <c r="A65" s="10"/>
+      <c r="A65" s="13"/>
     </row>
     <row r="66" ht="18.75" spans="1:1">
-      <c r="A66" s="10"/>
+      <c r="A66" s="13"/>
     </row>
     <row r="67" ht="18.75" spans="1:1">
-      <c r="A67" s="10"/>
+      <c r="A67" s="13"/>
     </row>
     <row r="68" ht="18.75" spans="1:1">
-      <c r="A68" s="10"/>
+      <c r="A68" s="13"/>
     </row>
     <row r="69" ht="18.75" spans="1:1">
-      <c r="A69" s="10"/>
+      <c r="A69" s="13"/>
     </row>
     <row r="70" ht="18.75" spans="1:1">
-      <c r="A70" s="10"/>
+      <c r="A70" s="13"/>
     </row>
     <row r="71" ht="18.75" spans="1:1">
-      <c r="A71" s="10"/>
+      <c r="A71" s="13"/>
     </row>
     <row r="72" ht="18.75" spans="1:1">
-      <c r="A72" s="10"/>
+      <c r="A72" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
